--- a/testdata/test_cases.xlsx
+++ b/testdata/test_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiagonalStuff\test-aryabhat\Automated_testing\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiagonalStuff\test-aryabhat\tests\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54F1DCC4-EE45-4BC3-A1CA-52A97550871A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069090D1-1E30-4BF9-8F40-C199192794DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E4B8BAA6-053C-490B-8A8F-CDABAC5CBC80}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2344" uniqueCount="995">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="990">
   <si>
     <t>Test_ID</t>
   </si>
@@ -438,9 +438,6 @@
     <t>Update user role validation erro</t>
   </si>
   <si>
-    <t>{"user_username":"fake_user_xyz","roles":"User"}</t>
-  </si>
-  <si>
     <t>{"user_username":"user","roles":"Manager"}</t>
   </si>
   <si>
@@ -457,9 +454,6 @@
   </si>
   <si>
     <t>/api/delete-user</t>
-  </si>
-  <si>
-    <t>{"user_username":"user"}</t>
   </si>
   <si>
     <t>{"user_username":"fake_user_xyz"}</t>
@@ -1082,9 +1076,6 @@
     <t>TC11D02</t>
   </si>
   <si>
-    <t>TC11D03</t>
-  </si>
-  <si>
     <t>TC11E01</t>
   </si>
   <si>
@@ -1655,12 +1646,6 @@
     <t>302, 307</t>
   </si>
   <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>access_token / session</t>
-  </si>
-  <si>
     <t>S3 Storage</t>
   </si>
   <si>
@@ -1724,9 +1709,6 @@
     <t>/api/s3storage/process/batch</t>
   </si>
   <si>
-    <t>List files directly in the root of the bucket</t>
-  </si>
-  <si>
     <t>List files inside a specific folder/prefix</t>
   </si>
   <si>
@@ -1835,15 +1817,6 @@
     <t>{"emails": ["asfadf@aaaaaaa.com", "not-an-email"]}</t>
   </si>
   <si>
-    <t>{"item_ids": ["file1", "file2"]}</t>
-  </si>
-  <si>
-    <t>{"wrong_key": ["file1"]}</t>
-  </si>
-  <si>
-    <t>{"item_ids": ["file1"]}</t>
-  </si>
-  <si>
     <t>{"item_ids": ["invalid_file"]}</t>
   </si>
   <si>
@@ -1946,12 +1919,6 @@
     <t>TC17I04</t>
   </si>
   <si>
-    <t>{"folderId": "root"}</t>
-  </si>
-  <si>
-    <t>{"folderId": "invalid_id"}</t>
-  </si>
-  <si>
     <t>/api/auth/signup</t>
   </si>
   <si>
@@ -2096,9 +2063,6 @@
     <t>OTP sent for forgot password</t>
   </si>
   <si>
-    <t>TC02A01, TC02B01</t>
-  </si>
-  <si>
     <t>TC02A01,TC02B01</t>
   </si>
   <si>
@@ -2126,9 +2090,6 @@
     <t>TC02G04</t>
   </si>
   <si>
-    <t>{"email": "invalid@example.com","new_password": "Pass1","confirm_password": "Pass1"}</t>
-  </si>
-  <si>
     <t>Invalid email update</t>
   </si>
   <si>
@@ -2426,9 +2387,6 @@
     <t>Create a new notebook with a valid user_id</t>
   </si>
   <si>
-    <t>{"endpoint_url": "http://invalid-endpoint-1234/api/generate", "api_key": "invalid_api_key_999", "model": "llama3.1:latest", "temperature": 1 }</t>
-  </si>
-  <si>
     <t>{"model_id": "47gr" }</t>
   </si>
   <si>
@@ -2445,9 +2403,6 @@
   </si>
   <si>
     <t>{"usernames":[],"emails":[],"roles":["user"],"license":"yes"}</t>
-  </si>
-  <si>
-    <t>{"user_username":"user","roles":"admin"}</t>
   </si>
   <si>
     <t>/api/update_activity</t>
@@ -2753,9 +2708,6 @@
     <t>Update Password – Unknown Email</t>
   </si>
   <si>
-    <t>{"email": "non-existent-email@gmail.com","new_password": "Pass1","confirm_password": "Pass1"}</t>
-  </si>
-  <si>
     <t>Email doesn’t exist</t>
   </si>
   <si>
@@ -2813,9 +2765,6 @@
     <t>{"model_id": "{{TC12A01.model_id}}"}</t>
   </si>
   <si>
-    <t>{"model_id": "{{TC12A01.model_id}}", "temperature": 0.5 }</t>
-  </si>
-  <si>
     <t>Update temperature for model created in TC12A01</t>
   </si>
   <si>
@@ -2831,9 +2780,6 @@
     <t>Enable provider and model created in TC12A01</t>
   </si>
   <si>
-    <t>{"provider_name": "{{TC12A01.provider_name}}", "model_id": "{{TC12A01.model_id}}"}</t>
-  </si>
-  <si>
     <t>Get LLM details using model ID from TC12A01</t>
   </si>
   <si>
@@ -2909,9 +2855,6 @@
     <t>Update Provider Status - Provider not found</t>
   </si>
   <si>
-    <t>{"user_username":"user","roles":"Admin"}</t>
-  </si>
-  <si>
     <t>React -- Valid Reaction</t>
   </si>
   <si>
@@ -3005,12 +2948,6 @@
     <t>{"user_id": "valid_userId"}</t>
   </si>
   <si>
-    <t>{"tag_id": "{{TC03A01._id}}", "tag_name": "Machine Learning", "modified_by": "valid_userId"}</t>
-  </si>
-  <si>
-    <t>{"tag_id": "abc", "tag_name":"Machine Learning","modified_by":"valid_userId"}</t>
-  </si>
-  <si>
     <t>{"model_id": "lwav", "provider_id": "68c95a3b15c02201dda52ea8", "chat_id": "tbydhisvea", "user_input": "what are f block elements", "user_id": "valid_userId", "department_tag": "personal"}</t>
   </si>
   <si>
@@ -3029,9 +2966,6 @@
     <t>{"user_id": "valid_userId", "chat_id": "{{TC11G01.chat_id}}"}</t>
   </si>
   <si>
-    <t>{"user_id": "valid_userId", "chat_id": "{{TC11G01.chat_id}}", "message_ids": "{{TC11G01.last_message_id}}", "is_RL": false, "is_liked": 1}</t>
-  </si>
-  <si>
     <t>{"user_id": "valid_userId", "chat_id": "{{TC11G01.chat_id}}", "header": "Renamed Notebook"}</t>
   </si>
   <si>
@@ -3053,33 +2987,12 @@
     <t>{"page": -1, "page_size":"default_size"}</t>
   </si>
   <si>
-    <t>{"object_keys": ["file1","file2"], "bucket_name": "custom_bucket"}</t>
-  </si>
-  <si>
-    <t>{"object_keys": ["file1","file2"]}</t>
-  </si>
-  <si>
-    <t>{"bucket_name": "custom_bucket"}</t>
-  </si>
-  <si>
-    <t>{"object_keys": [], "bucket_name": "custom_bucket"}</t>
-  </si>
-  <si>
-    <t>{"object_keys": "file1", "bucket_name": "custom_bucket"}</t>
-  </si>
-  <si>
     <t>{"bucket_name": "valid_bucket"}</t>
   </si>
   <si>
-    <t>{"bucket_name": "valid_bucket", "prefix": "uploads/"}</t>
-  </si>
-  <si>
     <t>{"signed_license_key": "invalid_license_key", "user_id": "valid_userId" }</t>
   </si>
   <si>
-    <t>{"signed_license_key": "revoked_license_key", "username": "user", "revoked_by_id": "valid_userId" }</t>
-  </si>
-  <si>
     <t>{"signed_license_key": "revoked_license_key", "revoked_by_id": "valid_userId" }</t>
   </si>
   <si>
@@ -3089,9 +3002,6 @@
     <t>{"signed_license_key": "valid_signed_license_key" }</t>
   </si>
   <si>
-    <t>{"signed_license_key": "valid_signed_license_key", "username": "user", "issued_by_id": "valid_userId" }</t>
-  </si>
-  <si>
     <t>{"signed_license_key": "valid_signed_license_key", "issued_by_id": "valid_userId" }</t>
   </si>
   <si>
@@ -3125,33 +3035,12 @@
     <t>{"database_service_provider_id": "db_provider_id", "id": "db_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": "yes", "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "set"}</t>
   </si>
   <si>
-    <t>{"endpoint_url": "http://db_server:11434/api/generate", "api_key": "{{TC12A01.apikey}}", "model": "{{TC12A01.model_name}}", "temperature": 1 }</t>
-  </si>
-  <si>
-    <t>{"endpoint_url": "http://db_server:11434/api/generate" }</t>
-  </si>
-  <si>
-    <t>{"endpoint_url": "http://db_server:11434/api/generate", "api_key": "", "model": "llama3.1:latest", "temperature": 1 }</t>
-  </si>
-  <si>
-    <t>{"provider_name": "TestProvider", "model_name": "TestModel", "user_id": "64f1a7b9e1d2f6c1a0d3b456", "apikey": "valid_apikey", "api_proxy_address": "valid_proxy", "is_enabled": false, "created_at": "2025-10-10T10:00:00Z", "temperature": 0.5 }</t>
-  </si>
-  <si>
-    <t>{"provider_name": "TestProvider", "user_id": "64f1a7b9e1d2f6c1a0d3b456", "apikey": "valid_apikey", "api_proxy_address": "valid_proxy", "is_enabled": false, "created_at": "...", "temperature": 0.5 }</t>
-  </si>
-  <si>
-    <t>{"provider_name": "TestProvider", "model_name": "TestModel", "user_id": "invalid_user_999",  "apikey": "valid_apikey", "api_proxy_address": "valid_proxy", "is_enabled": false, "created_at": "2025-10-10T10:00:00Z", "temperature": 0.5 }</t>
-  </si>
-  <si>
     <t>{"provider_name": "provider_name", "model_id": "47gr" }</t>
   </si>
   <si>
     <t>{"provider_name": "provider_name", "model_id": "invalid_model_id" }</t>
   </si>
   <si>
-    <t>{"model_id": "invalid_model_id", "temperature": 0.5 }</t>
-  </si>
-  <si>
     <t>{"model_id": "invalid_model_id" }</t>
   </si>
   <si>
@@ -3182,12 +3071,6 @@
     <t>{"user_id": "valid_userId", "chat_id": "valid_chat_id", "message_ids": "pti9308cgqan6hyrbfvoelwx", "is_RL": False, "is_liked": 1}</t>
   </si>
   <si>
-    <t>{"tag_id": "valid_tag_id", "tag_name":"Machine Learning","modified_by":"valid_userId"}</t>
-  </si>
-  <si>
-    <t>{"tag_id":"invalid_tag_id","tag_name":"invalid_tag_name","modified_by":"valid_userId"}</t>
-  </si>
-  <si>
     <t>{"tag_name": "valid_tag_name", "user_id": "valid_userId"}</t>
   </si>
   <si>
@@ -3239,18 +3122,9 @@
     <t>{"email": "login_mail","new_password": "valid_mail_pass","confirm_password": "valid_mail_pass"}</t>
   </si>
   <si>
-    <t>{"email": "login_mail","new_password": "Pass1","confirm_password": "Pass2"}</t>
-  </si>
-  <si>
-    <t>{"email": "login_mail","new_password": "Pass1"}</t>
-  </si>
-  <si>
     <t>{"email": "valid_mail", "password": "login_pass", "confirm_password": "WrongPassword!"}</t>
   </si>
   <si>
-    <t>{"useremail": "valid_mail", "username": "testuserotp", "firstname": "Test", "lastname": "User", "gender": "Male", "dob": "1990-01-01", "city": "default_city", "state": "default_state", "country": "CountryName", "phone_no": "9999999999"}</t>
-  </si>
-  <si>
     <t>{"receiver_email": "valid_mail", "sender_email": "support_mail", "smtp_server": "smtp_server", "smtp_port": "smtp_port", "smtp_password": "smtp_password"}</t>
   </si>
   <si>
@@ -3260,33 +3134,15 @@
     <t>{"receiver_email": "valid_mail", "sender_email": "support_mail", "smtp_server": "smtp.diagonal.ai", "smtp_port": "smtp_port", "smtp_password": "smtp_password"}</t>
   </si>
   <si>
-    <t>{"emails": ["valid_mail", "test_mail"]}</t>
-  </si>
-  <si>
     <t>{"page": "default_page", "size": "default_size"}</t>
   </si>
   <si>
     <t>{"page":-1,"size":"default_size"}</t>
   </si>
   <si>
-    <t>{"code": "google_oauth_code"}</t>
-  </si>
-  <si>
     <t>{"user_id": "valid_userId", "chat_id": "invalid_chat_id", "header": "Invalid_chat_id"}</t>
   </si>
   <si>
-    <t>{"useremail": "valid_mail", "username": "user", "firstname": "A", "lastname": "", "gender": "default_gender", "dob": "default_dob", "city": "", "state": "", "country": "default_country", "phone_no": "9876543210"}</t>
-  </si>
-  <si>
-    <t>{"username": "user","firstname": "A","lastname": "","gender": "default_gender","dob": "default_dob","city": "","state": "","country": "default_country","phone_no": "9876543210"}</t>
-  </si>
-  <si>
-    <t>{"useremail": "valid_mail","username": "John","firstname": "A","lastname": "","gender": "default_gender","dob": "default_dob","city": "","state": "","country": "default_country","phone_no": "9876543210"}</t>
-  </si>
-  <si>
-    <t>{"useremail": "sample_mail","username": "user","firstname": "A","lastname": "","gender": "default_gender","dob": "default_dob","city": "","state": "","country": "default_country","phone_no": "9876543210"}</t>
-  </si>
-  <si>
     <t>{"useremail": "valid_mail", "username": "user", "firstname": "A", "lastname": "", "gender": "default_gender", "dob": "default_dob", "city": "", "state": "", "country": "default_country", "phone_no": "9876543210", "profile_picture": "&lt;unsupported_file_type&gt;"}</t>
   </si>
   <si>
@@ -3314,29 +3170,158 @@
     <t>{"page":"default_page","page_size":10,"tag_name":"11111111"}</t>
   </si>
   <si>
-    <t>{"page":"default_page", "page_size": "large_page_size"}</t>
-  </si>
-  <si>
-    <t>{"email": "valid_mail", "folderId": null}</t>
-  </si>
-  <si>
-    <t>{"email": "login_mail", "otp": "{{TC02B01.otp}}", "otp_validation_type": "signup"}</t>
-  </si>
-  <si>
-    <t>{"email": "login_mail", "otp": "999999", "otp_validation_type": "signup"}</t>
-  </si>
-  <si>
     <t>{"grant_type":"password","username":"invalid_email","password":"INVALID_PASSWORD"}</t>
   </si>
   <si>
-    <t>{"grant_type":"password","username":"valid_mail","password":"valid_mail_pass"}</t>
+    <t>{"folderId": "valid_folder_id"}</t>
+  </si>
+  <si>
+    <t>{"folderId": "invalid_folder_id"}</t>
+  </si>
+  <si>
+    <t>{"emails": ["test_mail"]}</t>
+  </si>
+  <si>
+    <t>{"useremail": "sample_mail@gmail.com","username": "user","firstname": "A","lastname": "","gender": "default_gender","dob": "default_dob","city": "","state": "","country": "default_country","phone_no": "9876543210"}</t>
+  </si>
+  <si>
+    <t>{"email": "login_mail", "otp": "valid_otp", "otp_validation_type": "signup"}</t>
+  </si>
+  <si>
+    <t>{"tag_id": "{{TC03A01._id}}", "tag_name": "rename_tag", "modified_by": "valid_userId"}</t>
+  </si>
+  <si>
+    <t>{"user_id": "valid_userId", "chat_id": "valid_chat_id", "message_ids": "{{TC11G01.last_message_id}}", "is_RL": false, "is_liked": 1}</t>
+  </si>
+  <si>
+    <t>TC11C04</t>
+  </si>
+  <si>
+    <t>{"object_keys": [], "bucket_name": "valid_bucket"}</t>
+  </si>
+  <si>
+    <t>{"object_keys": "file1", "bucket_name": "valid_bucket"}</t>
+  </si>
+  <si>
+    <t>{"email": "o_email"}</t>
+  </si>
+  <si>
+    <t>{"item_ids": google_valid_item_ids}</t>
+  </si>
+  <si>
+    <t>{"item_ids": "g_file1.txt"}</t>
+  </si>
+  <si>
+    <t>{"item_ids": onedrive_valid_item_ids}</t>
+  </si>
+  <si>
+    <t>{"useremail": "valid_mail","username": "existing_username","firstname": "A","lastname": "","gender": "default_gender","dob": "default_dob","city": "","state": "","country": "default_country","phone_no": "9876543210"}</t>
+  </si>
+  <si>
+    <t>{"useremail": "valid_mail", "username": "new_username", "firstname": "A", "lastname": "", "gender": "default_gender", "dob": "default_dob", "city": "", "state": "", "country": "default_country", "phone_no": "9876543210"}</t>
+  </si>
+  <si>
+    <t>{"username": "new_username","firstname": "A","lastname": "","gender": "default_gender","dob": "default_dob","city": "","state": "","country": "default_country","phone_no": "9876543210"}</t>
+  </si>
+  <si>
+    <t>{"useremail": "unverified_mail", "username": "Otp-not-verified", "firstname": "Test", "lastname": "User", "gender": "Male", "dob": "1990-01-01", "city": "default_city", "state": "default_state", "country": "CountryName", "phone_no": "9999999999"}</t>
+  </si>
+  <si>
+    <t>{"grant_type":"password","username":"unverified_mail","password":"valid_mail_pass"}</t>
+  </si>
+  <si>
+    <t>{"grant_type":"password","username":"inactivate_mail","password":"valid_mail_pass"}</t>
+  </si>
+  <si>
+    <t>{"email": "login_mail","new_password": "Pass@1234","confirm_password": "Pass@3452"}</t>
+  </si>
+  <si>
+    <t>{"email": "login_mail","new_password": "Pass@1234"}</t>
+  </si>
+  <si>
+    <t>{"email": "invalid@example.com","new_password": "Pass@1234","confirm_password": "Pass@1234"}</t>
+  </si>
+  <si>
+    <t>{"email": "non-existent-email@gmail.com","new_password": "Pass@1234","confirm_password": "Pass@1234"}</t>
+  </si>
+  <si>
+    <t>{"email": "o_email", "folderId": "valid_folderId"}</t>
+  </si>
+  <si>
+    <t>{"bucket_name": "valid_bucket", "prefix": "bucket_prefix"}</t>
+  </si>
+  <si>
+    <t>{"signed_license_key": "valid_signed_license_key", "username": "username_u", "issued_by_id": "valid_userId" }</t>
+  </si>
+  <si>
+    <t>{"signed_license_key": "revoked_license_key", "username": "username_u", "revoked_by_id": "valid_userId" }</t>
+  </si>
+  <si>
+    <t>{"model_id": "invalid_model_id", "temperature": valid_temperature }</t>
+  </si>
+  <si>
+    <t>{"endpoint_url": "llm_endpoint_url", "api_key": "valid_apikey", "model": "{{TC12A01.model_name}}", "temperature": valid_temperature }</t>
+  </si>
+  <si>
+    <t>{"model_id": "{{TC12A01.model_id}}", "temperature": valid_temperature }</t>
+  </si>
+  <si>
+    <t>{"endpoint_url": "llm_endpoint_url" }</t>
+  </si>
+  <si>
+    <t>{"endpoint_url": "http://invalid-endpoint-1234/api/generate", "api_key": "invalid_api_key_999", "model": "llm_model", "temperature": valid_temperature }</t>
+  </si>
+  <si>
+    <t>{"endpoint_url": "llm_endpoint_url", "api_key": "", "model": "llm_model", "temperature": valid_temperature }</t>
+  </si>
+  <si>
+    <t>{"provider_name": "provider_name", "model_id": "{{TC12A01.model_id}}"}</t>
+  </si>
+  <si>
+    <t>{"provider_name": "llm_provider_name", "model_name": "llm_model_name", "user_id": "invalid_user_999",  "apikey": "valid_apikey", "api_proxy_address": "valid_proxy", "is_enabled": false, "created_at": "llm_created_at", "temperature": valid_temperature }</t>
+  </si>
+  <si>
+    <t>{"provider_name": "llm_provider_name", "model_name": "llm_model_name", "user_id": "valid_userId", "apikey": "valid_apikey", "api_proxy_address": "valid_proxy", "is_enabled": false, "created_at": "llm_created_at", "temperature": valid_temperature }</t>
+  </si>
+  <si>
+    <t>{"provider_name": "llm_provider_name", "user_id": "valid_userId", "apikey": "valid_apikey", "api_proxy_address": "valid_proxy", "is_enabled": false, "created_at": "llm_created_at", "temperature": valid_temperature }</t>
+  </si>
+  <si>
+    <t>{"tag_id": "invalid_tag_id", "tag_name":"invalid_tag_name", "modified_by":"valid_userId"}</t>
+  </si>
+  <si>
+    <t>{"tag_id": "invalid_tag_id", "tag_name":"Machine Learning", "modified_by":"valid_userId"}</t>
+  </si>
+  <si>
+    <t>{"user_username":"delete_user"}</t>
+  </si>
+  <si>
+    <t>{"user_username":"user","roles":"user_role"}</t>
+  </si>
+  <si>
+    <t>{"user_username": 123456,"roles":"user_role"}</t>
+  </si>
+  <si>
+    <t>{"object_keys": "valid_object_keys"}</t>
+  </si>
+  <si>
+    <t>{"object_keys": "valid_object_keys", "bucket_name": "valid_bucket"}</t>
+  </si>
+  <si>
+    <t>{"provider_id": "invalid_provider_id", "model_id": "valid_model_id", "is_enabled": true }</t>
+  </si>
+  <si>
+    <t>{"tag_id": "68e4c44d8cdd409f3fa8a6c2", "tag_name":"Machine Learning","modified_by":"valid_userId"}</t>
+  </si>
+  <si>
+    <t>{"page":"not_a_number", "page_size": "aaaaaaaaa"}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3359,14 +3344,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -3396,21 +3373,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="1">
@@ -3733,18 +3707,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB1F54A-02EF-463F-B588-F0453A90B53E}">
   <dimension ref="A1:O259"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="104" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H67" sqref="H67"/>
+    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H55" sqref="H55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="38.5546875" customWidth="1"/>
+    <col min="3" max="3" width="30.33203125" customWidth="1"/>
     <col min="5" max="5" width="25.33203125" customWidth="1"/>
     <col min="6" max="6" width="12.109375" customWidth="1"/>
-    <col min="7" max="7" width="17" customWidth="1"/>
-    <col min="8" max="8" width="19.77734375" customWidth="1"/>
+    <col min="7" max="7" width="13.6640625" customWidth="1"/>
+    <col min="8" max="8" width="37.5546875" customWidth="1"/>
     <col min="9" max="9" width="11.6640625" customWidth="1"/>
     <col min="11" max="11" width="8.88671875" customWidth="1"/>
     <col min="13" max="13" width="8.88671875" customWidth="1"/>
@@ -3814,7 +3788,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="J2">
         <v>200</v>
@@ -3846,7 +3820,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>896</v>
+        <v>874</v>
       </c>
       <c r="J3">
         <v>401</v>
@@ -3855,7 +3829,7 @@
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M3" t="s">
         <v>25</v>
@@ -3898,13 +3872,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>793</v>
+        <v>778</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>795</v>
+        <v>780</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -3916,7 +3890,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>897</v>
+        <v>875</v>
       </c>
       <c r="J5">
         <v>415</v>
@@ -3928,7 +3902,7 @@
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>794</v>
+        <v>779</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3986,7 +3960,7 @@
         <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M7" t="s">
         <v>37</v>
@@ -4021,7 +3995,7 @@
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>832</v>
+        <v>814</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4032,7 +4006,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>792</v>
+        <v>777</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -4041,7 +4015,7 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="J9">
         <v>422</v>
@@ -4050,10 +4024,10 @@
         <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M9" t="s">
-        <v>791</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4064,28 +4038,28 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>623</v>
+        <v>610</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H10" t="s">
-        <v>898</v>
+        <v>876</v>
       </c>
       <c r="J10">
         <v>200</v>
       </c>
       <c r="K10" t="s">
-        <v>548</v>
+        <v>537</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>550</v>
+        <v>539</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4096,16 +4070,16 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>624</v>
+        <v>611</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H11" t="s">
-        <v>966</v>
+        <v>925</v>
       </c>
       <c r="J11">
         <v>400</v>
@@ -4117,7 +4091,7 @@
         <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>549</v>
+        <v>538</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4128,16 +4102,16 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>625</v>
+        <v>612</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H12" t="s">
-        <v>957</v>
+        <v>918</v>
       </c>
       <c r="J12">
         <v>409</v>
@@ -4149,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>551</v>
+        <v>540</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4160,16 +4134,16 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>626</v>
+        <v>613</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H13" t="s">
-        <v>955</v>
+        <v>916</v>
       </c>
       <c r="J13">
         <v>422</v>
@@ -4181,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4192,19 +4166,19 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>627</v>
+        <v>614</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H14" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="J14" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
         <v>51</v>
@@ -4213,27 +4187,27 @@
         <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>553</v>
+        <v>542</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>760</v>
+        <v>745</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>761</v>
+        <v>746</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H15" t="s">
-        <v>956</v>
+        <v>917</v>
       </c>
       <c r="J15">
         <v>500</v>
@@ -4242,30 +4216,30 @@
         <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>20</v>
+        <v>692</v>
       </c>
       <c r="M15" t="s">
-        <v>762</v>
+        <v>747</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>814</v>
+        <v>798</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>815</v>
+        <v>799</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>546</v>
+        <v>535</v>
       </c>
       <c r="H16" t="s">
-        <v>954</v>
+        <v>915</v>
       </c>
       <c r="J16">
         <v>404</v>
@@ -4277,30 +4251,30 @@
         <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>816</v>
+        <v>800</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>628</v>
+        <v>615</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>899</v>
+        <v>877</v>
       </c>
       <c r="J17">
         <v>200</v>
@@ -4312,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>560</v>
+        <v>549</v>
       </c>
       <c r="N17" t="s">
         <v>41</v>
@@ -4320,25 +4294,25 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>555</v>
+        <v>544</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>629</v>
+        <v>616</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>953</v>
+        <v>914</v>
       </c>
       <c r="J18">
         <v>422</v>
@@ -4350,30 +4324,30 @@
         <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>561</v>
+        <v>550</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>556</v>
+        <v>545</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>630</v>
+        <v>617</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="J19">
         <v>404</v>
@@ -4385,24 +4359,24 @@
         <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>562</v>
+        <v>551</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>557</v>
+        <v>546</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>631</v>
+        <v>618</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>558</v>
+        <v>547</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -4420,27 +4394,27 @@
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>563</v>
+        <v>552</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>569</v>
+        <v>558</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>632</v>
+        <v>619</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="H21" t="s">
-        <v>991</v>
+        <v>946</v>
       </c>
       <c r="J21">
         <v>200</v>
@@ -4452,30 +4426,27 @@
         <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>568</v>
-      </c>
-      <c r="N21" t="s">
-        <v>594</v>
+        <v>557</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>570</v>
+        <v>559</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>633</v>
+        <v>620</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="H22" t="s">
-        <v>992</v>
+        <v>946</v>
       </c>
       <c r="J22">
         <v>400</v>
@@ -4487,30 +4458,27 @@
         <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>567</v>
-      </c>
-      <c r="N22" t="s">
-        <v>594</v>
+        <v>556</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>571</v>
+        <v>560</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>634</v>
+        <v>621</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="H23" t="s">
-        <v>952</v>
+        <v>913</v>
       </c>
       <c r="J23">
         <v>400</v>
@@ -4522,30 +4490,27 @@
         <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>566</v>
-      </c>
-      <c r="N23" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>572</v>
+        <v>561</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>635</v>
+        <v>622</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>564</v>
+        <v>553</v>
       </c>
       <c r="H24" t="s">
-        <v>962</v>
+        <v>923</v>
       </c>
       <c r="J24">
         <v>422</v>
@@ -4557,30 +4522,27 @@
         <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>565</v>
-      </c>
-      <c r="N24" t="s">
-        <v>594</v>
+        <v>554</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>573</v>
+        <v>562</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>636</v>
+        <v>623</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="H25" t="s">
-        <v>976</v>
+        <v>957</v>
       </c>
       <c r="J25">
         <v>200</v>
@@ -4592,33 +4554,33 @@
         <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>577</v>
+        <v>566</v>
       </c>
       <c r="N25" t="s">
-        <v>554</v>
+        <v>543</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>575</v>
+        <v>564</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>637</v>
+        <v>624</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="H26" t="s">
-        <v>977</v>
+        <v>958</v>
       </c>
       <c r="J26" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K26" t="s">
         <v>51</v>
@@ -4627,27 +4589,27 @@
         <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>578</v>
+        <v>567</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>576</v>
+        <v>565</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>638</v>
+        <v>625</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="H27" t="s">
-        <v>978</v>
+        <v>956</v>
       </c>
       <c r="J27">
         <v>409</v>
@@ -4659,27 +4621,27 @@
         <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>579</v>
+        <v>568</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>739</v>
+        <v>724</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="H28" t="s">
-        <v>967</v>
+        <v>959</v>
       </c>
       <c r="J28">
         <v>403</v>
@@ -4691,27 +4653,27 @@
         <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>741</v>
+        <v>726</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>810</v>
+        <v>794</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>811</v>
+        <v>795</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="H29" t="s">
-        <v>979</v>
+        <v>945</v>
       </c>
       <c r="J29">
         <v>404</v>
@@ -4723,27 +4685,27 @@
         <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>842</v>
+        <v>824</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>812</v>
+        <v>796</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>574</v>
+        <v>563</v>
       </c>
       <c r="H30" t="s">
-        <v>980</v>
+        <v>932</v>
       </c>
       <c r="J30">
         <v>415</v>
@@ -4755,12 +4717,12 @@
         <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>813</v>
+        <v>797</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -4775,14 +4737,11 @@
         <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>958</v>
+        <v>919</v>
       </c>
       <c r="J31">
         <v>200</v>
       </c>
-      <c r="K31" t="s">
-        <v>19</v>
-      </c>
       <c r="L31" t="s">
         <v>20</v>
       </c>
@@ -4792,13 +4751,13 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>581</v>
+        <v>570</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>806</v>
+        <v>790</v>
       </c>
       <c r="D32" t="s">
         <v>44</v>
@@ -4807,7 +4766,7 @@
         <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>993</v>
+        <v>941</v>
       </c>
       <c r="J32">
         <v>404</v>
@@ -4819,18 +4778,18 @@
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>807</v>
+        <v>791</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>582</v>
+        <v>571</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>808</v>
+        <v>792</v>
       </c>
       <c r="D33" t="s">
         <v>44</v>
@@ -4839,7 +4798,7 @@
         <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>809</v>
+        <v>793</v>
       </c>
       <c r="J33">
         <v>404</v>
@@ -4856,7 +4815,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>583</v>
+        <v>572</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
@@ -4871,7 +4830,7 @@
         <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>959</v>
+        <v>920</v>
       </c>
       <c r="J34">
         <v>422</v>
@@ -4888,7 +4847,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>584</v>
+        <v>573</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -4903,7 +4862,7 @@
         <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>960</v>
+        <v>921</v>
       </c>
       <c r="J35">
         <v>422</v>
@@ -4915,12 +4874,12 @@
         <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>833</v>
+        <v>815</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>585</v>
+        <v>574</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -4935,7 +4894,7 @@
         <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>961</v>
+        <v>922</v>
       </c>
       <c r="J36">
         <v>422</v>
@@ -4952,7 +4911,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>586</v>
+        <v>575</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -4967,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>994</v>
+        <v>960</v>
       </c>
       <c r="J37">
         <v>403</v>
@@ -4984,13 +4943,13 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>804</v>
+        <v>788</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>805</v>
+        <v>789</v>
       </c>
       <c r="D38" t="s">
         <v>44</v>
@@ -4999,7 +4958,7 @@
         <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>994</v>
+        <v>961</v>
       </c>
       <c r="J38">
         <v>403</v>
@@ -5011,30 +4970,30 @@
         <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>588</v>
+        <v>577</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>639</v>
+        <v>626</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>962</v>
+        <v>923</v>
       </c>
       <c r="J39">
         <v>200</v>
@@ -5046,33 +5005,33 @@
         <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>593</v>
+        <v>582</v>
       </c>
       <c r="N39" t="s">
-        <v>595</v>
+        <v>583</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>589</v>
+        <v>578</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>640</v>
+        <v>627</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>953</v>
+        <v>914</v>
       </c>
       <c r="J40">
         <v>422</v>
@@ -5084,30 +5043,30 @@
         <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>552</v>
+        <v>541</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>590</v>
+        <v>579</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>641</v>
+        <v>628</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>559</v>
+        <v>548</v>
       </c>
       <c r="J41">
         <v>404</v>
@@ -5119,24 +5078,24 @@
         <v>20</v>
       </c>
       <c r="M41" t="s">
-        <v>596</v>
+        <v>584</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>642</v>
+        <v>629</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -5154,30 +5113,30 @@
         <v>20</v>
       </c>
       <c r="M42" t="s">
-        <v>597</v>
+        <v>585</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>592</v>
+        <v>581</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>643</v>
+        <v>630</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>587</v>
+        <v>576</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>547</v>
+        <v>536</v>
       </c>
       <c r="J43">
         <v>400</v>
@@ -5189,30 +5148,30 @@
         <v>20</v>
       </c>
       <c r="M43" t="s">
-        <v>598</v>
+        <v>586</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>600</v>
+        <v>588</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>644</v>
+        <v>631</v>
       </c>
       <c r="D44" t="s">
         <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>963</v>
+        <v>924</v>
       </c>
       <c r="J44">
         <v>200</v>
@@ -5224,30 +5183,30 @@
         <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>608</v>
+        <v>595</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>601</v>
+        <v>589</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>645</v>
+        <v>632</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J45">
         <v>400</v>
@@ -5259,30 +5218,30 @@
         <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>607</v>
+        <v>594</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>602</v>
+        <v>590</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>646</v>
+        <v>633</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J46">
         <v>422</v>
@@ -5294,30 +5253,30 @@
         <v>20</v>
       </c>
       <c r="M46" t="s">
-        <v>606</v>
+        <v>593</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>603</v>
+        <v>591</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>647</v>
+        <v>634</v>
       </c>
       <c r="D47" t="s">
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>604</v>
+        <v>964</v>
       </c>
       <c r="J47">
         <v>400</v>
@@ -5329,30 +5288,30 @@
         <v>20</v>
       </c>
       <c r="M47" t="s">
-        <v>605</v>
+        <v>592</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>800</v>
+        <v>785</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>801</v>
+        <v>786</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>599</v>
+        <v>587</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>802</v>
+        <v>965</v>
       </c>
       <c r="J48">
         <v>404</v>
@@ -5364,24 +5323,24 @@
         <v>20</v>
       </c>
       <c r="M48" t="s">
-        <v>803</v>
+        <v>787</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>609</v>
+        <v>596</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>648</v>
+        <v>635</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
@@ -5396,33 +5355,33 @@
         <v>20</v>
       </c>
       <c r="M49" t="s">
-        <v>622</v>
+        <v>609</v>
       </c>
       <c r="N49" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>610</v>
+        <v>597</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>731</v>
+        <v>716</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>735</v>
+        <v>720</v>
       </c>
       <c r="J50">
         <v>400</v>
@@ -5434,27 +5393,27 @@
         <v>20</v>
       </c>
       <c r="M50" t="s">
-        <v>737</v>
+        <v>722</v>
       </c>
       <c r="N50" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>611</v>
+        <v>598</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>732</v>
+        <v>717</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -5469,30 +5428,30 @@
         <v>51</v>
       </c>
       <c r="L51" t="s">
-        <v>20</v>
+        <v>692</v>
       </c>
       <c r="M51" t="s">
-        <v>736</v>
+        <v>721</v>
       </c>
       <c r="N51" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>733</v>
+        <v>718</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>734</v>
+        <v>719</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -5504,33 +5463,33 @@
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M52" t="s">
-        <v>621</v>
+        <v>608</v>
       </c>
       <c r="N52" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>796</v>
+        <v>781</v>
       </c>
       <c r="B53" t="s">
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>797</v>
+        <v>782</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>712</v>
+        <v>697</v>
       </c>
       <c r="F53" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -5545,91 +5504,91 @@
         <v>20</v>
       </c>
       <c r="M53" t="s">
-        <v>799</v>
+        <v>784</v>
       </c>
       <c r="N53" t="s">
-        <v>580</v>
+        <v>569</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>612</v>
+        <v>599</v>
       </c>
       <c r="B54" t="s">
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>649</v>
+        <v>636</v>
       </c>
       <c r="D54" t="s">
         <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G54" t="s">
-        <v>951</v>
+        <v>912</v>
       </c>
       <c r="J54">
         <v>200</v>
       </c>
       <c r="K54" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="L54" t="s">
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>620</v>
+        <v>607</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>613</v>
+        <v>600</v>
       </c>
       <c r="B55" t="s">
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>650</v>
+        <v>637</v>
       </c>
       <c r="D55" t="s">
         <v>79</v>
       </c>
       <c r="E55" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G55" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="J55">
         <v>400</v>
       </c>
       <c r="K55" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="L55" t="s">
         <v>20</v>
       </c>
       <c r="M55" t="s">
-        <v>618</v>
+        <v>605</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>614</v>
+        <v>601</v>
       </c>
       <c r="B56" t="s">
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>651</v>
+        <v>638</v>
       </c>
       <c r="D56" t="s">
         <v>79</v>
       </c>
       <c r="E56" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G56" t="s">
         <v>29</v>
@@ -5644,88 +5603,88 @@
         <v>20</v>
       </c>
       <c r="M56" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>775</v>
+        <v>760</v>
       </c>
       <c r="B57" t="s">
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>782</v>
+        <v>767</v>
       </c>
       <c r="D57" t="s">
         <v>79</v>
       </c>
-      <c r="E57" s="4" t="s">
-        <v>774</v>
+      <c r="E57" s="3" t="s">
+        <v>759</v>
       </c>
       <c r="G57" t="s">
-        <v>950</v>
+        <v>911</v>
       </c>
       <c r="J57">
         <v>200</v>
       </c>
       <c r="K57" t="s">
-        <v>615</v>
+        <v>602</v>
       </c>
       <c r="L57" t="s">
         <v>20</v>
       </c>
       <c r="M57" t="s">
-        <v>778</v>
+        <v>763</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>776</v>
+        <v>761</v>
       </c>
       <c r="B58" t="s">
         <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>781</v>
+        <v>766</v>
       </c>
       <c r="D58" t="s">
         <v>79</v>
       </c>
-      <c r="E58" s="4" t="s">
-        <v>774</v>
+      <c r="E58" s="3" t="s">
+        <v>759</v>
       </c>
       <c r="G58" t="s">
-        <v>619</v>
+        <v>606</v>
       </c>
       <c r="J58">
         <v>400</v>
       </c>
       <c r="K58" t="s">
-        <v>616</v>
+        <v>603</v>
       </c>
       <c r="L58" t="s">
         <v>20</v>
       </c>
       <c r="M58" t="s">
-        <v>779</v>
+        <v>764</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>777</v>
+        <v>762</v>
       </c>
       <c r="B59" t="s">
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>780</v>
+        <v>765</v>
       </c>
       <c r="D59" t="s">
         <v>79</v>
       </c>
-      <c r="E59" s="4" t="s">
-        <v>774</v>
+      <c r="E59" s="3" t="s">
+        <v>759</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -5740,7 +5699,7 @@
         <v>20</v>
       </c>
       <c r="M59" t="s">
-        <v>617</v>
+        <v>604</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5763,7 +5722,7 @@
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>947</v>
+        <v>908</v>
       </c>
       <c r="J60">
         <v>200</v>
@@ -5795,10 +5754,10 @@
         <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>790</v>
+        <v>775</v>
       </c>
       <c r="H61" t="s">
-        <v>884</v>
+        <v>865</v>
       </c>
       <c r="J61">
         <v>403</v>
@@ -5830,7 +5789,7 @@
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>948</v>
+        <v>909</v>
       </c>
       <c r="J62">
         <v>401</v>
@@ -5862,7 +5821,7 @@
         <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="J63">
         <v>422</v>
@@ -5894,7 +5853,7 @@
         <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>947</v>
+        <v>908</v>
       </c>
       <c r="J64">
         <v>400</v>
@@ -5926,7 +5885,7 @@
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>986</v>
+        <v>938</v>
       </c>
       <c r="J65">
         <v>200</v>
@@ -5955,7 +5914,7 @@
         <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>986</v>
+        <v>938</v>
       </c>
       <c r="J66">
         <v>403</v>
@@ -5987,13 +5946,13 @@
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>901</v>
+        <v>879</v>
       </c>
       <c r="J67">
         <v>422</v>
       </c>
       <c r="L67" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M67" t="s">
         <v>90</v>
@@ -6051,7 +6010,7 @@
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>987</v>
+        <v>939</v>
       </c>
       <c r="J69">
         <v>200</v>
@@ -6065,13 +6024,13 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>759</v>
+        <v>744</v>
       </c>
       <c r="B70" t="s">
         <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>752</v>
+        <v>737</v>
       </c>
       <c r="D70" t="s">
         <v>79</v>
@@ -6083,7 +6042,7 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>988</v>
+        <v>940</v>
       </c>
       <c r="J70">
         <v>200</v>
@@ -6092,7 +6051,7 @@
         <v>20</v>
       </c>
       <c r="M70" t="s">
-        <v>753</v>
+        <v>738</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -6115,7 +6074,7 @@
         <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>886</v>
+        <v>947</v>
       </c>
       <c r="J71">
         <v>200</v>
@@ -6147,7 +6106,7 @@
         <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>887</v>
+        <v>981</v>
       </c>
       <c r="J72">
         <v>422</v>
@@ -6176,7 +6135,7 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>946</v>
+        <v>980</v>
       </c>
       <c r="J73">
         <v>404</v>
@@ -6202,7 +6161,7 @@
         <v>94</v>
       </c>
       <c r="H74" t="s">
-        <v>945</v>
+        <v>988</v>
       </c>
       <c r="J74">
         <v>403</v>
@@ -6225,13 +6184,13 @@
         <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="F75" t="s">
         <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>709</v>
+        <v>695</v>
       </c>
       <c r="J75">
         <v>200</v>
@@ -6260,7 +6219,7 @@
         <v>33</v>
       </c>
       <c r="E76" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -6292,7 +6251,7 @@
         <v>33</v>
       </c>
       <c r="E77" t="s">
-        <v>713</v>
+        <v>698</v>
       </c>
       <c r="H77" t="s">
         <v>108</v>
@@ -6309,25 +6268,25 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>749</v>
+        <v>734</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>750</v>
+        <v>735</v>
       </c>
       <c r="D78" t="s">
         <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>714</v>
+        <v>699</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>751</v>
+        <v>736</v>
       </c>
       <c r="J78">
         <v>422</v>
@@ -6341,7 +6300,7 @@
         <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C79" t="s">
         <v>120</v>
@@ -6356,7 +6315,7 @@
         <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>972</v>
+        <v>929</v>
       </c>
       <c r="H79" t="s">
         <v>122</v>
@@ -6376,7 +6335,7 @@
         <v>115</v>
       </c>
       <c r="B80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C80" t="s">
         <v>119</v>
@@ -6391,7 +6350,7 @@
         <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>973</v>
+        <v>930</v>
       </c>
       <c r="H80" t="s">
         <v>122</v>
@@ -6411,7 +6370,7 @@
         <v>116</v>
       </c>
       <c r="B81" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C81" t="s">
         <v>118</v>
@@ -6426,7 +6385,7 @@
         <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>972</v>
+        <v>929</v>
       </c>
       <c r="H81" t="s">
         <v>123</v>
@@ -6446,7 +6405,7 @@
         <v>117</v>
       </c>
       <c r="B82" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C82" t="s">
         <v>121</v>
@@ -6461,16 +6420,16 @@
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>972</v>
+        <v>929</v>
       </c>
       <c r="H82" t="s">
-        <v>710</v>
+        <v>696</v>
       </c>
       <c r="J82">
         <v>200</v>
       </c>
       <c r="L82" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M82" t="s">
         <v>124</v>
@@ -6478,10 +6437,10 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>819</v>
+        <v>803</v>
       </c>
       <c r="B83" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C83" t="s">
         <v>120</v>
@@ -6493,7 +6452,7 @@
         <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>972</v>
+        <v>929</v>
       </c>
       <c r="H83" t="s">
         <v>122</v>
@@ -6504,8 +6463,8 @@
       <c r="L83" t="s">
         <v>20</v>
       </c>
-      <c r="M83" s="4" t="s">
-        <v>820</v>
+      <c r="M83" s="3" t="s">
+        <v>804</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -6513,7 +6472,7 @@
         <v>128</v>
       </c>
       <c r="B84" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C84" t="s">
         <v>131</v>
@@ -6522,13 +6481,13 @@
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="F84" t="s">
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>854</v>
+        <v>983</v>
       </c>
       <c r="J84">
         <v>200</v>
@@ -6537,7 +6496,7 @@
         <v>20</v>
       </c>
       <c r="M84" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="85" spans="1:13">
@@ -6545,7 +6504,7 @@
         <v>129</v>
       </c>
       <c r="B85" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C85" t="s">
         <v>132</v>
@@ -6554,13 +6513,13 @@
         <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="F85" t="s">
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>134</v>
+        <v>984</v>
       </c>
       <c r="J85">
         <v>422</v>
@@ -6569,7 +6528,7 @@
         <v>20</v>
       </c>
       <c r="M85" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="86" spans="1:13">
@@ -6577,7 +6536,7 @@
         <v>130</v>
       </c>
       <c r="B86" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C86" t="s">
         <v>133</v>
@@ -6586,13 +6545,13 @@
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="J86">
         <v>400</v>
@@ -6601,27 +6560,27 @@
         <v>20</v>
       </c>
       <c r="M86" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>817</v>
+        <v>801</v>
       </c>
       <c r="B87" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C87" t="s">
-        <v>834</v>
+        <v>816</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>708</v>
+        <v>694</v>
       </c>
       <c r="H87" t="s">
-        <v>711</v>
+        <v>983</v>
       </c>
       <c r="J87">
         <v>401</v>
@@ -6630,30 +6589,30 @@
         <v>20</v>
       </c>
       <c r="M87" t="s">
-        <v>818</v>
+        <v>802</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B88" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C88" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D88" t="s">
         <v>33</v>
       </c>
       <c r="E88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>141</v>
+        <v>982</v>
       </c>
       <c r="J88">
         <v>200</v>
@@ -6662,56 +6621,56 @@
         <v>20</v>
       </c>
       <c r="M88" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B89" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C89" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="D89" t="s">
         <v>33</v>
       </c>
       <c r="E89" t="s">
+        <v>139</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s">
         <v>140</v>
       </c>
-      <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" t="s">
-        <v>142</v>
-      </c>
       <c r="J89" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L89" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B90" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C90" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D90" t="s">
         <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F90" t="s">
         <v>18</v>
@@ -6726,24 +6685,24 @@
         <v>20</v>
       </c>
       <c r="M90" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
+        <v>153</v>
+      </c>
+      <c r="B91" t="s">
+        <v>154</v>
+      </c>
+      <c r="C91" t="s">
+        <v>156</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" t="s">
         <v>155</v>
-      </c>
-      <c r="B91" t="s">
-        <v>156</v>
-      </c>
-      <c r="C91" t="s">
-        <v>158</v>
-      </c>
-      <c r="D91" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" t="s">
-        <v>157</v>
       </c>
       <c r="F91" t="s">
         <v>18</v>
@@ -6755,27 +6714,27 @@
         <v>20</v>
       </c>
       <c r="M91" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="B92" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C92" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D92" t="s">
         <v>44</v>
       </c>
       <c r="E92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F92" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="J92">
         <v>401</v>
@@ -6784,27 +6743,27 @@
         <v>20</v>
       </c>
       <c r="M92" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>786</v>
+        <v>771</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="C93" t="s">
-        <v>787</v>
+        <v>772</v>
       </c>
       <c r="D93" t="s">
         <v>44</v>
       </c>
       <c r="E93" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F93" t="s">
-        <v>788</v>
+        <v>773</v>
       </c>
       <c r="J93">
         <v>403</v>
@@ -6813,24 +6772,24 @@
         <v>20</v>
       </c>
       <c r="M93" t="s">
-        <v>789</v>
+        <v>774</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B94" t="s">
         <v>113</v>
       </c>
       <c r="C94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D94" t="s">
         <v>79</v>
       </c>
       <c r="E94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
@@ -6839,30 +6798,30 @@
         <v>200</v>
       </c>
       <c r="K94" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="L94" t="s">
         <v>20</v>
       </c>
       <c r="M94" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B95" t="s">
         <v>113</v>
       </c>
       <c r="C95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D95" t="s">
         <v>79</v>
       </c>
       <c r="E95" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="J95">
         <v>401</v>
@@ -6874,24 +6833,24 @@
         <v>20</v>
       </c>
       <c r="M95" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>763</v>
+        <v>748</v>
       </c>
       <c r="B96" t="s">
         <v>113</v>
       </c>
       <c r="C96" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D96" t="s">
         <v>79</v>
       </c>
       <c r="E96" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -6903,33 +6862,33 @@
         <v>51</v>
       </c>
       <c r="L96" t="s">
-        <v>20</v>
+        <v>692</v>
       </c>
       <c r="M96" t="s">
-        <v>764</v>
+        <v>749</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
+        <v>169</v>
+      </c>
+      <c r="B97" t="s">
+        <v>170</v>
+      </c>
+      <c r="C97" t="s">
         <v>171</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" t="s">
         <v>172</v>
       </c>
-      <c r="C97" t="s">
-        <v>173</v>
-      </c>
-      <c r="D97" t="s">
-        <v>44</v>
-      </c>
-      <c r="E97" t="s">
-        <v>174</v>
-      </c>
       <c r="F97" t="s">
         <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>841</v>
+        <v>823</v>
       </c>
       <c r="J97">
         <v>200</v>
@@ -6938,30 +6897,30 @@
         <v>20</v>
       </c>
       <c r="M97" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B98" t="s">
+        <v>170</v>
+      </c>
+      <c r="C98" t="s">
+        <v>174</v>
+      </c>
+      <c r="D98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" t="s">
         <v>172</v>
       </c>
-      <c r="C98" t="s">
-        <v>176</v>
-      </c>
-      <c r="D98" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" t="s">
-        <v>174</v>
-      </c>
       <c r="F98" t="s">
         <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>840</v>
+        <v>822</v>
       </c>
       <c r="J98">
         <v>422</v>
@@ -6970,30 +6929,30 @@
         <v>20</v>
       </c>
       <c r="M98" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B99" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C99" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D99" t="s">
         <v>44</v>
       </c>
       <c r="E99" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="J99">
         <v>200</v>
@@ -7002,30 +6961,30 @@
         <v>20</v>
       </c>
       <c r="M99" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B100" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C100" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="D100" t="s">
         <v>44</v>
       </c>
       <c r="E100" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="J100">
         <v>422</v>
@@ -7034,62 +6993,62 @@
         <v>20</v>
       </c>
       <c r="M100" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B101" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C101" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="D101" t="s">
         <v>44</v>
       </c>
       <c r="E101" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>941</v>
+        <v>904</v>
       </c>
       <c r="J101" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L101" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M101" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B102" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C102" t="s">
-        <v>843</v>
+        <v>825</v>
       </c>
       <c r="D102" t="s">
         <v>44</v>
       </c>
       <c r="E102" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
       </c>
       <c r="H102" t="s">
-        <v>888</v>
+        <v>867</v>
       </c>
       <c r="J102">
         <v>202</v>
@@ -7101,62 +7060,62 @@
         <v>20</v>
       </c>
       <c r="M102" t="s">
-        <v>844</v>
+        <v>826</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B103" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C103" t="s">
-        <v>655</v>
+        <v>642</v>
       </c>
       <c r="D103" t="s">
         <v>44</v>
       </c>
       <c r="E103" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F103" t="s">
         <v>18</v>
       </c>
       <c r="H103" t="s">
-        <v>889</v>
+        <v>868</v>
       </c>
       <c r="J103">
         <v>422</v>
       </c>
       <c r="L103" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M103" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B104" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C104" t="s">
-        <v>656</v>
+        <v>643</v>
       </c>
       <c r="D104" t="s">
         <v>44</v>
       </c>
       <c r="E104" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>949</v>
+        <v>910</v>
       </c>
       <c r="J104">
         <v>422</v>
@@ -7165,24 +7124,24 @@
         <v>20</v>
       </c>
       <c r="M104" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B105" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C105" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D105" t="s">
         <v>79</v>
       </c>
       <c r="E105" t="s">
-        <v>890</v>
+        <v>869</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
@@ -7194,24 +7153,24 @@
         <v>20</v>
       </c>
       <c r="M105" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B106" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="D106" t="s">
         <v>79</v>
       </c>
       <c r="E106" t="s">
-        <v>845</v>
+        <v>827</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
@@ -7223,30 +7182,30 @@
         <v>20</v>
       </c>
       <c r="M106" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
+        <v>196</v>
+      </c>
+      <c r="B107" t="s">
+        <v>197</v>
+      </c>
+      <c r="C107" t="s">
+        <v>646</v>
+      </c>
+      <c r="D107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" t="s">
         <v>198</v>
       </c>
-      <c r="B107" t="s">
-        <v>199</v>
-      </c>
-      <c r="C107" t="s">
-        <v>659</v>
-      </c>
-      <c r="D107" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" t="s">
-        <v>200</v>
-      </c>
       <c r="F107" t="s">
         <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>981</v>
+        <v>933</v>
       </c>
       <c r="J107">
         <v>200</v>
@@ -7255,30 +7214,30 @@
         <v>20</v>
       </c>
       <c r="M107" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B108" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>660</v>
+        <v>647</v>
       </c>
       <c r="D108" t="s">
         <v>44</v>
       </c>
       <c r="E108" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F108" t="s">
         <v>18</v>
       </c>
       <c r="H108" t="s">
-        <v>982</v>
+        <v>934</v>
       </c>
       <c r="J108">
         <v>422</v>
@@ -7287,30 +7246,30 @@
         <v>20</v>
       </c>
       <c r="M108" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B109" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C109" t="s">
-        <v>661</v>
+        <v>648</v>
       </c>
       <c r="D109" t="s">
         <v>44</v>
       </c>
       <c r="E109" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
       </c>
       <c r="H109" t="s">
-        <v>923</v>
+        <v>893</v>
       </c>
       <c r="J109">
         <v>422</v>
@@ -7319,59 +7278,59 @@
         <v>20</v>
       </c>
       <c r="M109" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B110" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="D110" t="s">
         <v>44</v>
       </c>
       <c r="E110" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H110" t="s">
-        <v>981</v>
+        <v>933</v>
       </c>
       <c r="J110">
         <v>401</v>
       </c>
       <c r="L110" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M110" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>858</v>
+        <v>839</v>
       </c>
       <c r="B111" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C111" t="s">
-        <v>876</v>
+        <v>857</v>
       </c>
       <c r="D111" t="s">
         <v>44</v>
       </c>
       <c r="E111" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F111" t="s">
         <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>919</v>
+        <v>889</v>
       </c>
       <c r="J111">
         <v>200</v>
@@ -7380,30 +7339,30 @@
         <v>20</v>
       </c>
       <c r="M111" t="s">
-        <v>873</v>
+        <v>854</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>859</v>
+        <v>840</v>
       </c>
       <c r="B112" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C112" t="s">
-        <v>877</v>
+        <v>858</v>
       </c>
       <c r="D112" t="s">
         <v>44</v>
       </c>
       <c r="E112" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>874</v>
+        <v>855</v>
       </c>
       <c r="J112">
         <v>404</v>
@@ -7412,30 +7371,30 @@
         <v>20</v>
       </c>
       <c r="M112" t="s">
-        <v>872</v>
+        <v>853</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>860</v>
+        <v>841</v>
       </c>
       <c r="B113" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>878</v>
+        <v>859</v>
       </c>
       <c r="D113" t="s">
         <v>44</v>
       </c>
       <c r="E113" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F113" t="s">
         <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>983</v>
+        <v>935</v>
       </c>
       <c r="J113">
         <v>200</v>
@@ -7444,62 +7403,62 @@
         <v>20</v>
       </c>
       <c r="M113" t="s">
-        <v>871</v>
+        <v>852</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>861</v>
+        <v>842</v>
       </c>
       <c r="B114" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C114" t="s">
-        <v>879</v>
+        <v>860</v>
       </c>
       <c r="D114" t="s">
         <v>44</v>
       </c>
       <c r="E114" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F114" t="s">
         <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>924</v>
+        <v>894</v>
       </c>
       <c r="J114">
         <v>500</v>
       </c>
       <c r="L114" t="s">
-        <v>20</v>
+        <v>692</v>
       </c>
       <c r="M114" t="s">
-        <v>870</v>
+        <v>851</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>862</v>
+        <v>843</v>
       </c>
       <c r="B115" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C115" t="s">
-        <v>880</v>
+        <v>861</v>
       </c>
       <c r="D115" t="s">
         <v>44</v>
       </c>
       <c r="E115" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F115" t="s">
         <v>18</v>
       </c>
       <c r="H115" t="s">
-        <v>920</v>
+        <v>890</v>
       </c>
       <c r="J115">
         <v>200</v>
@@ -7508,30 +7467,30 @@
         <v>20</v>
       </c>
       <c r="M115" t="s">
-        <v>869</v>
+        <v>850</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>863</v>
+        <v>844</v>
       </c>
       <c r="B116" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C116" t="s">
-        <v>883</v>
+        <v>864</v>
       </c>
       <c r="D116" t="s">
         <v>44</v>
       </c>
       <c r="E116" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F116" t="s">
         <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>921</v>
+        <v>891</v>
       </c>
       <c r="J116">
         <v>200</v>
@@ -7540,30 +7499,30 @@
         <v>20</v>
       </c>
       <c r="M116" t="s">
-        <v>868</v>
+        <v>849</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>864</v>
+        <v>845</v>
       </c>
       <c r="B117" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>882</v>
+        <v>863</v>
       </c>
       <c r="D117" t="s">
         <v>44</v>
       </c>
       <c r="E117" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F117" t="s">
         <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>922</v>
+        <v>892</v>
       </c>
       <c r="J117">
         <v>200</v>
@@ -7572,30 +7531,30 @@
         <v>20</v>
       </c>
       <c r="M117" t="s">
-        <v>867</v>
+        <v>848</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>865</v>
+        <v>846</v>
       </c>
       <c r="B118" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C118" t="s">
-        <v>881</v>
+        <v>862</v>
       </c>
       <c r="D118" t="s">
         <v>44</v>
       </c>
       <c r="E118" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>875</v>
+        <v>856</v>
       </c>
       <c r="J118">
         <v>404</v>
@@ -7604,30 +7563,30 @@
         <v>20</v>
       </c>
       <c r="M118" t="s">
-        <v>866</v>
+        <v>847</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B119" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C119" t="s">
-        <v>652</v>
+        <v>639</v>
       </c>
       <c r="D119" t="s">
         <v>44</v>
       </c>
       <c r="E119" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F119" t="s">
         <v>18</v>
       </c>
       <c r="H119" t="s">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="J119">
         <v>200</v>
@@ -7636,30 +7595,30 @@
         <v>20</v>
       </c>
       <c r="M119" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B120" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C120" t="s">
-        <v>653</v>
+        <v>640</v>
       </c>
       <c r="D120" t="s">
         <v>44</v>
       </c>
       <c r="E120" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F120" t="s">
         <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="J120">
         <v>422</v>
@@ -7668,56 +7627,56 @@
         <v>20</v>
       </c>
       <c r="M120" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B121" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="C121" t="s">
-        <v>654</v>
+        <v>641</v>
       </c>
       <c r="D121" t="s">
         <v>44</v>
       </c>
       <c r="E121" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F121" t="s">
         <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>941</v>
+        <v>904</v>
       </c>
       <c r="J121" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L121" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M121" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B122" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C122" t="s">
-        <v>657</v>
+        <v>644</v>
       </c>
       <c r="D122" t="s">
         <v>79</v>
       </c>
       <c r="E122" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F122" t="s">
         <v>18</v>
@@ -7729,24 +7688,24 @@
         <v>20</v>
       </c>
       <c r="M122" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B123" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="C123" t="s">
-        <v>658</v>
+        <v>645</v>
       </c>
       <c r="D123" t="s">
         <v>79</v>
       </c>
       <c r="E123" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F123" t="s">
         <v>18</v>
@@ -7758,30 +7717,30 @@
         <v>20</v>
       </c>
       <c r="M123" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B124" t="s">
+        <v>212</v>
+      </c>
+      <c r="C124" t="s">
+        <v>650</v>
+      </c>
+      <c r="D124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" t="s">
         <v>214</v>
       </c>
-      <c r="C124" t="s">
-        <v>663</v>
-      </c>
-      <c r="D124" t="s">
-        <v>44</v>
-      </c>
-      <c r="E124" t="s">
-        <v>216</v>
-      </c>
       <c r="F124" t="s">
         <v>18</v>
       </c>
       <c r="H124" t="s">
-        <v>917</v>
+        <v>887</v>
       </c>
       <c r="J124">
         <v>200</v>
@@ -7790,27 +7749,27 @@
         <v>20</v>
       </c>
       <c r="M124" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B125" t="s">
+        <v>212</v>
+      </c>
+      <c r="C125" t="s">
+        <v>651</v>
+      </c>
+      <c r="D125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E125" t="s">
         <v>214</v>
       </c>
-      <c r="C125" t="s">
-        <v>664</v>
-      </c>
-      <c r="D125" t="s">
-        <v>44</v>
-      </c>
-      <c r="E125" t="s">
-        <v>216</v>
-      </c>
       <c r="H125" t="s">
-        <v>917</v>
+        <v>887</v>
       </c>
       <c r="J125">
         <v>401</v>
@@ -7819,30 +7778,30 @@
         <v>20</v>
       </c>
       <c r="M125" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B126" t="s">
+        <v>212</v>
+      </c>
+      <c r="C126" t="s">
+        <v>652</v>
+      </c>
+      <c r="D126" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" t="s">
         <v>214</v>
       </c>
-      <c r="C126" t="s">
-        <v>665</v>
-      </c>
-      <c r="D126" t="s">
-        <v>44</v>
-      </c>
-      <c r="E126" t="s">
-        <v>216</v>
-      </c>
       <c r="F126" t="s">
         <v>18</v>
       </c>
       <c r="H126" t="s">
-        <v>918</v>
+        <v>888</v>
       </c>
       <c r="J126">
         <v>422</v>
@@ -7851,30 +7810,30 @@
         <v>20</v>
       </c>
       <c r="M126" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B127" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C127" t="s">
-        <v>666</v>
+        <v>653</v>
       </c>
       <c r="D127" t="s">
         <v>44</v>
       </c>
       <c r="E127" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
       </c>
       <c r="H127" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J127">
         <v>200</v>
@@ -7883,24 +7842,24 @@
         <v>20</v>
       </c>
       <c r="M127" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B128" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C128" t="s">
-        <v>667</v>
+        <v>654</v>
       </c>
       <c r="D128" t="s">
         <v>44</v>
       </c>
       <c r="E128" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F128" t="s">
         <v>18</v>
@@ -7915,30 +7874,30 @@
         <v>20</v>
       </c>
       <c r="M128" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B129" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C129" t="s">
-        <v>668</v>
+        <v>655</v>
       </c>
       <c r="D129" t="s">
         <v>44</v>
       </c>
       <c r="E129" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J129">
         <v>422</v>
@@ -7947,27 +7906,27 @@
         <v>20</v>
       </c>
       <c r="M129" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B130" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C130" t="s">
-        <v>669</v>
+        <v>656</v>
       </c>
       <c r="D130" t="s">
         <v>44</v>
       </c>
       <c r="E130" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H130" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J130">
         <v>401</v>
@@ -7976,24 +7935,24 @@
         <v>20</v>
       </c>
       <c r="M130" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B131" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C131" t="s">
-        <v>670</v>
+        <v>657</v>
       </c>
       <c r="D131" t="s">
         <v>44</v>
       </c>
       <c r="E131" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -8008,27 +7967,27 @@
         <v>20</v>
       </c>
       <c r="M131" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B132" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C132" t="s">
-        <v>671</v>
+        <v>658</v>
       </c>
       <c r="D132" t="s">
         <v>44</v>
       </c>
       <c r="E132" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="H132" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="J132">
         <v>401</v>
@@ -8037,62 +7996,62 @@
         <v>20</v>
       </c>
       <c r="M132" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B133" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C133" t="s">
-        <v>672</v>
+        <v>659</v>
       </c>
       <c r="D133" t="s">
         <v>44</v>
       </c>
       <c r="E133" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
       </c>
       <c r="H133" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="J133" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="L133" t="s">
         <v>20</v>
       </c>
       <c r="M133" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B134" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C134" t="s">
-        <v>673</v>
+        <v>660</v>
       </c>
       <c r="D134" t="s">
         <v>44</v>
       </c>
       <c r="E134" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
       </c>
       <c r="H134" t="s">
-        <v>968</v>
+        <v>926</v>
       </c>
       <c r="J134">
         <v>200</v>
@@ -8101,91 +8060,91 @@
         <v>20</v>
       </c>
       <c r="M134" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B135" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C135" t="s">
-        <v>674</v>
+        <v>661</v>
       </c>
       <c r="D135" t="s">
         <v>44</v>
       </c>
       <c r="E135" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
       </c>
       <c r="H135" t="s">
-        <v>916</v>
+        <v>886</v>
       </c>
       <c r="J135" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L135" t="s">
         <v>20</v>
       </c>
       <c r="M135" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B136" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C136" t="s">
-        <v>675</v>
+        <v>662</v>
       </c>
       <c r="D136" t="s">
         <v>44</v>
       </c>
       <c r="E136" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
       </c>
       <c r="H136" t="s">
-        <v>969</v>
+        <v>927</v>
       </c>
       <c r="J136" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L136" t="s">
         <v>20</v>
       </c>
       <c r="M136" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B137" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C137" t="s">
-        <v>676</v>
+        <v>663</v>
       </c>
       <c r="D137" t="s">
         <v>44</v>
       </c>
       <c r="E137" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="H137" t="s">
-        <v>970</v>
+        <v>928</v>
       </c>
       <c r="J137">
         <v>401</v>
@@ -8194,30 +8153,30 @@
         <v>20</v>
       </c>
       <c r="M137" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B138" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C138" t="s">
-        <v>677</v>
+        <v>664</v>
       </c>
       <c r="D138" t="s">
         <v>44</v>
       </c>
       <c r="E138" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
       </c>
       <c r="H138" t="s">
-        <v>984</v>
+        <v>936</v>
       </c>
       <c r="J138">
         <v>200</v>
@@ -8226,30 +8185,30 @@
         <v>20</v>
       </c>
       <c r="M138" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C139" t="s">
-        <v>678</v>
+        <v>665</v>
       </c>
       <c r="D139" t="s">
         <v>44</v>
       </c>
       <c r="E139" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>985</v>
+        <v>937</v>
       </c>
       <c r="J139">
         <v>422</v>
@@ -8258,30 +8217,30 @@
         <v>20</v>
       </c>
       <c r="M139" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B140" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C140" t="s">
-        <v>679</v>
+        <v>666</v>
       </c>
       <c r="D140" t="s">
         <v>44</v>
       </c>
       <c r="E140" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
       </c>
       <c r="H140" t="s">
-        <v>925</v>
+        <v>895</v>
       </c>
       <c r="J140">
         <v>422</v>
@@ -8290,27 +8249,27 @@
         <v>20</v>
       </c>
       <c r="M140" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B141" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="C141" t="s">
-        <v>662</v>
+        <v>649</v>
       </c>
       <c r="D141" t="s">
         <v>44</v>
       </c>
       <c r="E141" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="H141" t="s">
-        <v>984</v>
+        <v>936</v>
       </c>
       <c r="J141">
         <v>401</v>
@@ -8319,30 +8278,30 @@
         <v>20</v>
       </c>
       <c r="M141" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
+        <v>255</v>
+      </c>
+      <c r="B142" t="s">
+        <v>256</v>
+      </c>
+      <c r="C142" t="s">
+        <v>667</v>
+      </c>
+      <c r="D142" t="s">
+        <v>44</v>
+      </c>
+      <c r="E142" t="s">
         <v>257</v>
       </c>
-      <c r="B142" t="s">
-        <v>258</v>
-      </c>
-      <c r="C142" t="s">
-        <v>680</v>
-      </c>
-      <c r="D142" t="s">
-        <v>44</v>
-      </c>
-      <c r="E142" t="s">
-        <v>259</v>
-      </c>
       <c r="F142" t="s">
         <v>18</v>
       </c>
       <c r="H142" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="J142">
         <v>200</v>
@@ -8351,24 +8310,24 @@
         <v>20</v>
       </c>
       <c r="M142" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B143" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C143" t="s">
-        <v>681</v>
+        <v>668</v>
       </c>
       <c r="D143" t="s">
         <v>44</v>
       </c>
       <c r="E143" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F143" t="s">
         <v>18</v>
@@ -8377,68 +8336,68 @@
         <v>29</v>
       </c>
       <c r="J143" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L143" t="s">
         <v>20</v>
       </c>
       <c r="M143" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B144" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C144" t="s">
-        <v>682</v>
+        <v>669</v>
       </c>
       <c r="D144" t="s">
         <v>44</v>
       </c>
       <c r="E144" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F144" t="s">
         <v>18</v>
       </c>
       <c r="H144" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="J144" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L144" t="s">
         <v>20</v>
       </c>
       <c r="M144" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="B145" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C145" t="s">
-        <v>702</v>
+        <v>689</v>
       </c>
       <c r="D145" t="s">
         <v>44</v>
       </c>
       <c r="E145" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F145" t="s">
         <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>942</v>
+        <v>905</v>
       </c>
       <c r="J145">
         <v>200</v>
@@ -8447,30 +8406,30 @@
         <v>20</v>
       </c>
       <c r="M145" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B146" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C146" t="s">
-        <v>701</v>
+        <v>688</v>
       </c>
       <c r="D146" t="s">
         <v>44</v>
       </c>
       <c r="E146" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="F146" t="s">
         <v>18</v>
       </c>
       <c r="H146" t="s">
-        <v>943</v>
+        <v>906</v>
       </c>
       <c r="J146">
         <v>422</v>
@@ -8479,30 +8438,30 @@
         <v>20</v>
       </c>
       <c r="M146" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B147" t="s">
+        <v>256</v>
+      </c>
+      <c r="C147" t="s">
+        <v>670</v>
+      </c>
+      <c r="D147" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" t="s">
         <v>258</v>
       </c>
-      <c r="C147" t="s">
-        <v>683</v>
-      </c>
-      <c r="D147" t="s">
-        <v>44</v>
-      </c>
-      <c r="E147" t="s">
-        <v>260</v>
-      </c>
       <c r="F147" t="s">
         <v>18</v>
       </c>
       <c r="H147" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="J147">
         <v>200</v>
@@ -8511,30 +8470,30 @@
         <v>20</v>
       </c>
       <c r="M147" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B148" t="s">
+        <v>256</v>
+      </c>
+      <c r="C148" t="s">
+        <v>671</v>
+      </c>
+      <c r="D148" t="s">
+        <v>44</v>
+      </c>
+      <c r="E148" t="s">
         <v>258</v>
       </c>
-      <c r="C148" t="s">
-        <v>684</v>
-      </c>
-      <c r="D148" t="s">
-        <v>44</v>
-      </c>
-      <c r="E148" t="s">
-        <v>260</v>
-      </c>
       <c r="F148" t="s">
         <v>18</v>
       </c>
       <c r="H148" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="J148">
         <v>422</v>
@@ -8543,30 +8502,30 @@
         <v>20</v>
       </c>
       <c r="M148" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B149" t="s">
+        <v>256</v>
+      </c>
+      <c r="C149" t="s">
+        <v>672</v>
+      </c>
+      <c r="D149" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" t="s">
         <v>258</v>
       </c>
-      <c r="C149" t="s">
-        <v>685</v>
-      </c>
-      <c r="D149" t="s">
-        <v>44</v>
-      </c>
-      <c r="E149" t="s">
-        <v>260</v>
-      </c>
       <c r="F149" t="s">
         <v>18</v>
       </c>
       <c r="H149" t="s">
-        <v>885</v>
+        <v>866</v>
       </c>
       <c r="J149">
         <v>422</v>
@@ -8575,30 +8534,30 @@
         <v>20</v>
       </c>
       <c r="M149" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B150" t="s">
+        <v>256</v>
+      </c>
+      <c r="C150" t="s">
+        <v>673</v>
+      </c>
+      <c r="D150" t="s">
+        <v>44</v>
+      </c>
+      <c r="E150" t="s">
         <v>258</v>
       </c>
-      <c r="C150" t="s">
-        <v>686</v>
-      </c>
-      <c r="D150" t="s">
-        <v>44</v>
-      </c>
-      <c r="E150" t="s">
-        <v>260</v>
-      </c>
       <c r="F150" t="s">
         <v>18</v>
       </c>
       <c r="H150" t="s">
-        <v>892</v>
+        <v>871</v>
       </c>
       <c r="J150">
         <v>422</v>
@@ -8607,27 +8566,27 @@
         <v>20</v>
       </c>
       <c r="M150" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B151" t="s">
+        <v>256</v>
+      </c>
+      <c r="C151" t="s">
+        <v>674</v>
+      </c>
+      <c r="D151" t="s">
+        <v>44</v>
+      </c>
+      <c r="E151" t="s">
         <v>258</v>
       </c>
-      <c r="C151" t="s">
-        <v>687</v>
-      </c>
-      <c r="D151" t="s">
-        <v>44</v>
-      </c>
-      <c r="E151" t="s">
-        <v>260</v>
-      </c>
       <c r="H151" t="s">
-        <v>891</v>
+        <v>870</v>
       </c>
       <c r="J151" t="s">
         <v>68</v>
@@ -8636,30 +8595,30 @@
         <v>20</v>
       </c>
       <c r="M151" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B152" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C152" t="s">
-        <v>688</v>
+        <v>675</v>
       </c>
       <c r="D152" t="s">
         <v>16</v>
       </c>
       <c r="E152" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F152" t="s">
         <v>18</v>
       </c>
       <c r="H152" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="J152">
         <v>200</v>
@@ -8668,59 +8627,59 @@
         <v>20</v>
       </c>
       <c r="M152" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="N152" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B153" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C153" t="s">
-        <v>689</v>
+        <v>676</v>
       </c>
       <c r="D153" t="s">
         <v>16</v>
       </c>
       <c r="E153" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F153" t="s">
         <v>18</v>
       </c>
       <c r="H153" t="s">
-        <v>939</v>
+        <v>902</v>
       </c>
       <c r="J153" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L153" t="s">
         <v>20</v>
       </c>
       <c r="M153" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B154" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C154" t="s">
-        <v>690</v>
+        <v>677</v>
       </c>
       <c r="D154" t="s">
         <v>16</v>
       </c>
       <c r="E154" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F154" t="s">
         <v>18</v>
@@ -8735,30 +8694,30 @@
         <v>20</v>
       </c>
       <c r="M154" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B155" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C155" t="s">
-        <v>855</v>
+        <v>836</v>
       </c>
       <c r="D155" t="s">
         <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F155" t="s">
         <v>18</v>
       </c>
       <c r="H155" t="s">
-        <v>894</v>
+        <v>948</v>
       </c>
       <c r="J155">
         <v>200</v>
@@ -8767,65 +8726,65 @@
         <v>20</v>
       </c>
       <c r="M155" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="N155" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B156" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C156" t="s">
-        <v>856</v>
+        <v>837</v>
       </c>
       <c r="D156" t="s">
         <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F156" t="s">
         <v>18</v>
       </c>
       <c r="H156" t="s">
-        <v>940</v>
+        <v>903</v>
       </c>
       <c r="J156" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L156" t="s">
         <v>20</v>
       </c>
       <c r="M156" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="B157" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C157" t="s">
-        <v>693</v>
+        <v>680</v>
       </c>
       <c r="D157" t="s">
         <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F157" t="s">
         <v>18</v>
       </c>
       <c r="H157" t="s">
-        <v>895</v>
+        <v>873</v>
       </c>
       <c r="J157">
         <v>200</v>
@@ -8834,33 +8793,33 @@
         <v>20</v>
       </c>
       <c r="M157" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="N157" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="B158" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C158" t="s">
-        <v>694</v>
+        <v>681</v>
       </c>
       <c r="D158" t="s">
         <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F158" t="s">
         <v>18</v>
       </c>
       <c r="H158" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="J158">
         <v>422</v>
@@ -8869,62 +8828,62 @@
         <v>20</v>
       </c>
       <c r="M158" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="B159" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C159" t="s">
-        <v>695</v>
+        <v>682</v>
       </c>
       <c r="D159" t="s">
         <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F159" t="s">
         <v>18</v>
       </c>
       <c r="H159" t="s">
-        <v>975</v>
+        <v>931</v>
       </c>
       <c r="J159" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L159" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M159" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="B160" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C160" t="s">
-        <v>696</v>
+        <v>683</v>
       </c>
       <c r="D160" t="s">
         <v>16</v>
       </c>
       <c r="E160" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F160" t="s">
         <v>18</v>
       </c>
       <c r="H160" t="s">
-        <v>893</v>
+        <v>872</v>
       </c>
       <c r="J160">
         <v>200</v>
@@ -8933,65 +8892,65 @@
         <v>20</v>
       </c>
       <c r="M160" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="N160" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B161" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C161" t="s">
-        <v>692</v>
+        <v>679</v>
       </c>
       <c r="D161" t="s">
         <v>16</v>
       </c>
       <c r="E161" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="F161" t="s">
         <v>18</v>
       </c>
       <c r="H161" t="s">
-        <v>941</v>
+        <v>904</v>
       </c>
       <c r="J161" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L161" t="s">
         <v>20</v>
       </c>
       <c r="M161" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B162" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C162" t="s">
-        <v>847</v>
+        <v>829</v>
       </c>
       <c r="D162" t="s">
         <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F162" t="s">
         <v>18</v>
       </c>
       <c r="H162" t="s">
-        <v>941</v>
+        <v>904</v>
       </c>
       <c r="J162">
         <v>404</v>
@@ -9000,30 +8959,30 @@
         <v>20</v>
       </c>
       <c r="M162" t="s">
-        <v>849</v>
+        <v>831</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>846</v>
+        <v>828</v>
       </c>
       <c r="B163" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C163" t="s">
-        <v>848</v>
+        <v>830</v>
       </c>
       <c r="D163" t="s">
         <v>16</v>
       </c>
       <c r="E163" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F163" t="s">
         <v>18</v>
       </c>
       <c r="H163" t="s">
-        <v>944</v>
+        <v>907</v>
       </c>
       <c r="J163">
         <v>422</v>
@@ -9032,30 +8991,30 @@
         <v>20</v>
       </c>
       <c r="M163" t="s">
-        <v>850</v>
+        <v>832</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>296</v>
+        <v>949</v>
       </c>
       <c r="B164" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C164" t="s">
-        <v>691</v>
+        <v>678</v>
       </c>
       <c r="D164" t="s">
         <v>16</v>
       </c>
       <c r="E164" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="F164" t="s">
         <v>18</v>
       </c>
       <c r="H164" t="s">
-        <v>944</v>
+        <v>907</v>
       </c>
       <c r="J164">
         <v>422</v>
@@ -9064,30 +9023,30 @@
         <v>20</v>
       </c>
       <c r="M164" t="s">
-        <v>851</v>
+        <v>833</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="B165" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C165" t="s">
-        <v>700</v>
+        <v>687</v>
       </c>
       <c r="D165" t="s">
         <v>33</v>
       </c>
       <c r="E165" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F165" t="s">
         <v>18</v>
       </c>
       <c r="G165" t="s">
-        <v>857</v>
+        <v>838</v>
       </c>
       <c r="J165">
         <v>200</v>
@@ -9096,91 +9055,91 @@
         <v>20</v>
       </c>
       <c r="M165" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="N165" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="B166" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C166" t="s">
-        <v>699</v>
+        <v>686</v>
       </c>
       <c r="D166" t="s">
         <v>33</v>
       </c>
       <c r="E166" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="F166" t="s">
         <v>18</v>
       </c>
       <c r="J166" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="L166" t="s">
         <v>20</v>
       </c>
       <c r="M166" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="B167" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C167" t="s">
-        <v>698</v>
+        <v>685</v>
       </c>
       <c r="D167" t="s">
         <v>33</v>
       </c>
       <c r="E167" t="s">
+        <v>287</v>
+      </c>
+      <c r="F167" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" t="s">
         <v>289</v>
       </c>
-      <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>291</v>
-      </c>
       <c r="J167" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="L167" t="s">
         <v>20</v>
       </c>
       <c r="M167" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="B168" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="C168" t="s">
-        <v>697</v>
+        <v>684</v>
       </c>
       <c r="D168" t="s">
         <v>33</v>
       </c>
       <c r="E168" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G168" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="J168" t="s">
         <v>68</v>
@@ -9189,30 +9148,30 @@
         <v>20</v>
       </c>
       <c r="M168" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="B169" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C169" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D169" t="s">
         <v>44</v>
       </c>
       <c r="E169" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F169" t="s">
         <v>18</v>
       </c>
       <c r="H169" t="s">
-        <v>929</v>
+        <v>978</v>
       </c>
       <c r="J169">
         <v>200</v>
@@ -9221,30 +9180,30 @@
         <v>20</v>
       </c>
       <c r="M169" t="s">
-        <v>703</v>
+        <v>690</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B170" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C170" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D170" t="s">
         <v>44</v>
       </c>
       <c r="E170" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F170" t="s">
         <v>18</v>
       </c>
       <c r="H170" t="s">
-        <v>930</v>
+        <v>979</v>
       </c>
       <c r="J170">
         <v>422</v>
@@ -9255,25 +9214,25 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B171" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C171" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D171" t="s">
         <v>44</v>
       </c>
       <c r="E171" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F171" t="s">
         <v>18</v>
       </c>
       <c r="H171" t="s">
-        <v>931</v>
+        <v>977</v>
       </c>
       <c r="J171">
         <v>400</v>
@@ -9284,25 +9243,25 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="B172" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C172" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D172" t="s">
         <v>44</v>
       </c>
       <c r="E172" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="F172" t="s">
         <v>18</v>
       </c>
       <c r="H172" t="s">
-        <v>929</v>
+        <v>978</v>
       </c>
       <c r="J172">
         <v>400</v>
@@ -9313,22 +9272,22 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" t="s">
-        <v>758</v>
+        <v>743</v>
       </c>
       <c r="B173" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C173" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D173" t="s">
         <v>44</v>
       </c>
       <c r="E173" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="H173" t="s">
-        <v>929</v>
+        <v>978</v>
       </c>
       <c r="J173">
         <v>403</v>
@@ -9337,24 +9296,24 @@
         <v>20</v>
       </c>
       <c r="M173" t="s">
-        <v>839</v>
+        <v>821</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B174" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C174" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D174" t="s">
         <v>79</v>
       </c>
       <c r="E174" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="F174" t="s">
         <v>18</v>
@@ -9366,36 +9325,36 @@
         <v>20</v>
       </c>
       <c r="M174" t="s">
-        <v>831</v>
+        <v>813</v>
       </c>
       <c r="N174" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="B175" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C175" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D175" t="s">
         <v>79</v>
       </c>
       <c r="E175" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="F175" t="s">
         <v>18</v>
       </c>
       <c r="G175" t="s">
-        <v>937</v>
+        <v>900</v>
       </c>
       <c r="J175" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L175" t="s">
         <v>20</v>
@@ -9403,19 +9362,19 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B176" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C176" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D176" t="s">
         <v>79</v>
       </c>
       <c r="E176" t="s">
-        <v>830</v>
+        <v>812</v>
       </c>
       <c r="J176" t="s">
         <v>68</v>
@@ -9424,30 +9383,30 @@
         <v>20</v>
       </c>
       <c r="N176" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="B177" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C177" t="s">
-        <v>838</v>
+        <v>820</v>
       </c>
       <c r="D177" t="s">
         <v>79</v>
       </c>
       <c r="E177" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F177" t="s">
         <v>18</v>
       </c>
       <c r="G177" t="s">
-        <v>828</v>
+        <v>976</v>
       </c>
       <c r="J177">
         <v>200</v>
@@ -9456,30 +9415,30 @@
         <v>20</v>
       </c>
       <c r="M177" t="s">
-        <v>829</v>
+        <v>811</v>
       </c>
       <c r="N177" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B178" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C178" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D178" t="s">
         <v>79</v>
       </c>
       <c r="E178" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="G178" t="s">
-        <v>932</v>
+        <v>896</v>
       </c>
       <c r="J178">
         <v>403</v>
@@ -9490,25 +9449,25 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="B179" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C179" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="D179" t="s">
         <v>79</v>
       </c>
       <c r="E179" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="F179" t="s">
         <v>18</v>
       </c>
       <c r="G179" t="s">
-        <v>933</v>
+        <v>897</v>
       </c>
       <c r="J179">
         <v>404</v>
@@ -9519,19 +9478,19 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="B180" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C180" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
       <c r="D180" t="s">
         <v>79</v>
       </c>
       <c r="E180" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F180" t="s">
         <v>18</v>
@@ -9545,42 +9504,42 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B181" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C181" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D181" t="s">
         <v>79</v>
       </c>
       <c r="E181" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="J181" t="s">
         <v>68</v>
       </c>
       <c r="L181" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="B182" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C182" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D182" t="s">
         <v>79</v>
       </c>
       <c r="E182" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="F182" t="s">
         <v>18</v>
@@ -9594,25 +9553,25 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="B183" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C183" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D183" t="s">
         <v>16</v>
       </c>
       <c r="E183" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F183" t="s">
         <v>18</v>
       </c>
       <c r="H183" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="J183">
         <v>200</v>
@@ -9621,33 +9580,33 @@
         <v>20</v>
       </c>
       <c r="M183" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="N183" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="B184" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C184" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D184" t="s">
         <v>16</v>
       </c>
       <c r="E184" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F184" t="s">
         <v>18</v>
       </c>
       <c r="H184" t="s">
-        <v>938</v>
+        <v>987</v>
       </c>
       <c r="J184">
         <v>400</v>
@@ -9658,22 +9617,22 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="B185" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C185" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D185" t="s">
         <v>16</v>
       </c>
       <c r="E185" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="H185" t="s">
-        <v>938</v>
+        <v>901</v>
       </c>
       <c r="J185">
         <v>403</v>
@@ -9684,25 +9643,25 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" t="s">
-        <v>852</v>
+        <v>834</v>
       </c>
       <c r="B186" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C186" t="s">
-        <v>853</v>
+        <v>835</v>
       </c>
       <c r="D186" t="s">
         <v>16</v>
       </c>
       <c r="E186" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="F186" t="s">
         <v>18</v>
       </c>
       <c r="H186" t="s">
-        <v>826</v>
+        <v>809</v>
       </c>
       <c r="J186">
         <v>404</v>
@@ -9711,33 +9670,33 @@
         <v>20</v>
       </c>
       <c r="M186" t="s">
-        <v>827</v>
+        <v>810</v>
       </c>
       <c r="N186" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B187" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C187" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D187" t="s">
         <v>44</v>
       </c>
       <c r="E187" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F187" t="s">
         <v>18</v>
       </c>
-      <c r="H187" s="3" t="s">
-        <v>926</v>
+      <c r="H187" t="s">
+        <v>971</v>
       </c>
       <c r="J187">
         <v>200</v>
@@ -9746,36 +9705,36 @@
         <v>20</v>
       </c>
       <c r="M187" t="s">
-        <v>825</v>
+        <v>808</v>
       </c>
       <c r="O187" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="B188" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C188" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D188" t="s">
         <v>44</v>
       </c>
       <c r="E188" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F188" t="s">
         <v>18</v>
       </c>
       <c r="H188" t="s">
-        <v>704</v>
+        <v>974</v>
       </c>
       <c r="J188" t="s">
-        <v>757</v>
+        <v>742</v>
       </c>
       <c r="L188" t="s">
         <v>20</v>
@@ -9783,25 +9742,25 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="B189" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C189" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D189" t="s">
         <v>44</v>
       </c>
       <c r="E189" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="F189" t="s">
         <v>18</v>
       </c>
       <c r="H189" t="s">
-        <v>927</v>
+        <v>973</v>
       </c>
       <c r="J189">
         <v>422</v>
@@ -9812,22 +9771,22 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" t="s">
-        <v>756</v>
+        <v>741</v>
       </c>
       <c r="B190" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C190" t="s">
-        <v>754</v>
+        <v>739</v>
       </c>
       <c r="D190" t="s">
         <v>44</v>
       </c>
       <c r="E190" t="s">
-        <v>328</v>
-      </c>
-      <c r="H190" s="3" t="s">
-        <v>928</v>
+        <v>325</v>
+      </c>
+      <c r="H190" t="s">
+        <v>975</v>
       </c>
       <c r="J190">
         <v>401</v>
@@ -9836,30 +9795,30 @@
         <v>20</v>
       </c>
       <c r="M190" t="s">
-        <v>755</v>
+        <v>740</v>
       </c>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B191" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C191" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D191" t="s">
         <v>16</v>
       </c>
       <c r="E191" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F191" t="s">
         <v>18</v>
       </c>
       <c r="H191" t="s">
-        <v>822</v>
+        <v>972</v>
       </c>
       <c r="J191">
         <v>200</v>
@@ -9868,36 +9827,36 @@
         <v>20</v>
       </c>
       <c r="M191" t="s">
-        <v>823</v>
+        <v>806</v>
       </c>
       <c r="N191" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B192" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C192" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D192" t="s">
         <v>16</v>
       </c>
       <c r="E192" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F192" t="s">
         <v>18</v>
       </c>
       <c r="H192" t="s">
-        <v>934</v>
+        <v>970</v>
       </c>
       <c r="J192" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="L192" t="s">
         <v>20</v>
@@ -9905,25 +9864,25 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="B193" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C193" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D193" t="s">
         <v>16</v>
       </c>
       <c r="E193" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="F193" t="s">
         <v>18</v>
       </c>
       <c r="H193" t="s">
-        <v>936</v>
+        <v>899</v>
       </c>
       <c r="J193">
         <v>422</v>
@@ -9934,25 +9893,25 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B194" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C194" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D194" t="s">
         <v>33</v>
       </c>
       <c r="E194" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F194" t="s">
         <v>18</v>
       </c>
       <c r="G194" t="s">
-        <v>821</v>
+        <v>805</v>
       </c>
       <c r="J194">
         <v>200</v>
@@ -9961,36 +9920,36 @@
         <v>20</v>
       </c>
       <c r="M194" t="s">
-        <v>824</v>
+        <v>807</v>
       </c>
       <c r="N194" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="B195" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C195" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D195" t="s">
         <v>33</v>
       </c>
       <c r="E195" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="F195" t="s">
         <v>18</v>
       </c>
       <c r="G195" t="s">
-        <v>935</v>
+        <v>898</v>
       </c>
       <c r="J195" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="L195" t="s">
         <v>20</v>
@@ -9998,22 +9957,22 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="B196" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="C196" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D196" t="s">
         <v>33</v>
       </c>
       <c r="E196" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="G196" t="s">
-        <v>705</v>
+        <v>691</v>
       </c>
       <c r="J196">
         <v>403</v>
@@ -10024,25 +9983,25 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="B197" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C197" t="s">
-        <v>715</v>
+        <v>700</v>
       </c>
       <c r="D197" t="s">
         <v>44</v>
       </c>
       <c r="E197" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F197" t="s">
         <v>18</v>
       </c>
       <c r="H197" t="s">
-        <v>912</v>
+        <v>883</v>
       </c>
       <c r="J197">
         <v>200</v>
@@ -10051,30 +10010,30 @@
         <v>20</v>
       </c>
       <c r="M197" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="B198" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C198" t="s">
-        <v>716</v>
+        <v>701</v>
       </c>
       <c r="D198" t="s">
         <v>44</v>
       </c>
       <c r="E198" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F198" t="s">
         <v>18</v>
       </c>
       <c r="H198" t="s">
-        <v>913</v>
+        <v>884</v>
       </c>
       <c r="J198">
         <v>422</v>
@@ -10083,62 +10042,62 @@
         <v>20</v>
       </c>
       <c r="M198" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" t="s">
-        <v>389</v>
+        <v>386</v>
       </c>
       <c r="B199" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C199" t="s">
-        <v>717</v>
+        <v>702</v>
       </c>
       <c r="D199" t="s">
         <v>44</v>
       </c>
       <c r="E199" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="F199" t="s">
         <v>18</v>
       </c>
       <c r="H199" t="s">
-        <v>909</v>
+        <v>881</v>
       </c>
       <c r="J199">
         <v>400</v>
       </c>
       <c r="L199" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M199" t="s">
-        <v>412</v>
+        <v>409</v>
       </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" t="s">
-        <v>390</v>
+        <v>387</v>
       </c>
       <c r="B200" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C200" t="s">
-        <v>718</v>
+        <v>703</v>
       </c>
       <c r="D200" t="s">
         <v>44</v>
       </c>
       <c r="E200" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F200" t="s">
         <v>18</v>
       </c>
       <c r="H200" t="s">
-        <v>914</v>
+        <v>968</v>
       </c>
       <c r="J200">
         <v>200</v>
@@ -10147,30 +10106,30 @@
         <v>20</v>
       </c>
       <c r="M200" t="s">
-        <v>411</v>
+        <v>408</v>
       </c>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" t="s">
-        <v>391</v>
+        <v>388</v>
       </c>
       <c r="B201" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C201" t="s">
-        <v>719</v>
+        <v>704</v>
       </c>
       <c r="D201" t="s">
         <v>44</v>
       </c>
       <c r="E201" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F201" t="s">
         <v>18</v>
       </c>
       <c r="H201" t="s">
-        <v>915</v>
+        <v>885</v>
       </c>
       <c r="J201">
         <v>422</v>
@@ -10179,56 +10138,56 @@
         <v>20</v>
       </c>
       <c r="M201" t="s">
-        <v>410</v>
+        <v>407</v>
       </c>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" t="s">
-        <v>392</v>
+        <v>389</v>
       </c>
       <c r="B202" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C202" t="s">
-        <v>720</v>
+        <v>705</v>
       </c>
       <c r="D202" t="s">
         <v>44</v>
       </c>
       <c r="E202" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F202" t="s">
         <v>18</v>
       </c>
       <c r="H202" t="s">
-        <v>914</v>
+        <v>968</v>
       </c>
       <c r="J202">
         <v>400</v>
       </c>
       <c r="L202" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M202" t="s">
-        <v>409</v>
+        <v>406</v>
       </c>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B203" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C203" t="s">
-        <v>721</v>
+        <v>706</v>
       </c>
       <c r="D203" t="s">
         <v>79</v>
       </c>
       <c r="E203" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="F203" t="s">
         <v>18</v>
@@ -10240,24 +10199,24 @@
         <v>20</v>
       </c>
       <c r="M203" t="s">
-        <v>408</v>
+        <v>405</v>
       </c>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="B204" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C204" t="s">
-        <v>722</v>
+        <v>707</v>
       </c>
       <c r="D204" t="s">
         <v>79</v>
       </c>
       <c r="E204" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="J204">
         <v>401</v>
@@ -10266,24 +10225,24 @@
         <v>20</v>
       </c>
       <c r="M204" t="s">
-        <v>407</v>
+        <v>404</v>
       </c>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B205" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C205" t="s">
-        <v>723</v>
+        <v>708</v>
       </c>
       <c r="D205" t="s">
         <v>79</v>
       </c>
       <c r="E205" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="F205" t="s">
         <v>18</v>
@@ -10295,24 +10254,24 @@
         <v>20</v>
       </c>
       <c r="M205" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="B206" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C206" t="s">
-        <v>724</v>
+        <v>709</v>
       </c>
       <c r="D206" t="s">
         <v>79</v>
       </c>
       <c r="E206" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="J206">
         <v>401</v>
@@ -10321,24 +10280,24 @@
         <v>20</v>
       </c>
       <c r="M206" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B207" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C207" t="s">
-        <v>725</v>
+        <v>710</v>
       </c>
       <c r="D207" t="s">
         <v>79</v>
       </c>
       <c r="E207" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="F207" t="s">
         <v>18</v>
@@ -10350,24 +10309,24 @@
         <v>20</v>
       </c>
       <c r="M207" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="B208" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C208" t="s">
-        <v>726</v>
+        <v>711</v>
       </c>
       <c r="D208" t="s">
         <v>79</v>
       </c>
       <c r="E208" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="J208">
         <v>401</v>
@@ -10376,30 +10335,30 @@
         <v>20</v>
       </c>
       <c r="M208" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
       <c r="B209" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C209" t="s">
-        <v>727</v>
+        <v>712</v>
       </c>
       <c r="D209" t="s">
         <v>44</v>
       </c>
       <c r="E209" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F209" t="s">
         <v>18</v>
       </c>
       <c r="H209" t="s">
-        <v>910</v>
+        <v>969</v>
       </c>
       <c r="J209">
         <v>200</v>
@@ -10408,30 +10367,30 @@
         <v>20</v>
       </c>
       <c r="M209" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" t="s">
-        <v>400</v>
+        <v>397</v>
       </c>
       <c r="B210" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="C210" t="s">
-        <v>728</v>
+        <v>713</v>
       </c>
       <c r="D210" t="s">
         <v>44</v>
       </c>
       <c r="E210" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="F210" t="s">
         <v>18</v>
       </c>
       <c r="H210" t="s">
-        <v>911</v>
+        <v>882</v>
       </c>
       <c r="J210">
         <v>422</v>
@@ -10440,88 +10399,82 @@
         <v>20</v>
       </c>
       <c r="M210" t="s">
-        <v>401</v>
+        <v>398</v>
       </c>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="B211" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C211" t="s">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="D211" t="s">
         <v>79</v>
       </c>
       <c r="E211" t="s">
-        <v>416</v>
+        <v>413</v>
       </c>
       <c r="J211" t="s">
-        <v>446</v>
-      </c>
-      <c r="K211" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L211" t="s">
         <v>20</v>
       </c>
       <c r="M211" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="B212" t="s">
+        <v>412</v>
+      </c>
+      <c r="C212" t="s">
         <v>415</v>
-      </c>
-      <c r="C212" t="s">
-        <v>418</v>
       </c>
       <c r="D212" t="s">
         <v>79</v>
       </c>
       <c r="E212" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="G212" t="s">
-        <v>974</v>
+        <v>912</v>
       </c>
       <c r="J212">
         <v>200</v>
       </c>
-      <c r="K212" t="s">
-        <v>448</v>
-      </c>
       <c r="L212" t="s">
         <v>20</v>
       </c>
       <c r="M212" t="s">
-        <v>438</v>
+        <v>435</v>
       </c>
       <c r="N212" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" t="s">
-        <v>769</v>
+        <v>754</v>
       </c>
       <c r="B213" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C213" t="s">
-        <v>768</v>
+        <v>753</v>
       </c>
       <c r="D213" t="s">
         <v>79</v>
       </c>
       <c r="E213" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="J213">
         <v>500</v>
@@ -10533,56 +10486,53 @@
         <v>20</v>
       </c>
       <c r="M213" t="s">
-        <v>770</v>
+        <v>755</v>
       </c>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B214" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C214" t="s">
-        <v>419</v>
+        <v>416</v>
       </c>
       <c r="D214" t="s">
         <v>79</v>
       </c>
       <c r="E214" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F214" t="s">
         <v>18</v>
       </c>
       <c r="J214" t="s">
-        <v>446</v>
-      </c>
-      <c r="K214" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="L214" t="s">
         <v>20</v>
       </c>
       <c r="M214" t="s">
-        <v>439</v>
+        <v>436</v>
       </c>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B215" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C215" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D215" t="s">
         <v>79</v>
       </c>
       <c r="E215" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F215" t="s">
         <v>18</v>
@@ -10594,27 +10544,27 @@
         <v>20</v>
       </c>
       <c r="M215" t="s">
-        <v>440</v>
+        <v>437</v>
       </c>
       <c r="N215" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" t="s">
-        <v>771</v>
+        <v>756</v>
       </c>
       <c r="B216" t="s">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="C216" t="s">
-        <v>772</v>
+        <v>757</v>
       </c>
       <c r="D216" t="s">
         <v>79</v>
       </c>
       <c r="E216" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="F216" t="s">
         <v>18</v>
@@ -10629,129 +10579,126 @@
         <v>20</v>
       </c>
       <c r="M216" t="s">
-        <v>773</v>
+        <v>758</v>
       </c>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="B217" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C217" t="s">
-        <v>459</v>
+        <v>454</v>
       </c>
       <c r="D217" t="s">
         <v>79</v>
       </c>
       <c r="E217" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F217" t="s">
         <v>18</v>
       </c>
       <c r="G217" t="s">
-        <v>907</v>
+        <v>967</v>
       </c>
       <c r="J217">
         <v>200</v>
       </c>
-      <c r="K217" t="s">
-        <v>479</v>
-      </c>
       <c r="L217" t="s">
         <v>20</v>
       </c>
       <c r="M217" t="s">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="B218" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C218" t="s">
-        <v>460</v>
+        <v>455</v>
       </c>
       <c r="D218" t="s">
         <v>79</v>
       </c>
       <c r="E218" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F218" t="s">
         <v>18</v>
       </c>
       <c r="G218" t="s">
-        <v>908</v>
+        <v>967</v>
       </c>
       <c r="J218">
         <v>400</v>
       </c>
       <c r="K218" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="L218" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M218" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" t="s">
-        <v>452</v>
+        <v>447</v>
       </c>
       <c r="B219" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C219" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D219" t="s">
         <v>79</v>
       </c>
       <c r="E219" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="G219" t="s">
-        <v>907</v>
+        <v>880</v>
       </c>
       <c r="J219">
         <v>401</v>
       </c>
       <c r="L219" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M219" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" t="s">
-        <v>453</v>
+        <v>448</v>
       </c>
       <c r="B220" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C220" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
       <c r="D220" t="s">
         <v>79</v>
       </c>
       <c r="E220" t="s">
-        <v>468</v>
+        <v>463</v>
       </c>
       <c r="F220" t="s">
         <v>18</v>
       </c>
       <c r="G220" t="s">
-        <v>836</v>
+        <v>818</v>
       </c>
       <c r="J220">
         <v>422</v>
@@ -10760,30 +10707,30 @@
         <v>20</v>
       </c>
       <c r="M220" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="B221" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C221" t="s">
-        <v>463</v>
+        <v>458</v>
       </c>
       <c r="D221" t="s">
         <v>44</v>
       </c>
       <c r="E221" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F221" t="s">
         <v>18</v>
       </c>
       <c r="H221" t="s">
-        <v>902</v>
+        <v>986</v>
       </c>
       <c r="J221">
         <v>200</v>
@@ -10792,30 +10739,30 @@
         <v>20</v>
       </c>
       <c r="M221" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
       <c r="B222" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C222" t="s">
-        <v>467</v>
+        <v>462</v>
       </c>
       <c r="D222" t="s">
         <v>44</v>
       </c>
       <c r="E222" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F222" t="s">
         <v>18</v>
       </c>
       <c r="H222" t="s">
-        <v>903</v>
+        <v>985</v>
       </c>
       <c r="J222">
         <v>200</v>
@@ -10824,30 +10771,30 @@
         <v>20</v>
       </c>
       <c r="M222" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="B223" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C223" t="s">
-        <v>466</v>
+        <v>461</v>
       </c>
       <c r="D223" t="s">
         <v>44</v>
       </c>
       <c r="E223" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F223" t="s">
         <v>18</v>
       </c>
       <c r="H223" t="s">
-        <v>904</v>
+        <v>880</v>
       </c>
       <c r="J223">
         <v>422</v>
@@ -10856,30 +10803,30 @@
         <v>20</v>
       </c>
       <c r="M223" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="B224" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C224" t="s">
-        <v>465</v>
+        <v>460</v>
       </c>
       <c r="D224" t="s">
         <v>44</v>
       </c>
       <c r="E224" t="s">
-        <v>469</v>
+        <v>464</v>
       </c>
       <c r="F224" t="s">
         <v>18</v>
       </c>
       <c r="H224" t="s">
-        <v>905</v>
+        <v>950</v>
       </c>
       <c r="J224">
         <v>422</v>
@@ -10888,30 +10835,30 @@
         <v>20</v>
       </c>
       <c r="M224" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B225" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="C225" t="s">
+        <v>459</v>
+      </c>
+      <c r="D225" t="s">
+        <v>44</v>
+      </c>
+      <c r="E225" t="s">
         <v>464</v>
       </c>
-      <c r="D225" t="s">
-        <v>44</v>
-      </c>
-      <c r="E225" t="s">
-        <v>469</v>
-      </c>
       <c r="F225" t="s">
         <v>18</v>
       </c>
       <c r="H225" t="s">
-        <v>906</v>
+        <v>951</v>
       </c>
       <c r="J225">
         <v>422</v>
@@ -10920,27 +10867,27 @@
         <v>20</v>
       </c>
       <c r="M225" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" t="s">
-        <v>520</v>
+        <v>511</v>
       </c>
       <c r="B226" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C226" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="D226" t="s">
         <v>79</v>
       </c>
       <c r="E226" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F226" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="J226">
         <v>401</v>
@@ -10949,27 +10896,27 @@
         <v>20</v>
       </c>
       <c r="M226" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" t="s">
-        <v>729</v>
+        <v>714</v>
       </c>
       <c r="B227" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C227" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="D227" t="s">
         <v>79</v>
       </c>
       <c r="E227" t="s">
-        <v>511</v>
+        <v>502</v>
       </c>
       <c r="F227" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="J227">
         <v>200</v>
@@ -10978,27 +10925,27 @@
         <v>20</v>
       </c>
       <c r="M227" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" t="s">
-        <v>521</v>
+        <v>512</v>
       </c>
       <c r="B228" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C228" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="D228" t="s">
         <v>79</v>
       </c>
       <c r="E228" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F228" t="s">
-        <v>784</v>
+        <v>769</v>
       </c>
       <c r="J228">
         <v>401</v>
@@ -11007,27 +10954,27 @@
         <v>20</v>
       </c>
       <c r="M228" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" t="s">
-        <v>730</v>
+        <v>715</v>
       </c>
       <c r="B229" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C229" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="D229" t="s">
         <v>79</v>
       </c>
       <c r="E229" t="s">
-        <v>512</v>
+        <v>503</v>
       </c>
       <c r="F229" t="s">
-        <v>707</v>
+        <v>693</v>
       </c>
       <c r="J229">
         <v>200</v>
@@ -11036,30 +10983,30 @@
         <v>20</v>
       </c>
       <c r="M229" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" t="s">
-        <v>522</v>
+        <v>513</v>
       </c>
       <c r="B230" t="s">
+        <v>474</v>
+      </c>
+      <c r="C230" t="s">
         <v>480</v>
       </c>
-      <c r="C230" t="s">
-        <v>486</v>
-      </c>
       <c r="D230" t="s">
         <v>44</v>
       </c>
       <c r="E230" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F230" t="s">
         <v>18</v>
       </c>
       <c r="H230" t="s">
-        <v>971</v>
+        <v>944</v>
       </c>
       <c r="J230">
         <v>200</v>
@@ -11068,30 +11015,30 @@
         <v>20</v>
       </c>
       <c r="M230" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" t="s">
-        <v>523</v>
+        <v>514</v>
       </c>
       <c r="B231" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C231" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="D231" t="s">
         <v>44</v>
       </c>
       <c r="E231" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F231" t="s">
         <v>18</v>
       </c>
       <c r="H231" t="s">
-        <v>837</v>
+        <v>819</v>
       </c>
       <c r="J231">
         <v>400</v>
@@ -11100,30 +11047,30 @@
         <v>20</v>
       </c>
       <c r="M231" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" t="s">
-        <v>524</v>
+        <v>515</v>
       </c>
       <c r="B232" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C232" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="D232" t="s">
         <v>44</v>
       </c>
       <c r="E232" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="F232" t="s">
         <v>18</v>
       </c>
       <c r="H232" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="J232">
         <v>422</v>
@@ -11132,27 +11079,27 @@
         <v>20</v>
       </c>
       <c r="M232" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" t="s">
-        <v>525</v>
+        <v>516</v>
       </c>
       <c r="B233" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C233" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="D233" t="s">
         <v>44</v>
       </c>
       <c r="E233" t="s">
-        <v>513</v>
+        <v>504</v>
       </c>
       <c r="H233" t="s">
-        <v>900</v>
+        <v>878</v>
       </c>
       <c r="J233" t="s">
         <v>68</v>
@@ -11161,24 +11108,24 @@
         <v>20</v>
       </c>
       <c r="M233" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" t="s">
-        <v>526</v>
+        <v>517</v>
       </c>
       <c r="B234" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C234" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="D234" t="s">
         <v>79</v>
       </c>
       <c r="E234" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="F234" t="s">
         <v>18</v>
@@ -11190,56 +11137,56 @@
         <v>20</v>
       </c>
       <c r="M234" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" t="s">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="B235" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C235" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="D235" t="s">
         <v>79</v>
       </c>
       <c r="E235" t="s">
-        <v>514</v>
+        <v>505</v>
       </c>
       <c r="J235" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L235" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M235" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" t="s">
-        <v>528</v>
+        <v>519</v>
       </c>
       <c r="B236" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C236" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="D236" t="s">
         <v>79</v>
       </c>
       <c r="E236" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F236" t="s">
         <v>18</v>
       </c>
       <c r="G236" t="s">
-        <v>544</v>
+        <v>942</v>
       </c>
       <c r="J236">
         <v>200</v>
@@ -11248,91 +11195,91 @@
         <v>20</v>
       </c>
       <c r="M236" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" t="s">
-        <v>529</v>
+        <v>520</v>
       </c>
       <c r="B237" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C237" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="D237" t="s">
         <v>79</v>
       </c>
       <c r="E237" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="F237" t="s">
         <v>18</v>
       </c>
       <c r="G237" t="s">
-        <v>545</v>
+        <v>943</v>
       </c>
       <c r="J237" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="L237" t="s">
         <v>20</v>
       </c>
       <c r="M237" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
     </row>
     <row r="238" spans="1:13">
       <c r="A238" t="s">
-        <v>530</v>
+        <v>521</v>
       </c>
       <c r="B238" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C238" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D238" t="s">
         <v>79</v>
       </c>
       <c r="E238" t="s">
-        <v>515</v>
+        <v>506</v>
       </c>
       <c r="G238" t="s">
-        <v>544</v>
+        <v>942</v>
       </c>
       <c r="J238" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L238" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M238" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" t="s">
-        <v>531</v>
+        <v>522</v>
       </c>
       <c r="B239" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C239" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="D239" t="s">
         <v>44</v>
       </c>
       <c r="E239" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F239" t="s">
         <v>18</v>
       </c>
       <c r="H239" t="s">
-        <v>507</v>
+        <v>953</v>
       </c>
       <c r="J239">
         <v>200</v>
@@ -11341,30 +11288,30 @@
         <v>20</v>
       </c>
       <c r="M239" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" t="s">
-        <v>532</v>
+        <v>523</v>
       </c>
       <c r="B240" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C240" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D240" t="s">
         <v>44</v>
       </c>
       <c r="E240" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="F240" t="s">
         <v>18</v>
       </c>
       <c r="H240" t="s">
-        <v>508</v>
+        <v>954</v>
       </c>
       <c r="J240">
         <v>422</v>
@@ -11373,53 +11320,53 @@
         <v>20</v>
       </c>
       <c r="M240" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
     </row>
     <row r="241" spans="1:13">
       <c r="A241" t="s">
-        <v>533</v>
+        <v>524</v>
       </c>
       <c r="B241" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C241" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D241" t="s">
         <v>44</v>
       </c>
       <c r="E241" t="s">
-        <v>516</v>
+        <v>507</v>
       </c>
       <c r="H241" t="s">
-        <v>509</v>
+        <v>953</v>
       </c>
       <c r="J241" t="s">
         <v>68</v>
       </c>
       <c r="L241" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M241" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="242" spans="1:13">
       <c r="A242" t="s">
-        <v>534</v>
+        <v>525</v>
       </c>
       <c r="B242" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C242" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="D242" t="s">
         <v>79</v>
       </c>
       <c r="E242" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="F242" t="s">
         <v>18</v>
@@ -11431,56 +11378,56 @@
         <v>20</v>
       </c>
       <c r="M242" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" t="s">
-        <v>535</v>
+        <v>526</v>
       </c>
       <c r="B243" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C243" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="D243" t="s">
         <v>79</v>
       </c>
       <c r="E243" t="s">
-        <v>517</v>
+        <v>508</v>
       </c>
       <c r="J243" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="L243" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M243" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
     </row>
     <row r="244" spans="1:13">
       <c r="A244" t="s">
-        <v>536</v>
+        <v>527</v>
       </c>
       <c r="B244" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C244" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="D244" t="s">
         <v>79</v>
       </c>
       <c r="E244" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F244" t="s">
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="J244">
         <v>200</v>
@@ -11489,24 +11436,24 @@
         <v>20</v>
       </c>
       <c r="M244" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
     </row>
     <row r="245" spans="1:13">
       <c r="A245" t="s">
-        <v>537</v>
+        <v>528</v>
       </c>
       <c r="B245" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C245" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="D245" t="s">
         <v>79</v>
       </c>
       <c r="E245" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F245" t="s">
         <v>18</v>
@@ -11518,94 +11465,94 @@
         <v>20</v>
       </c>
       <c r="M245" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
     </row>
     <row r="246" spans="1:13">
       <c r="A246" t="s">
-        <v>538</v>
+        <v>529</v>
       </c>
       <c r="B246" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C246" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="D246" t="s">
         <v>79</v>
       </c>
       <c r="E246" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="G246" t="s">
-        <v>899</v>
+        <v>952</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>68</v>
       </c>
       <c r="L246" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M246" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
     </row>
     <row r="247" spans="1:13">
       <c r="A247" t="s">
-        <v>539</v>
+        <v>530</v>
       </c>
       <c r="B247" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C247" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="D247" t="s">
         <v>79</v>
       </c>
       <c r="E247" t="s">
-        <v>518</v>
+        <v>509</v>
       </c>
       <c r="F247" t="s">
         <v>18</v>
       </c>
       <c r="G247" t="s">
-        <v>990</v>
+        <v>966</v>
       </c>
       <c r="J247">
         <v>404</v>
       </c>
       <c r="L247" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M247" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
     </row>
     <row r="248" spans="1:13">
       <c r="A248" t="s">
-        <v>540</v>
+        <v>531</v>
       </c>
       <c r="B248" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C248" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="D248" t="s">
         <v>44</v>
       </c>
       <c r="E248" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F248" t="s">
         <v>18</v>
       </c>
       <c r="G248" t="s">
-        <v>899</v>
+        <v>952</v>
       </c>
       <c r="H248" t="s">
-        <v>507</v>
+        <v>955</v>
       </c>
       <c r="J248">
         <v>200</v>
@@ -11614,30 +11561,30 @@
         <v>20</v>
       </c>
       <c r="M248" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
     </row>
     <row r="249" spans="1:13">
       <c r="A249" t="s">
-        <v>541</v>
+        <v>532</v>
       </c>
       <c r="B249" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C249" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="D249" t="s">
         <v>44</v>
       </c>
       <c r="E249" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F249" t="s">
         <v>18</v>
       </c>
       <c r="H249" t="s">
-        <v>509</v>
+        <v>955</v>
       </c>
       <c r="J249">
         <v>422</v>
@@ -11646,91 +11593,91 @@
         <v>20</v>
       </c>
       <c r="M249" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
     </row>
     <row r="250" spans="1:13">
       <c r="A250" t="s">
-        <v>542</v>
+        <v>533</v>
       </c>
       <c r="B250" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C250" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="D250" t="s">
         <v>44</v>
       </c>
       <c r="E250" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="G250" t="s">
-        <v>899</v>
+        <v>952</v>
       </c>
       <c r="H250" t="s">
-        <v>509</v>
+        <v>955</v>
       </c>
       <c r="J250" t="s">
         <v>68</v>
       </c>
       <c r="L250" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M250" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="251" spans="1:13">
       <c r="A251" t="s">
-        <v>543</v>
+        <v>534</v>
       </c>
       <c r="B251" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C251" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="D251" t="s">
         <v>44</v>
       </c>
       <c r="E251" t="s">
-        <v>519</v>
+        <v>510</v>
       </c>
       <c r="F251" t="s">
         <v>18</v>
       </c>
       <c r="G251" t="s">
-        <v>899</v>
+        <v>952</v>
       </c>
       <c r="H251" t="s">
-        <v>510</v>
+        <v>501</v>
       </c>
       <c r="J251" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="L251" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M251" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="252" spans="1:13">
       <c r="A252" t="s">
-        <v>742</v>
+        <v>727</v>
       </c>
       <c r="B252" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C252" t="s">
-        <v>744</v>
+        <v>729</v>
       </c>
       <c r="D252" t="s">
         <v>44</v>
       </c>
       <c r="E252" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="F252" t="s">
         <v>18</v>
@@ -11745,24 +11692,24 @@
         <v>20</v>
       </c>
       <c r="M252" t="s">
-        <v>747</v>
+        <v>732</v>
       </c>
     </row>
     <row r="253" spans="1:13">
       <c r="A253" t="s">
-        <v>743</v>
+        <v>728</v>
       </c>
       <c r="B253" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="C253" t="s">
-        <v>745</v>
+        <v>730</v>
       </c>
       <c r="D253" t="s">
         <v>44</v>
       </c>
       <c r="E253" t="s">
-        <v>746</v>
+        <v>731</v>
       </c>
       <c r="J253">
         <v>401</v>
@@ -11774,24 +11721,24 @@
         <v>20</v>
       </c>
       <c r="M253" t="s">
-        <v>748</v>
+        <v>733</v>
       </c>
     </row>
     <row r="254" spans="1:13">
       <c r="A254" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B254" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C254" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D254" t="s">
         <v>44</v>
       </c>
       <c r="E254" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F254" t="s">
         <v>18</v>
@@ -11800,123 +11747,123 @@
         <v>200</v>
       </c>
       <c r="K254" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="L254" t="s">
         <v>20</v>
       </c>
       <c r="M254" t="s">
-        <v>441</v>
+        <v>438</v>
       </c>
     </row>
     <row r="255" spans="1:13">
       <c r="A255" t="s">
+        <v>428</v>
+      </c>
+      <c r="B255" t="s">
+        <v>422</v>
+      </c>
+      <c r="C255" t="s">
+        <v>419</v>
+      </c>
+      <c r="D255" t="s">
+        <v>44</v>
+      </c>
+      <c r="E255" t="s">
         <v>431</v>
-      </c>
-      <c r="B255" t="s">
-        <v>425</v>
-      </c>
-      <c r="C255" t="s">
-        <v>422</v>
-      </c>
-      <c r="D255" t="s">
-        <v>44</v>
-      </c>
-      <c r="E255" t="s">
-        <v>434</v>
       </c>
       <c r="J255">
         <v>401</v>
       </c>
       <c r="K255" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="L255" t="s">
         <v>20</v>
       </c>
       <c r="M255" t="s">
-        <v>442</v>
+        <v>439</v>
       </c>
     </row>
     <row r="256" spans="1:13">
       <c r="A256" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B256" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C256" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="D256" t="s">
         <v>44</v>
       </c>
       <c r="E256" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F256" t="s">
-        <v>798</v>
+        <v>783</v>
       </c>
       <c r="J256">
         <v>401</v>
       </c>
       <c r="K256" t="s">
-        <v>738</v>
+        <v>723</v>
       </c>
       <c r="L256" t="s">
         <v>20</v>
       </c>
       <c r="M256" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
     </row>
     <row r="257" spans="1:14">
       <c r="A257" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="B257" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C257" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D257" t="s">
         <v>44</v>
       </c>
       <c r="E257" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F257" t="s">
         <v>18</v>
       </c>
       <c r="J257" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="L257" t="s">
-        <v>706</v>
+        <v>692</v>
       </c>
       <c r="M257" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="N257" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
     </row>
     <row r="258" spans="1:14">
       <c r="A258" t="s">
-        <v>765</v>
+        <v>750</v>
       </c>
       <c r="B258" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C258" t="s">
-        <v>766</v>
+        <v>751</v>
       </c>
       <c r="D258" t="s">
         <v>44</v>
       </c>
       <c r="E258" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="F258" t="s">
         <v>18</v>
@@ -11928,30 +11875,30 @@
         <v>51</v>
       </c>
       <c r="L258" t="s">
-        <v>20</v>
+        <v>692</v>
       </c>
       <c r="M258" t="s">
-        <v>767</v>
+        <v>752</v>
       </c>
     </row>
     <row r="259" spans="1:14">
       <c r="A259" t="s">
-        <v>835</v>
+        <v>817</v>
       </c>
       <c r="B259" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="C259" t="s">
+        <v>768</v>
+      </c>
+      <c r="D259" t="s">
+        <v>44</v>
+      </c>
+      <c r="E259" t="s">
+        <v>431</v>
+      </c>
+      <c r="F259" t="s">
         <v>783</v>
-      </c>
-      <c r="D259" t="s">
-        <v>44</v>
-      </c>
-      <c r="E259" t="s">
-        <v>434</v>
-      </c>
-      <c r="F259" t="s">
-        <v>784</v>
       </c>
       <c r="J259">
         <v>404</v>
@@ -11963,21 +11910,17 @@
         <v>20</v>
       </c>
       <c r="M259" t="s">
-        <v>785</v>
+        <v>770</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <conditionalFormatting sqref="L1:L1048576 M48">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",L1)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <hyperlinks>
-    <hyperlink ref="H190" r:id="rId1" display="http://localhost:11434/api/generate" xr:uid="{447DC675-7CEA-42EF-9373-DCF022C27065}"/>
-    <hyperlink ref="H187" r:id="rId2" display="http://localhost:11434/api/generate" xr:uid="{B474A7C7-50E9-4DDC-B478-5FEC9874DFAB}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/testdata/test_cases.xlsx
+++ b/testdata/test_cases.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiagonalStuff\test-aryabhat\tests\testdata\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiagonalStuff\test-aryabhat\Automated_testing\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{069090D1-1E30-4BF9-8F40-C199192794DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6272D1C-F4BA-474B-9192-9AE1AE96BFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E4B8BAA6-053C-490B-8A8F-CDABAC5CBC80}"/>
   </bookViews>
@@ -2969,12 +2969,6 @@
     <t>{"user_id": "valid_userId", "chat_id": "{{TC11G01.chat_id}}", "header": "Renamed Notebook"}</t>
   </si>
   <si>
-    <t>test_files/profile.jpg</t>
-  </si>
-  <si>
-    <t>test_files/profile.gif</t>
-  </si>
-  <si>
     <t>{"email": "valid_mail", "password": "valid_mail_pass", "confirm_password": "valid_mail_pass"}</t>
   </si>
   <si>
@@ -3315,6 +3309,12 @@
   </si>
   <si>
     <t>{"page":"not_a_number", "page_size": "aaaaaaaaa"}</t>
+  </si>
+  <si>
+    <t>util/images/sample.jpg</t>
+  </si>
+  <si>
+    <t>util/images/sample.gif</t>
   </si>
 </sst>
 </file>
@@ -3707,8 +3707,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB1F54A-02EF-463F-B588-F0453A90B53E}">
   <dimension ref="A1:O259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H55" sqref="H55"/>
+    <sheetView tabSelected="1" topLeftCell="B102" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3788,7 +3788,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>874</v>
+        <v>988</v>
       </c>
       <c r="J2">
         <v>200</v>
@@ -3820,7 +3820,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>874</v>
+        <v>988</v>
       </c>
       <c r="J3">
         <v>401</v>
@@ -3890,7 +3890,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>875</v>
+        <v>989</v>
       </c>
       <c r="J5">
         <v>415</v>
@@ -4047,7 +4047,7 @@
         <v>535</v>
       </c>
       <c r="H10" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="J10">
         <v>200</v>
@@ -4079,7 +4079,7 @@
         <v>535</v>
       </c>
       <c r="H11" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="J11">
         <v>400</v>
@@ -4111,7 +4111,7 @@
         <v>535</v>
       </c>
       <c r="H12" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="J12">
         <v>409</v>
@@ -4143,7 +4143,7 @@
         <v>535</v>
       </c>
       <c r="H13" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="J13">
         <v>422</v>
@@ -4207,7 +4207,7 @@
         <v>535</v>
       </c>
       <c r="H15" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="J15">
         <v>500</v>
@@ -4239,7 +4239,7 @@
         <v>535</v>
       </c>
       <c r="H16" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="J16">
         <v>404</v>
@@ -4274,7 +4274,7 @@
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="J17">
         <v>200</v>
@@ -4312,7 +4312,7 @@
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J18">
         <v>422</v>
@@ -4414,7 +4414,7 @@
         <v>553</v>
       </c>
       <c r="H21" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="J21">
         <v>200</v>
@@ -4446,7 +4446,7 @@
         <v>553</v>
       </c>
       <c r="H22" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="J22">
         <v>400</v>
@@ -4478,7 +4478,7 @@
         <v>553</v>
       </c>
       <c r="H23" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="J23">
         <v>400</v>
@@ -4510,7 +4510,7 @@
         <v>553</v>
       </c>
       <c r="H24" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="J24">
         <v>422</v>
@@ -4542,7 +4542,7 @@
         <v>563</v>
       </c>
       <c r="H25" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="J25">
         <v>200</v>
@@ -4577,7 +4577,7 @@
         <v>563</v>
       </c>
       <c r="H26" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="J26" t="s">
         <v>142</v>
@@ -4609,7 +4609,7 @@
         <v>563</v>
       </c>
       <c r="H27" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="J27">
         <v>409</v>
@@ -4641,7 +4641,7 @@
         <v>563</v>
       </c>
       <c r="H28" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="J28">
         <v>403</v>
@@ -4673,7 +4673,7 @@
         <v>563</v>
       </c>
       <c r="H29" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="J29">
         <v>404</v>
@@ -4705,7 +4705,7 @@
         <v>563</v>
       </c>
       <c r="H30" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="J30">
         <v>415</v>
@@ -4737,7 +4737,7 @@
         <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="J31">
         <v>200</v>
@@ -4766,7 +4766,7 @@
         <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="J32">
         <v>404</v>
@@ -4830,7 +4830,7 @@
         <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="J34">
         <v>422</v>
@@ -4862,7 +4862,7 @@
         <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="J35">
         <v>422</v>
@@ -4894,7 +4894,7 @@
         <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="J36">
         <v>422</v>
@@ -4926,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="J37">
         <v>403</v>
@@ -4958,7 +4958,7 @@
         <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="J38">
         <v>403</v>
@@ -4993,7 +4993,7 @@
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="J39">
         <v>200</v>
@@ -5031,7 +5031,7 @@
         <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="J40">
         <v>422</v>
@@ -5171,7 +5171,7 @@
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="J44">
         <v>200</v>
@@ -5206,7 +5206,7 @@
         <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="J45">
         <v>400</v>
@@ -5241,7 +5241,7 @@
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="J46">
         <v>422</v>
@@ -5276,7 +5276,7 @@
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="J47">
         <v>400</v>
@@ -5311,7 +5311,7 @@
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="J48">
         <v>404</v>
@@ -5527,7 +5527,7 @@
         <v>433</v>
       </c>
       <c r="G54" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J54">
         <v>200</v>
@@ -5623,7 +5623,7 @@
         <v>759</v>
       </c>
       <c r="G57" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="J57">
         <v>200</v>
@@ -5722,7 +5722,7 @@
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J60">
         <v>200</v>
@@ -5789,7 +5789,7 @@
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="J62">
         <v>401</v>
@@ -5853,7 +5853,7 @@
         <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="J64">
         <v>400</v>
@@ -5885,7 +5885,7 @@
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J65">
         <v>200</v>
@@ -5914,7 +5914,7 @@
         <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="J66">
         <v>403</v>
@@ -5946,7 +5946,7 @@
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="J67">
         <v>422</v>
@@ -5978,7 +5978,7 @@
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="J68">
         <v>422</v>
@@ -6010,7 +6010,7 @@
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="J69">
         <v>200</v>
@@ -6042,7 +6042,7 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="J70">
         <v>200</v>
@@ -6074,7 +6074,7 @@
         <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="J71">
         <v>200</v>
@@ -6106,7 +6106,7 @@
         <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="J72">
         <v>422</v>
@@ -6135,7 +6135,7 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="J73">
         <v>404</v>
@@ -6161,7 +6161,7 @@
         <v>94</v>
       </c>
       <c r="H74" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J74">
         <v>403</v>
@@ -6315,7 +6315,7 @@
         <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H79" t="s">
         <v>122</v>
@@ -6350,7 +6350,7 @@
         <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="H80" t="s">
         <v>122</v>
@@ -6385,7 +6385,7 @@
         <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H81" t="s">
         <v>123</v>
@@ -6420,7 +6420,7 @@
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H82" t="s">
         <v>696</v>
@@ -6452,7 +6452,7 @@
         <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="H83" t="s">
         <v>122</v>
@@ -6487,7 +6487,7 @@
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J84">
         <v>200</v>
@@ -6519,7 +6519,7 @@
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="J85">
         <v>422</v>
@@ -6580,7 +6580,7 @@
         <v>694</v>
       </c>
       <c r="H87" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="J87">
         <v>401</v>
@@ -6612,7 +6612,7 @@
         <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="J88">
         <v>200</v>
@@ -6952,7 +6952,7 @@
         <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J99">
         <v>200</v>
@@ -7016,7 +7016,7 @@
         <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J101" t="s">
         <v>180</v>
@@ -7115,7 +7115,7 @@
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="J104">
         <v>422</v>
@@ -7205,7 +7205,7 @@
         <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J107">
         <v>200</v>
@@ -7237,7 +7237,7 @@
         <v>18</v>
       </c>
       <c r="H108" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="J108">
         <v>422</v>
@@ -7269,7 +7269,7 @@
         <v>18</v>
       </c>
       <c r="H109" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="J109">
         <v>422</v>
@@ -7298,7 +7298,7 @@
         <v>198</v>
       </c>
       <c r="H110" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="J110">
         <v>401</v>
@@ -7330,7 +7330,7 @@
         <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="J111">
         <v>200</v>
@@ -7394,7 +7394,7 @@
         <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="J113">
         <v>200</v>
@@ -7426,7 +7426,7 @@
         <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="J114">
         <v>500</v>
@@ -7458,7 +7458,7 @@
         <v>18</v>
       </c>
       <c r="H115" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="J115">
         <v>200</v>
@@ -7490,7 +7490,7 @@
         <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="J116">
         <v>200</v>
@@ -7522,7 +7522,7 @@
         <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="J117">
         <v>200</v>
@@ -7586,7 +7586,7 @@
         <v>18</v>
       </c>
       <c r="H119" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J119">
         <v>200</v>
@@ -7650,7 +7650,7 @@
         <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J121" t="s">
         <v>180</v>
@@ -7740,7 +7740,7 @@
         <v>18</v>
       </c>
       <c r="H124" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J124">
         <v>200</v>
@@ -7769,7 +7769,7 @@
         <v>214</v>
       </c>
       <c r="H125" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="J125">
         <v>401</v>
@@ -7801,7 +7801,7 @@
         <v>18</v>
       </c>
       <c r="H126" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="J126">
         <v>422</v>
@@ -8051,7 +8051,7 @@
         <v>18</v>
       </c>
       <c r="H134" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="J134">
         <v>200</v>
@@ -8083,7 +8083,7 @@
         <v>18</v>
       </c>
       <c r="H135" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="J135" t="s">
         <v>142</v>
@@ -8115,7 +8115,7 @@
         <v>18</v>
       </c>
       <c r="H136" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="J136" t="s">
         <v>142</v>
@@ -8144,7 +8144,7 @@
         <v>219</v>
       </c>
       <c r="H137" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="J137">
         <v>401</v>
@@ -8176,7 +8176,7 @@
         <v>18</v>
       </c>
       <c r="H138" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J138">
         <v>200</v>
@@ -8208,7 +8208,7 @@
         <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="J139">
         <v>422</v>
@@ -8240,7 +8240,7 @@
         <v>18</v>
       </c>
       <c r="H140" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="J140">
         <v>422</v>
@@ -8269,7 +8269,7 @@
         <v>198</v>
       </c>
       <c r="H141" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="J141">
         <v>401</v>
@@ -8397,7 +8397,7 @@
         <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="J145">
         <v>200</v>
@@ -8429,7 +8429,7 @@
         <v>18</v>
       </c>
       <c r="H146" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="J146">
         <v>422</v>
@@ -8653,7 +8653,7 @@
         <v>18</v>
       </c>
       <c r="H153" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="J153" t="s">
         <v>180</v>
@@ -8717,7 +8717,7 @@
         <v>18</v>
       </c>
       <c r="H155" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="J155">
         <v>200</v>
@@ -8752,7 +8752,7 @@
         <v>18</v>
       </c>
       <c r="H156" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="J156" t="s">
         <v>180</v>
@@ -8851,7 +8851,7 @@
         <v>18</v>
       </c>
       <c r="H159" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="J159" t="s">
         <v>180</v>
@@ -8918,7 +8918,7 @@
         <v>18</v>
       </c>
       <c r="H161" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J161" t="s">
         <v>180</v>
@@ -8950,7 +8950,7 @@
         <v>18</v>
       </c>
       <c r="H162" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="J162">
         <v>404</v>
@@ -8982,7 +8982,7 @@
         <v>18</v>
       </c>
       <c r="H163" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J163">
         <v>422</v>
@@ -8996,7 +8996,7 @@
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B164" t="s">
         <v>256</v>
@@ -9014,7 +9014,7 @@
         <v>18</v>
       </c>
       <c r="H164" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="J164">
         <v>422</v>
@@ -9171,7 +9171,7 @@
         <v>18</v>
       </c>
       <c r="H169" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J169">
         <v>200</v>
@@ -9203,7 +9203,7 @@
         <v>18</v>
       </c>
       <c r="H170" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="J170">
         <v>422</v>
@@ -9232,7 +9232,7 @@
         <v>18</v>
       </c>
       <c r="H171" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="J171">
         <v>400</v>
@@ -9261,7 +9261,7 @@
         <v>18</v>
       </c>
       <c r="H172" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J172">
         <v>400</v>
@@ -9287,7 +9287,7 @@
         <v>320</v>
       </c>
       <c r="H173" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="J173">
         <v>403</v>
@@ -9351,7 +9351,7 @@
         <v>18</v>
       </c>
       <c r="G175" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="J175" t="s">
         <v>141</v>
@@ -9406,7 +9406,7 @@
         <v>18</v>
       </c>
       <c r="G177" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="J177">
         <v>200</v>
@@ -9438,7 +9438,7 @@
         <v>322</v>
       </c>
       <c r="G178" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="J178">
         <v>403</v>
@@ -9467,7 +9467,7 @@
         <v>18</v>
       </c>
       <c r="G179" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="J179">
         <v>404</v>
@@ -9606,7 +9606,7 @@
         <v>18</v>
       </c>
       <c r="H184" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="J184">
         <v>400</v>
@@ -9632,7 +9632,7 @@
         <v>324</v>
       </c>
       <c r="H185" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="J185">
         <v>403</v>
@@ -9696,7 +9696,7 @@
         <v>18</v>
       </c>
       <c r="H187" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="J187">
         <v>200</v>
@@ -9731,7 +9731,7 @@
         <v>18</v>
       </c>
       <c r="H188" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="J188" t="s">
         <v>742</v>
@@ -9760,7 +9760,7 @@
         <v>18</v>
       </c>
       <c r="H189" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="J189">
         <v>422</v>
@@ -9786,7 +9786,7 @@
         <v>325</v>
       </c>
       <c r="H190" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="J190">
         <v>401</v>
@@ -9818,7 +9818,7 @@
         <v>18</v>
       </c>
       <c r="H191" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="J191">
         <v>200</v>
@@ -9853,7 +9853,7 @@
         <v>18</v>
       </c>
       <c r="H192" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="J192" t="s">
         <v>135</v>
@@ -9882,7 +9882,7 @@
         <v>18</v>
       </c>
       <c r="H193" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="J193">
         <v>422</v>
@@ -9946,7 +9946,7 @@
         <v>18</v>
       </c>
       <c r="G195" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="J195" t="s">
         <v>141</v>
@@ -10001,7 +10001,7 @@
         <v>18</v>
       </c>
       <c r="H197" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="J197">
         <v>200</v>
@@ -10033,7 +10033,7 @@
         <v>18</v>
       </c>
       <c r="H198" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="J198">
         <v>422</v>
@@ -10065,7 +10065,7 @@
         <v>18</v>
       </c>
       <c r="H199" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="J199">
         <v>400</v>
@@ -10097,7 +10097,7 @@
         <v>18</v>
       </c>
       <c r="H200" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J200">
         <v>200</v>
@@ -10129,7 +10129,7 @@
         <v>18</v>
       </c>
       <c r="H201" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="J201">
         <v>422</v>
@@ -10161,7 +10161,7 @@
         <v>18</v>
       </c>
       <c r="H202" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="J202">
         <v>400</v>
@@ -10358,7 +10358,7 @@
         <v>18</v>
       </c>
       <c r="H209" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="J209">
         <v>200</v>
@@ -10390,7 +10390,7 @@
         <v>18</v>
       </c>
       <c r="H210" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="J210">
         <v>422</v>
@@ -10445,7 +10445,7 @@
         <v>433</v>
       </c>
       <c r="G212" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="J212">
         <v>200</v>
@@ -10602,7 +10602,7 @@
         <v>18</v>
       </c>
       <c r="G217" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="J217">
         <v>200</v>
@@ -10634,7 +10634,7 @@
         <v>18</v>
       </c>
       <c r="G218" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="J218">
         <v>400</v>
@@ -10666,7 +10666,7 @@
         <v>463</v>
       </c>
       <c r="G219" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J219">
         <v>401</v>
@@ -10730,7 +10730,7 @@
         <v>18</v>
       </c>
       <c r="H221" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="J221">
         <v>200</v>
@@ -10762,7 +10762,7 @@
         <v>18</v>
       </c>
       <c r="H222" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="J222">
         <v>200</v>
@@ -10794,7 +10794,7 @@
         <v>18</v>
       </c>
       <c r="H223" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="J223">
         <v>422</v>
@@ -10826,7 +10826,7 @@
         <v>18</v>
       </c>
       <c r="H224" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="J224">
         <v>422</v>
@@ -10858,7 +10858,7 @@
         <v>18</v>
       </c>
       <c r="H225" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="J225">
         <v>422</v>
@@ -11006,7 +11006,7 @@
         <v>18</v>
       </c>
       <c r="H230" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="J230">
         <v>200</v>
@@ -11099,7 +11099,7 @@
         <v>504</v>
       </c>
       <c r="H233" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="J233" t="s">
         <v>68</v>
@@ -11186,7 +11186,7 @@
         <v>18</v>
       </c>
       <c r="G236" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="J236">
         <v>200</v>
@@ -11218,7 +11218,7 @@
         <v>18</v>
       </c>
       <c r="G237" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="J237" t="s">
         <v>290</v>
@@ -11247,7 +11247,7 @@
         <v>506</v>
       </c>
       <c r="G238" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="J238" t="s">
         <v>352</v>
@@ -11279,7 +11279,7 @@
         <v>18</v>
       </c>
       <c r="H239" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="J239">
         <v>200</v>
@@ -11311,7 +11311,7 @@
         <v>18</v>
       </c>
       <c r="H240" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="J240">
         <v>422</v>
@@ -11340,7 +11340,7 @@
         <v>507</v>
       </c>
       <c r="H241" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="J241" t="s">
         <v>68</v>
@@ -11427,7 +11427,7 @@
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J244">
         <v>200</v>
@@ -11485,7 +11485,7 @@
         <v>509</v>
       </c>
       <c r="G246" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>68</v>
@@ -11517,7 +11517,7 @@
         <v>18</v>
       </c>
       <c r="G247" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="J247">
         <v>404</v>
@@ -11549,10 +11549,10 @@
         <v>18</v>
       </c>
       <c r="G248" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H248" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J248">
         <v>200</v>
@@ -11584,7 +11584,7 @@
         <v>18</v>
       </c>
       <c r="H249" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J249">
         <v>422</v>
@@ -11613,10 +11613,10 @@
         <v>510</v>
       </c>
       <c r="G250" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H250" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="J250" t="s">
         <v>68</v>
@@ -11648,7 +11648,7 @@
         <v>18</v>
       </c>
       <c r="G251" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="H251" t="s">
         <v>501</v>

--- a/testdata/test_cases.xlsx
+++ b/testdata/test_cases.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiagonalStuff\test-aryabhat\Automated_testing\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6272D1C-F4BA-474B-9192-9AE1AE96BFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B8E6B-DD29-4273-A560-C14128AFACAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E4B8BAA6-053C-490B-8A8F-CDABAC5CBC80}"/>
+    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{E4B8BAA6-053C-490B-8A8F-CDABAC5CBC80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2335" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="990">
   <si>
     <t>Test_ID</t>
   </si>
@@ -1339,9 +1339,6 @@
     </r>
   </si>
   <si>
-    <t>Create LLM without invalid user ID</t>
-  </si>
-  <si>
     <t>Create duplicate model</t>
   </si>
   <si>
@@ -2813,12 +2810,6 @@
     <t>Not authorized to create LLM without headers.</t>
   </si>
   <si>
-    <t>{"department_tag": "database"}</t>
-  </si>
-  <si>
-    <t>{"department_tag": "personal", "provider_id": "68c95a3b15c02201dda52ea8", "model_id": "lwav"}</t>
-  </si>
-  <si>
     <t>TC02D07</t>
   </si>
   <si>
@@ -2828,9 +2819,6 @@
     <t>Verify Success</t>
   </si>
   <si>
-    <t>/api/FinalQuery/stream/68cbd755a713b399daf789b1</t>
-  </si>
-  <si>
     <t>TC11F03</t>
   </si>
   <si>
@@ -2861,9 +2849,6 @@
     <t>React -- non-existent chat</t>
   </si>
   <si>
-    <t>{"chat_id": "{{TC11G01.chat_id}}"}</t>
-  </si>
-  <si>
     <t>TC08A05</t>
   </si>
   <si>
@@ -2912,12 +2897,6 @@
     <t>Should successfully retrieve DB configuration for valid ID.</t>
   </si>
   <si>
-    <t>{"id": "invalid_id", "intend": "get"}</t>
-  </si>
-  <si>
-    <t>{"id": "invalid_id", "intend": "delete"}</t>
-  </si>
-  <si>
     <t>Configure DB – Get Config</t>
   </si>
   <si>
@@ -2948,12 +2927,6 @@
     <t>{"user_id": "valid_userId"}</t>
   </si>
   <si>
-    <t>{"model_id": "lwav", "provider_id": "68c95a3b15c02201dda52ea8", "chat_id": "tbydhisvea", "user_input": "what are f block elements", "user_id": "valid_userId", "department_tag": "personal"}</t>
-  </si>
-  <si>
-    <t>{"user_input": "what are f block elements", "user_id": "valid_userId"}</t>
-  </si>
-  <si>
     <t>/api/FinalQuery/stream/valid_userId</t>
   </si>
   <si>
@@ -3008,24 +2981,9 @@
     <t>{"user_id": "valid_userId", "Theme_logo": "", "Theme_theme": "Dark", "Theme_font_size": 14, "Theme_primary_colour": "#1b75bc", "Theme_neutral_colour": "#ffffff", "Setting_archive_record": 0, "SMTP_server_address": "smtp_server", "SMTP_server_port": "smtp_port", "SMTP_server_sequrity": "smtp_security", "SMTP_email_address": "support_mail", "SMTP_username": "support_mail", "SMTP_password": "smtp_password", "intend": 0}</t>
   </si>
   <si>
-    <t>{"id": "db_id", "intend": "get"}</t>
-  </si>
-  <si>
-    <t>{"id": "db_id", "intend": "reset"}</t>
-  </si>
-  <si>
-    <t>{"id": "db_id", "intend": "set_default"}</t>
-  </si>
-  <si>
-    <t>{"id": "db_id", "intend": "delete"}</t>
-  </si>
-  <si>
     <t>{"database_service_provider_id": "db_provider_id", "id": "db_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": "yes", "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "set" }</t>
   </si>
   <si>
-    <t>{"server": "db_server", "port": "9999", "database": "db_name", "username": "db_username", "password": "wrongpass", "intend": "test"}</t>
-  </si>
-  <si>
     <t>{"database_service_provider_id": "db_provider_id", "id": "db_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": "yes", "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "set"}</t>
   </si>
   <si>
@@ -3071,9 +3029,6 @@
     <t>{"tag_name": "nonexistent-userid", "user_id": "nonexistent_userId"}</t>
   </si>
   <si>
-    <t>{"model_id": "lwav", "provider_id": "68c95a3b15c02201dda52ea8", "chat_id": "tbydhisvea", "user_input": "what are f block elements", "user_id": "invalid_userId", "department_tag": "personal"}</t>
-  </si>
-  <si>
     <t>{"code": "valid_microsoft_code"}</t>
   </si>
   <si>
@@ -3146,9 +3101,6 @@
     <t>{"database_service_provider_id": "db_provider_id", "id": "db_id", "port": "db_port", "database": "db_name", "is_encrypt": 0, "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "set" }</t>
   </si>
   <si>
-    <t>{"server": "db_server", "port": "db_port", "database": "db_name", "username": "db_username", "password": "db_password", "intend": "test"}</t>
-  </si>
-  <si>
     <t>{"database_service_provider_id": "db_provider_id", "id": "db_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": 0, "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "set"}</t>
   </si>
   <si>
@@ -3185,9 +3137,6 @@
     <t>{"tag_id": "{{TC03A01._id}}", "tag_name": "rename_tag", "modified_by": "valid_userId"}</t>
   </si>
   <si>
-    <t>{"user_id": "valid_userId", "chat_id": "valid_chat_id", "message_ids": "{{TC11G01.last_message_id}}", "is_RL": false, "is_liked": 1}</t>
-  </si>
-  <si>
     <t>TC11C04</t>
   </si>
   <si>
@@ -3315,6 +3264,57 @@
   </si>
   <si>
     <t>util/images/sample.gif</t>
+  </si>
+  <si>
+    <t>{"department_tag": "valid_dept_tag", "provider_id": "valid_provider_id", "model_id": "valid_model_id"}</t>
+  </si>
+  <si>
+    <t>{"department_tag": "valid_dept_tag"}</t>
+  </si>
+  <si>
+    <t>{"user_input": "valid_user_input", "user_id": "valid_userId"}</t>
+  </si>
+  <si>
+    <t>{"model_id": "valid_model_id", "provider_id": "valid_provider_id", "chat_id": "valid_chat_id", "user_input": "valid_user_input", "user_id": "invalid_userId", "department_tag": "valid_dept_tag"}</t>
+  </si>
+  <si>
+    <t>/api/FinalQuery/stream/68xxx755x713x399dxx789x1</t>
+  </si>
+  <si>
+    <t>{ "database_service_provider_id": "db_provider_id", "id": "db_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": 0, "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "set_default" }</t>
+  </si>
+  <si>
+    <t>{ "database_service_provider_id": "db_provider_id", "id": "invalid_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": false, "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "delete" }</t>
+  </si>
+  <si>
+    <t>{ "database_service_provider_id": "db_provider_id", "id": "db_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": false, "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "delete" }</t>
+  </si>
+  <si>
+    <t>{ "database_service_provider_id": "db_provider_id", "id": "db_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": false, "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "get" }</t>
+  </si>
+  <si>
+    <t>{ "database_service_provider_id": "db_provider_id", "id": "invalid_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": false, "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "get" }</t>
+  </si>
+  <si>
+    <t>{ "database_service_provider_id": "db_provider_id", "id": "db_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": false, "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "test" }</t>
+  </si>
+  <si>
+    <t>{ "database_service_provider_id": "db_provider_id", "id": "db_id", "server": "db_server", "port": "9999", "database": "db_name", "is_encrypt": false, "username": "db_username", "password": "wrongpass", "query_timeout": 30, "schema": "db_schema", "intend": "test" }</t>
+  </si>
+  <si>
+    <t>{ "database_service_provider_id": "db_provider_id", "id": "db_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": false, "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "reset" }</t>
+  </si>
+  <si>
+    <t>{"user_id": "valid_userId", "chat_id": "valid_chat_id", "message_ids": "valid_message_id", "is_RL": false, "is_liked": 1}</t>
+  </si>
+  <si>
+    <t>{"model_id": "valid_model_id", "provider_id": "valid_provider_id", "chat_id": "valid_chat_id", "user_input": "valid_user_input", "user_id": "valid_userId", "department_tag": "valid_dept_tag"}</t>
+  </si>
+  <si>
+    <t>{"chat_id": "{{TC11A01.Notebook_id}}"}</t>
+  </si>
+  <si>
+    <t>Create LLM with invalid user ID</t>
   </si>
 </sst>
 </file>
@@ -3707,15 +3707,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB1F54A-02EF-463F-B588-F0453A90B53E}">
   <dimension ref="A1:O259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B102" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G180" sqref="G180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
     <col min="3" max="3" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="25.33203125" customWidth="1"/>
+    <col min="5" max="5" width="40.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.109375" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
     <col min="8" max="8" width="37.5546875" customWidth="1"/>
@@ -3788,7 +3788,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
       <c r="J2">
         <v>200</v>
@@ -3820,7 +3820,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>988</v>
+        <v>971</v>
       </c>
       <c r="J3">
         <v>401</v>
@@ -3829,7 +3829,7 @@
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M3" t="s">
         <v>25</v>
@@ -3872,13 +3872,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -3890,7 +3890,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>989</v>
+        <v>972</v>
       </c>
       <c r="J5">
         <v>415</v>
@@ -3902,7 +3902,7 @@
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3960,7 +3960,7 @@
         <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M7" t="s">
         <v>37</v>
@@ -3995,7 +3995,7 @@
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4006,7 +4006,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -4015,7 +4015,7 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="J9">
         <v>422</v>
@@ -4024,10 +4024,10 @@
         <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M9" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4038,28 +4038,28 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H10" t="s">
-        <v>874</v>
+        <v>865</v>
       </c>
       <c r="J10">
         <v>200</v>
       </c>
       <c r="K10" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="L10" t="s">
         <v>20</v>
       </c>
       <c r="M10" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4070,16 +4070,16 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H11" t="s">
-        <v>923</v>
+        <v>908</v>
       </c>
       <c r="J11">
         <v>400</v>
@@ -4091,7 +4091,7 @@
         <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4102,16 +4102,16 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H12" t="s">
-        <v>916</v>
+        <v>901</v>
       </c>
       <c r="J12">
         <v>409</v>
@@ -4123,7 +4123,7 @@
         <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4134,16 +4134,16 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H13" t="s">
-        <v>914</v>
+        <v>899</v>
       </c>
       <c r="J13">
         <v>422</v>
@@ -4155,7 +4155,7 @@
         <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4166,16 +4166,16 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
       </c>
       <c r="E14" t="s">
+        <v>534</v>
+      </c>
+      <c r="H14" t="s">
         <v>535</v>
-      </c>
-      <c r="H14" t="s">
-        <v>536</v>
       </c>
       <c r="J14" t="s">
         <v>142</v>
@@ -4187,27 +4187,27 @@
         <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H15" t="s">
-        <v>915</v>
+        <v>900</v>
       </c>
       <c r="J15">
         <v>500</v>
@@ -4216,30 +4216,30 @@
         <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M15" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="H16" t="s">
-        <v>913</v>
+        <v>898</v>
       </c>
       <c r="J16">
         <v>404</v>
@@ -4251,30 +4251,30 @@
         <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>875</v>
+        <v>866</v>
       </c>
       <c r="J17">
         <v>200</v>
@@ -4286,7 +4286,7 @@
         <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="N17" t="s">
         <v>41</v>
@@ -4294,25 +4294,25 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="J18">
         <v>422</v>
@@ -4324,30 +4324,30 @@
         <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
+        <v>546</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="H19" t="s">
         <v>547</v>
-      </c>
-      <c r="F19" t="s">
-        <v>18</v>
-      </c>
-      <c r="H19" t="s">
-        <v>548</v>
       </c>
       <c r="J19">
         <v>404</v>
@@ -4359,24 +4359,24 @@
         <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -4394,27 +4394,27 @@
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H21" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="J21">
         <v>200</v>
@@ -4426,27 +4426,27 @@
         <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H22" t="s">
-        <v>944</v>
+        <v>928</v>
       </c>
       <c r="J22">
         <v>400</v>
@@ -4458,27 +4458,27 @@
         <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H23" t="s">
-        <v>911</v>
+        <v>896</v>
       </c>
       <c r="J23">
         <v>400</v>
@@ -4490,27 +4490,27 @@
         <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="H24" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="J24">
         <v>422</v>
@@ -4522,27 +4522,27 @@
         <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H25" t="s">
-        <v>955</v>
+        <v>938</v>
       </c>
       <c r="J25">
         <v>200</v>
@@ -4554,30 +4554,30 @@
         <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="N25" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H26" t="s">
-        <v>956</v>
+        <v>939</v>
       </c>
       <c r="J26" t="s">
         <v>142</v>
@@ -4589,27 +4589,27 @@
         <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H27" t="s">
-        <v>954</v>
+        <v>937</v>
       </c>
       <c r="J27">
         <v>409</v>
@@ -4621,27 +4621,27 @@
         <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H28" t="s">
-        <v>957</v>
+        <v>940</v>
       </c>
       <c r="J28">
         <v>403</v>
@@ -4653,27 +4653,27 @@
         <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H29" t="s">
-        <v>943</v>
+        <v>927</v>
       </c>
       <c r="J29">
         <v>404</v>
@@ -4685,27 +4685,27 @@
         <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="H30" t="s">
-        <v>930</v>
+        <v>915</v>
       </c>
       <c r="J30">
         <v>415</v>
@@ -4717,12 +4717,12 @@
         <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -4737,7 +4737,7 @@
         <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>917</v>
+        <v>902</v>
       </c>
       <c r="J31">
         <v>200</v>
@@ -4751,13 +4751,13 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="D32" t="s">
         <v>44</v>
@@ -4766,7 +4766,7 @@
         <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>939</v>
+        <v>923</v>
       </c>
       <c r="J32">
         <v>404</v>
@@ -4778,18 +4778,18 @@
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="D33" t="s">
         <v>44</v>
@@ -4798,7 +4798,7 @@
         <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="J33">
         <v>404</v>
@@ -4815,7 +4815,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
@@ -4830,7 +4830,7 @@
         <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>918</v>
+        <v>903</v>
       </c>
       <c r="J34">
         <v>422</v>
@@ -4847,7 +4847,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -4862,7 +4862,7 @@
         <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>919</v>
+        <v>904</v>
       </c>
       <c r="J35">
         <v>422</v>
@@ -4874,12 +4874,12 @@
         <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -4894,7 +4894,7 @@
         <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>920</v>
+        <v>905</v>
       </c>
       <c r="J36">
         <v>422</v>
@@ -4911,7 +4911,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -4926,7 +4926,7 @@
         <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>958</v>
+        <v>941</v>
       </c>
       <c r="J37">
         <v>403</v>
@@ -4943,13 +4943,13 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="D38" t="s">
         <v>44</v>
@@ -4958,7 +4958,7 @@
         <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>959</v>
+        <v>942</v>
       </c>
       <c r="J38">
         <v>403</v>
@@ -4970,30 +4970,30 @@
         <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>921</v>
+        <v>906</v>
       </c>
       <c r="J39">
         <v>200</v>
@@ -5005,33 +5005,33 @@
         <v>20</v>
       </c>
       <c r="M39" t="s">
+        <v>581</v>
+      </c>
+      <c r="N39" t="s">
         <v>582</v>
-      </c>
-      <c r="N39" t="s">
-        <v>583</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>912</v>
+        <v>897</v>
       </c>
       <c r="J40">
         <v>422</v>
@@ -5043,30 +5043,30 @@
         <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="J41">
         <v>404</v>
@@ -5078,24 +5078,24 @@
         <v>20</v>
       </c>
       <c r="M41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -5113,30 +5113,30 @@
         <v>20</v>
       </c>
       <c r="M42" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="J43">
         <v>400</v>
@@ -5148,30 +5148,30 @@
         <v>20</v>
       </c>
       <c r="M43" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D44" t="s">
         <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>922</v>
+        <v>907</v>
       </c>
       <c r="J44">
         <v>200</v>
@@ -5183,30 +5183,30 @@
         <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>960</v>
+        <v>943</v>
       </c>
       <c r="J45">
         <v>400</v>
@@ -5218,30 +5218,30 @@
         <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>961</v>
+        <v>944</v>
       </c>
       <c r="J46">
         <v>422</v>
@@ -5253,30 +5253,30 @@
         <v>20</v>
       </c>
       <c r="M46" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D47" t="s">
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>962</v>
+        <v>945</v>
       </c>
       <c r="J47">
         <v>400</v>
@@ -5288,30 +5288,30 @@
         <v>20</v>
       </c>
       <c r="M47" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>963</v>
+        <v>946</v>
       </c>
       <c r="J48">
         <v>404</v>
@@ -5323,24 +5323,24 @@
         <v>20</v>
       </c>
       <c r="M48" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
@@ -5355,33 +5355,33 @@
         <v>20</v>
       </c>
       <c r="M49" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="N49" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="J50">
         <v>400</v>
@@ -5393,27 +5393,27 @@
         <v>20</v>
       </c>
       <c r="M50" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="N50" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -5428,30 +5428,30 @@
         <v>51</v>
       </c>
       <c r="L51" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M51" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="N51" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -5463,33 +5463,33 @@
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M52" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="N52" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B53" t="s">
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="F53" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -5504,91 +5504,91 @@
         <v>20</v>
       </c>
       <c r="M53" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="N53" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B54" t="s">
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="D54" t="s">
         <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G54" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="J54">
         <v>200</v>
       </c>
       <c r="K54" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L54" t="s">
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B55" t="s">
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D55" t="s">
         <v>79</v>
       </c>
       <c r="E55" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G55" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J55">
         <v>400</v>
       </c>
       <c r="K55" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L55" t="s">
         <v>20</v>
       </c>
       <c r="M55" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B56" t="s">
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="D56" t="s">
         <v>79</v>
       </c>
       <c r="E56" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G56" t="s">
         <v>29</v>
@@ -5603,88 +5603,88 @@
         <v>20</v>
       </c>
       <c r="M56" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B57" t="s">
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="D57" t="s">
         <v>79</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G57" t="s">
-        <v>909</v>
+        <v>894</v>
       </c>
       <c r="J57">
         <v>200</v>
       </c>
       <c r="K57" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="L57" t="s">
         <v>20</v>
       </c>
       <c r="M57" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="B58" t="s">
         <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="D58" t="s">
         <v>79</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G58" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="J58">
         <v>400</v>
       </c>
       <c r="K58" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="L58" t="s">
         <v>20</v>
       </c>
       <c r="M58" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="B59" t="s">
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="D59" t="s">
         <v>79</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -5699,7 +5699,7 @@
         <v>20</v>
       </c>
       <c r="M59" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5722,7 +5722,7 @@
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="J60">
         <v>200</v>
@@ -5754,10 +5754,10 @@
         <v>61</v>
       </c>
       <c r="F61" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="H61" t="s">
-        <v>865</v>
+        <v>858</v>
       </c>
       <c r="J61">
         <v>403</v>
@@ -5789,7 +5789,7 @@
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>907</v>
+        <v>893</v>
       </c>
       <c r="J62">
         <v>401</v>
@@ -5821,7 +5821,7 @@
         <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="J63">
         <v>422</v>
@@ -5853,7 +5853,7 @@
         <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>906</v>
+        <v>892</v>
       </c>
       <c r="J64">
         <v>400</v>
@@ -5885,7 +5885,7 @@
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="J65">
         <v>200</v>
@@ -5914,7 +5914,7 @@
         <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>936</v>
+        <v>920</v>
       </c>
       <c r="J66">
         <v>403</v>
@@ -5946,13 +5946,13 @@
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>877</v>
+        <v>868</v>
       </c>
       <c r="J67">
         <v>422</v>
       </c>
       <c r="L67" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M67" t="s">
         <v>90</v>
@@ -5978,7 +5978,7 @@
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>987</v>
+        <v>970</v>
       </c>
       <c r="J68">
         <v>422</v>
@@ -6010,7 +6010,7 @@
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>937</v>
+        <v>921</v>
       </c>
       <c r="J69">
         <v>200</v>
@@ -6024,13 +6024,13 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="B70" t="s">
         <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="D70" t="s">
         <v>79</v>
@@ -6042,7 +6042,7 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>938</v>
+        <v>922</v>
       </c>
       <c r="J70">
         <v>200</v>
@@ -6051,7 +6051,7 @@
         <v>20</v>
       </c>
       <c r="M70" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -6074,7 +6074,7 @@
         <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>945</v>
+        <v>929</v>
       </c>
       <c r="J71">
         <v>200</v>
@@ -6106,7 +6106,7 @@
         <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>979</v>
+        <v>962</v>
       </c>
       <c r="J72">
         <v>422</v>
@@ -6135,7 +6135,7 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>978</v>
+        <v>961</v>
       </c>
       <c r="J73">
         <v>404</v>
@@ -6161,7 +6161,7 @@
         <v>94</v>
       </c>
       <c r="H74" t="s">
-        <v>986</v>
+        <v>969</v>
       </c>
       <c r="J74">
         <v>403</v>
@@ -6184,13 +6184,13 @@
         <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="F75" t="s">
         <v>18</v>
       </c>
       <c r="H75" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="J75">
         <v>200</v>
@@ -6219,7 +6219,7 @@
         <v>33</v>
       </c>
       <c r="E76" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
@@ -6251,7 +6251,7 @@
         <v>33</v>
       </c>
       <c r="E77" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="H77" t="s">
         <v>108</v>
@@ -6268,25 +6268,25 @@
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="D78" t="s">
         <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
       </c>
       <c r="H78" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="J78">
         <v>422</v>
@@ -6315,7 +6315,7 @@
         <v>18</v>
       </c>
       <c r="G79" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="H79" t="s">
         <v>122</v>
@@ -6350,7 +6350,7 @@
         <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>928</v>
+        <v>913</v>
       </c>
       <c r="H80" t="s">
         <v>122</v>
@@ -6385,7 +6385,7 @@
         <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="H81" t="s">
         <v>123</v>
@@ -6420,16 +6420,16 @@
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="H82" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="J82">
         <v>200</v>
       </c>
       <c r="L82" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M82" t="s">
         <v>124</v>
@@ -6437,7 +6437,7 @@
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="B83" t="s">
         <v>152</v>
@@ -6452,7 +6452,7 @@
         <v>114</v>
       </c>
       <c r="G83" t="s">
-        <v>927</v>
+        <v>912</v>
       </c>
       <c r="H83" t="s">
         <v>122</v>
@@ -6464,7 +6464,7 @@
         <v>20</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="84" spans="1:13">
@@ -6481,13 +6481,13 @@
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F84" t="s">
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="J84">
         <v>200</v>
@@ -6513,13 +6513,13 @@
         <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F85" t="s">
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>982</v>
+        <v>965</v>
       </c>
       <c r="J85">
         <v>422</v>
@@ -6545,7 +6545,7 @@
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
@@ -6565,22 +6565,22 @@
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="B87" t="s">
         <v>152</v>
       </c>
       <c r="C87" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="H87" t="s">
-        <v>981</v>
+        <v>964</v>
       </c>
       <c r="J87">
         <v>401</v>
@@ -6589,7 +6589,7 @@
         <v>20</v>
       </c>
       <c r="M87" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="88" spans="1:13">
@@ -6612,7 +6612,7 @@
         <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>980</v>
+        <v>963</v>
       </c>
       <c r="J88">
         <v>200</v>
@@ -6650,7 +6650,7 @@
         <v>141</v>
       </c>
       <c r="L89" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M89" t="s">
         <v>150</v>
@@ -6734,7 +6734,7 @@
         <v>155</v>
       </c>
       <c r="F92" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J92">
         <v>401</v>
@@ -6748,13 +6748,13 @@
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B93" t="s">
         <v>154</v>
       </c>
       <c r="C93" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="D93" t="s">
         <v>44</v>
@@ -6763,7 +6763,7 @@
         <v>155</v>
       </c>
       <c r="F93" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="J93">
         <v>403</v>
@@ -6772,7 +6772,7 @@
         <v>20</v>
       </c>
       <c r="M93" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="94" spans="1:13">
@@ -6838,7 +6838,7 @@
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B96" t="s">
         <v>113</v>
@@ -6862,10 +6862,10 @@
         <v>51</v>
       </c>
       <c r="L96" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M96" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="97" spans="1:13">
@@ -6888,7 +6888,7 @@
         <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>823</v>
+        <v>973</v>
       </c>
       <c r="J97">
         <v>200</v>
@@ -6920,7 +6920,7 @@
         <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>822</v>
+        <v>974</v>
       </c>
       <c r="J98">
         <v>422</v>
@@ -6934,197 +6934,197 @@
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="B99" t="s">
         <v>170</v>
       </c>
       <c r="C99" t="s">
-        <v>639</v>
+        <v>822</v>
       </c>
       <c r="D99" t="s">
         <v>44</v>
       </c>
       <c r="E99" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>903</v>
+        <v>987</v>
       </c>
       <c r="J99">
-        <v>200</v>
+        <v>202</v>
+      </c>
+      <c r="K99" t="s">
+        <v>19</v>
       </c>
       <c r="L99" t="s">
         <v>20</v>
       </c>
       <c r="M99" t="s">
-        <v>195</v>
+        <v>823</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="B100" t="s">
         <v>170</v>
       </c>
       <c r="C100" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D100" t="s">
         <v>44</v>
       </c>
       <c r="E100" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>866</v>
+        <v>975</v>
       </c>
       <c r="J100">
         <v>422</v>
       </c>
       <c r="L100" t="s">
-        <v>20</v>
+        <v>691</v>
       </c>
       <c r="M100" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="B101" t="s">
         <v>170</v>
       </c>
       <c r="C101" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D101" t="s">
         <v>44</v>
       </c>
       <c r="E101" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>902</v>
-      </c>
-      <c r="J101" t="s">
-        <v>180</v>
+        <v>976</v>
+      </c>
+      <c r="J101">
+        <v>422</v>
       </c>
       <c r="L101" t="s">
-        <v>692</v>
+        <v>20</v>
       </c>
       <c r="M101" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="B102" t="s">
         <v>170</v>
       </c>
       <c r="C102" t="s">
-        <v>825</v>
+        <v>638</v>
       </c>
       <c r="D102" t="s">
         <v>44</v>
       </c>
       <c r="E102" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
       </c>
       <c r="H102" t="s">
-        <v>867</v>
+        <v>889</v>
       </c>
       <c r="J102">
-        <v>202</v>
-      </c>
-      <c r="K102" t="s">
-        <v>19</v>
+        <v>200</v>
       </c>
       <c r="L102" t="s">
         <v>20</v>
       </c>
       <c r="M102" t="s">
-        <v>826</v>
+        <v>195</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B103" t="s">
         <v>170</v>
       </c>
       <c r="C103" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="D103" t="s">
         <v>44</v>
       </c>
       <c r="E103" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F103" t="s">
         <v>18</v>
       </c>
       <c r="H103" t="s">
-        <v>868</v>
+        <v>859</v>
       </c>
       <c r="J103">
         <v>422</v>
       </c>
       <c r="L103" t="s">
-        <v>692</v>
+        <v>20</v>
       </c>
       <c r="M103" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B104" t="s">
         <v>170</v>
       </c>
       <c r="C104" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="D104" t="s">
         <v>44</v>
       </c>
       <c r="E104" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>908</v>
-      </c>
-      <c r="J104">
-        <v>422</v>
+        <v>888</v>
+      </c>
+      <c r="J104" t="s">
+        <v>180</v>
       </c>
       <c r="L104" t="s">
-        <v>20</v>
+        <v>691</v>
       </c>
       <c r="M104" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="105" spans="1:13">
@@ -7135,13 +7135,13 @@
         <v>170</v>
       </c>
       <c r="C105" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D105" t="s">
         <v>79</v>
       </c>
       <c r="E105" t="s">
-        <v>869</v>
+        <v>860</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
@@ -7164,13 +7164,13 @@
         <v>170</v>
       </c>
       <c r="C106" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D106" t="s">
         <v>79</v>
       </c>
       <c r="E106" t="s">
-        <v>827</v>
+        <v>977</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
@@ -7193,7 +7193,7 @@
         <v>197</v>
       </c>
       <c r="C107" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="D107" t="s">
         <v>44</v>
@@ -7205,7 +7205,7 @@
         <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="J107">
         <v>200</v>
@@ -7225,7 +7225,7 @@
         <v>197</v>
       </c>
       <c r="C108" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="D108" t="s">
         <v>44</v>
@@ -7237,7 +7237,7 @@
         <v>18</v>
       </c>
       <c r="H108" t="s">
-        <v>932</v>
+        <v>917</v>
       </c>
       <c r="J108">
         <v>422</v>
@@ -7257,7 +7257,7 @@
         <v>197</v>
       </c>
       <c r="C109" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="D109" t="s">
         <v>44</v>
@@ -7269,7 +7269,7 @@
         <v>18</v>
       </c>
       <c r="H109" t="s">
-        <v>891</v>
+        <v>878</v>
       </c>
       <c r="J109">
         <v>422</v>
@@ -7289,7 +7289,7 @@
         <v>197</v>
       </c>
       <c r="C110" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D110" t="s">
         <v>44</v>
@@ -7298,13 +7298,13 @@
         <v>198</v>
       </c>
       <c r="H110" t="s">
-        <v>931</v>
+        <v>916</v>
       </c>
       <c r="J110">
         <v>401</v>
       </c>
       <c r="L110" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M110" t="s">
         <v>202</v>
@@ -7312,13 +7312,13 @@
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B111" t="s">
         <v>197</v>
       </c>
       <c r="C111" t="s">
-        <v>857</v>
+        <v>850</v>
       </c>
       <c r="D111" t="s">
         <v>44</v>
@@ -7330,27 +7330,27 @@
         <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>887</v>
+        <v>981</v>
       </c>
       <c r="J111">
-        <v>200</v>
+        <v>422</v>
       </c>
       <c r="L111" t="s">
         <v>20</v>
       </c>
       <c r="M111" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B112" t="s">
         <v>197</v>
       </c>
       <c r="C112" t="s">
-        <v>858</v>
+        <v>851</v>
       </c>
       <c r="D112" t="s">
         <v>44</v>
@@ -7362,7 +7362,7 @@
         <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>855</v>
+        <v>982</v>
       </c>
       <c r="J112">
         <v>404</v>
@@ -7371,18 +7371,18 @@
         <v>20</v>
       </c>
       <c r="M112" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B113" t="s">
         <v>197</v>
       </c>
       <c r="C113" t="s">
-        <v>859</v>
+        <v>852</v>
       </c>
       <c r="D113" t="s">
         <v>44</v>
@@ -7394,7 +7394,7 @@
         <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>933</v>
+        <v>983</v>
       </c>
       <c r="J113">
         <v>200</v>
@@ -7403,18 +7403,18 @@
         <v>20</v>
       </c>
       <c r="M113" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
       <c r="B114" t="s">
         <v>197</v>
       </c>
       <c r="C114" t="s">
-        <v>860</v>
+        <v>853</v>
       </c>
       <c r="D114" t="s">
         <v>44</v>
@@ -7426,27 +7426,27 @@
         <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>892</v>
+        <v>984</v>
       </c>
       <c r="J114">
         <v>500</v>
       </c>
       <c r="L114" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M114" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
       <c r="B115" t="s">
         <v>197</v>
       </c>
       <c r="C115" t="s">
-        <v>861</v>
+        <v>854</v>
       </c>
       <c r="D115" t="s">
         <v>44</v>
@@ -7458,7 +7458,7 @@
         <v>18</v>
       </c>
       <c r="H115" t="s">
-        <v>888</v>
+        <v>985</v>
       </c>
       <c r="J115">
         <v>200</v>
@@ -7467,18 +7467,18 @@
         <v>20</v>
       </c>
       <c r="M115" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
       <c r="B116" t="s">
         <v>197</v>
       </c>
       <c r="C116" t="s">
-        <v>864</v>
+        <v>857</v>
       </c>
       <c r="D116" t="s">
         <v>44</v>
@@ -7490,7 +7490,7 @@
         <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>889</v>
+        <v>978</v>
       </c>
       <c r="J116">
         <v>200</v>
@@ -7499,18 +7499,18 @@
         <v>20</v>
       </c>
       <c r="M116" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
       <c r="B117" t="s">
         <v>197</v>
       </c>
       <c r="C117" t="s">
-        <v>863</v>
+        <v>856</v>
       </c>
       <c r="D117" t="s">
         <v>44</v>
@@ -7522,7 +7522,7 @@
         <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>890</v>
+        <v>980</v>
       </c>
       <c r="J117">
         <v>200</v>
@@ -7531,18 +7531,18 @@
         <v>20</v>
       </c>
       <c r="M117" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
       <c r="B118" t="s">
         <v>197</v>
       </c>
       <c r="C118" t="s">
-        <v>862</v>
+        <v>855</v>
       </c>
       <c r="D118" t="s">
         <v>44</v>
@@ -7554,7 +7554,7 @@
         <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>856</v>
+        <v>979</v>
       </c>
       <c r="J118">
         <v>404</v>
@@ -7563,7 +7563,7 @@
         <v>20</v>
       </c>
       <c r="M118" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="119" spans="1:13">
@@ -7574,7 +7574,7 @@
         <v>197</v>
       </c>
       <c r="C119" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D119" t="s">
         <v>44</v>
@@ -7586,13 +7586,13 @@
         <v>18</v>
       </c>
       <c r="H119" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="J119">
         <v>200</v>
       </c>
       <c r="L119" t="s">
-        <v>20</v>
+        <v>691</v>
       </c>
       <c r="M119" t="s">
         <v>195</v>
@@ -7606,7 +7606,7 @@
         <v>197</v>
       </c>
       <c r="C120" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="D120" t="s">
         <v>44</v>
@@ -7618,13 +7618,13 @@
         <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="J120">
         <v>422</v>
       </c>
       <c r="L120" t="s">
-        <v>20</v>
+        <v>691</v>
       </c>
       <c r="M120" t="s">
         <v>194</v>
@@ -7638,7 +7638,7 @@
         <v>197</v>
       </c>
       <c r="C121" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="D121" t="s">
         <v>44</v>
@@ -7650,13 +7650,13 @@
         <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="J121" t="s">
         <v>180</v>
       </c>
       <c r="L121" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M121" t="s">
         <v>193</v>
@@ -7670,7 +7670,7 @@
         <v>209</v>
       </c>
       <c r="C122" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="D122" t="s">
         <v>79</v>
@@ -7699,7 +7699,7 @@
         <v>209</v>
       </c>
       <c r="C123" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="D123" t="s">
         <v>79</v>
@@ -7728,7 +7728,7 @@
         <v>212</v>
       </c>
       <c r="C124" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D124" t="s">
         <v>44</v>
@@ -7740,7 +7740,7 @@
         <v>18</v>
       </c>
       <c r="H124" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="J124">
         <v>200</v>
@@ -7760,7 +7760,7 @@
         <v>212</v>
       </c>
       <c r="C125" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D125" t="s">
         <v>44</v>
@@ -7769,7 +7769,7 @@
         <v>214</v>
       </c>
       <c r="H125" t="s">
-        <v>885</v>
+        <v>876</v>
       </c>
       <c r="J125">
         <v>401</v>
@@ -7789,7 +7789,7 @@
         <v>212</v>
       </c>
       <c r="C126" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D126" t="s">
         <v>44</v>
@@ -7801,7 +7801,7 @@
         <v>18</v>
       </c>
       <c r="H126" t="s">
-        <v>886</v>
+        <v>877</v>
       </c>
       <c r="J126">
         <v>422</v>
@@ -7821,7 +7821,7 @@
         <v>212</v>
       </c>
       <c r="C127" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D127" t="s">
         <v>44</v>
@@ -7853,7 +7853,7 @@
         <v>212</v>
       </c>
       <c r="C128" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D128" t="s">
         <v>44</v>
@@ -7885,7 +7885,7 @@
         <v>212</v>
       </c>
       <c r="C129" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D129" t="s">
         <v>44</v>
@@ -7917,7 +7917,7 @@
         <v>212</v>
       </c>
       <c r="C130" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D130" t="s">
         <v>44</v>
@@ -7946,7 +7946,7 @@
         <v>212</v>
       </c>
       <c r="C131" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D131" t="s">
         <v>44</v>
@@ -7978,7 +7978,7 @@
         <v>212</v>
       </c>
       <c r="C132" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D132" t="s">
         <v>44</v>
@@ -8007,7 +8007,7 @@
         <v>212</v>
       </c>
       <c r="C133" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D133" t="s">
         <v>44</v>
@@ -8039,7 +8039,7 @@
         <v>212</v>
       </c>
       <c r="C134" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D134" t="s">
         <v>44</v>
@@ -8051,7 +8051,7 @@
         <v>18</v>
       </c>
       <c r="H134" t="s">
-        <v>924</v>
+        <v>909</v>
       </c>
       <c r="J134">
         <v>200</v>
@@ -8071,7 +8071,7 @@
         <v>212</v>
       </c>
       <c r="C135" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D135" t="s">
         <v>44</v>
@@ -8083,7 +8083,7 @@
         <v>18</v>
       </c>
       <c r="H135" t="s">
-        <v>884</v>
+        <v>875</v>
       </c>
       <c r="J135" t="s">
         <v>142</v>
@@ -8103,7 +8103,7 @@
         <v>212</v>
       </c>
       <c r="C136" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D136" t="s">
         <v>44</v>
@@ -8115,7 +8115,7 @@
         <v>18</v>
       </c>
       <c r="H136" t="s">
-        <v>925</v>
+        <v>910</v>
       </c>
       <c r="J136" t="s">
         <v>142</v>
@@ -8135,7 +8135,7 @@
         <v>212</v>
       </c>
       <c r="C137" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D137" t="s">
         <v>44</v>
@@ -8144,7 +8144,7 @@
         <v>219</v>
       </c>
       <c r="H137" t="s">
-        <v>926</v>
+        <v>911</v>
       </c>
       <c r="J137">
         <v>401</v>
@@ -8164,7 +8164,7 @@
         <v>212</v>
       </c>
       <c r="C138" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D138" t="s">
         <v>44</v>
@@ -8176,7 +8176,7 @@
         <v>18</v>
       </c>
       <c r="H138" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="J138">
         <v>200</v>
@@ -8196,7 +8196,7 @@
         <v>212</v>
       </c>
       <c r="C139" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D139" t="s">
         <v>44</v>
@@ -8208,7 +8208,7 @@
         <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>935</v>
+        <v>919</v>
       </c>
       <c r="J139">
         <v>422</v>
@@ -8228,7 +8228,7 @@
         <v>212</v>
       </c>
       <c r="C140" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D140" t="s">
         <v>44</v>
@@ -8240,7 +8240,7 @@
         <v>18</v>
       </c>
       <c r="H140" t="s">
-        <v>893</v>
+        <v>879</v>
       </c>
       <c r="J140">
         <v>422</v>
@@ -8260,7 +8260,7 @@
         <v>212</v>
       </c>
       <c r="C141" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D141" t="s">
         <v>44</v>
@@ -8269,7 +8269,7 @@
         <v>198</v>
       </c>
       <c r="H141" t="s">
-        <v>934</v>
+        <v>918</v>
       </c>
       <c r="J141">
         <v>401</v>
@@ -8289,7 +8289,7 @@
         <v>256</v>
       </c>
       <c r="C142" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D142" t="s">
         <v>44</v>
@@ -8301,7 +8301,7 @@
         <v>18</v>
       </c>
       <c r="H142" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="J142">
         <v>200</v>
@@ -8321,7 +8321,7 @@
         <v>256</v>
       </c>
       <c r="C143" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D143" t="s">
         <v>44</v>
@@ -8353,7 +8353,7 @@
         <v>256</v>
       </c>
       <c r="C144" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D144" t="s">
         <v>44</v>
@@ -8385,7 +8385,7 @@
         <v>256</v>
       </c>
       <c r="C145" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="D145" t="s">
         <v>44</v>
@@ -8397,7 +8397,7 @@
         <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>903</v>
+        <v>889</v>
       </c>
       <c r="J145">
         <v>200</v>
@@ -8417,7 +8417,7 @@
         <v>256</v>
       </c>
       <c r="C146" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="D146" t="s">
         <v>44</v>
@@ -8429,7 +8429,7 @@
         <v>18</v>
       </c>
       <c r="H146" t="s">
-        <v>904</v>
+        <v>890</v>
       </c>
       <c r="J146">
         <v>422</v>
@@ -8449,7 +8449,7 @@
         <v>256</v>
       </c>
       <c r="C147" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D147" t="s">
         <v>44</v>
@@ -8461,7 +8461,7 @@
         <v>18</v>
       </c>
       <c r="H147" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="J147">
         <v>200</v>
@@ -8481,7 +8481,7 @@
         <v>256</v>
       </c>
       <c r="C148" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D148" t="s">
         <v>44</v>
@@ -8513,7 +8513,7 @@
         <v>256</v>
       </c>
       <c r="C149" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D149" t="s">
         <v>44</v>
@@ -8525,7 +8525,7 @@
         <v>18</v>
       </c>
       <c r="H149" t="s">
-        <v>866</v>
+        <v>859</v>
       </c>
       <c r="J149">
         <v>422</v>
@@ -8545,7 +8545,7 @@
         <v>256</v>
       </c>
       <c r="C150" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D150" t="s">
         <v>44</v>
@@ -8557,7 +8557,7 @@
         <v>18</v>
       </c>
       <c r="H150" t="s">
-        <v>871</v>
+        <v>862</v>
       </c>
       <c r="J150">
         <v>422</v>
@@ -8577,7 +8577,7 @@
         <v>256</v>
       </c>
       <c r="C151" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D151" t="s">
         <v>44</v>
@@ -8586,7 +8586,7 @@
         <v>258</v>
       </c>
       <c r="H151" t="s">
-        <v>870</v>
+        <v>861</v>
       </c>
       <c r="J151" t="s">
         <v>68</v>
@@ -8606,7 +8606,7 @@
         <v>256</v>
       </c>
       <c r="C152" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D152" t="s">
         <v>16</v>
@@ -8618,7 +8618,7 @@
         <v>18</v>
       </c>
       <c r="H152" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
       <c r="J152">
         <v>200</v>
@@ -8628,9 +8628,6 @@
       </c>
       <c r="M152" t="s">
         <v>281</v>
-      </c>
-      <c r="N152" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="153" spans="1:14">
@@ -8641,7 +8638,7 @@
         <v>256</v>
       </c>
       <c r="C153" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D153" t="s">
         <v>16</v>
@@ -8653,7 +8650,7 @@
         <v>18</v>
       </c>
       <c r="H153" t="s">
-        <v>900</v>
+        <v>886</v>
       </c>
       <c r="J153" t="s">
         <v>180</v>
@@ -8673,7 +8670,7 @@
         <v>256</v>
       </c>
       <c r="C154" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D154" t="s">
         <v>16</v>
@@ -8705,7 +8702,7 @@
         <v>256</v>
       </c>
       <c r="C155" t="s">
-        <v>836</v>
+        <v>832</v>
       </c>
       <c r="D155" t="s">
         <v>16</v>
@@ -8717,7 +8714,7 @@
         <v>18</v>
       </c>
       <c r="H155" t="s">
-        <v>946</v>
+        <v>986</v>
       </c>
       <c r="J155">
         <v>200</v>
@@ -8727,9 +8724,6 @@
       </c>
       <c r="M155" t="s">
         <v>317</v>
-      </c>
-      <c r="N155" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="156" spans="1:14">
@@ -8740,7 +8734,7 @@
         <v>256</v>
       </c>
       <c r="C156" t="s">
-        <v>837</v>
+        <v>833</v>
       </c>
       <c r="D156" t="s">
         <v>16</v>
@@ -8752,7 +8746,7 @@
         <v>18</v>
       </c>
       <c r="H156" t="s">
-        <v>901</v>
+        <v>887</v>
       </c>
       <c r="J156" t="s">
         <v>180</v>
@@ -8772,7 +8766,7 @@
         <v>256</v>
       </c>
       <c r="C157" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="D157" t="s">
         <v>16</v>
@@ -8784,7 +8778,7 @@
         <v>18</v>
       </c>
       <c r="H157" t="s">
-        <v>873</v>
+        <v>864</v>
       </c>
       <c r="J157">
         <v>200</v>
@@ -8807,7 +8801,7 @@
         <v>256</v>
       </c>
       <c r="C158" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="D158" t="s">
         <v>16</v>
@@ -8819,7 +8813,7 @@
         <v>18</v>
       </c>
       <c r="H158" t="s">
-        <v>872</v>
+        <v>863</v>
       </c>
       <c r="J158">
         <v>422</v>
@@ -8839,7 +8833,7 @@
         <v>256</v>
       </c>
       <c r="C159" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="D159" t="s">
         <v>16</v>
@@ -8851,13 +8845,13 @@
         <v>18</v>
       </c>
       <c r="H159" t="s">
-        <v>929</v>
+        <v>914</v>
       </c>
       <c r="J159" t="s">
         <v>180</v>
       </c>
       <c r="L159" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M159" t="s">
         <v>313</v>
@@ -8871,7 +8865,7 @@
         <v>256</v>
       </c>
       <c r="C160" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="D160" t="s">
         <v>16</v>
@@ -8883,7 +8877,7 @@
         <v>18</v>
       </c>
       <c r="H160" t="s">
-        <v>872</v>
+        <v>889</v>
       </c>
       <c r="J160">
         <v>200</v>
@@ -8893,9 +8887,6 @@
       </c>
       <c r="M160" t="s">
         <v>312</v>
-      </c>
-      <c r="N160" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="161" spans="1:14">
@@ -8906,7 +8897,7 @@
         <v>256</v>
       </c>
       <c r="C161" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="D161" t="s">
         <v>16</v>
@@ -8918,7 +8909,7 @@
         <v>18</v>
       </c>
       <c r="H161" t="s">
-        <v>902</v>
+        <v>888</v>
       </c>
       <c r="J161" t="s">
         <v>180</v>
@@ -8938,7 +8929,7 @@
         <v>256</v>
       </c>
       <c r="C162" t="s">
-        <v>829</v>
+        <v>825</v>
       </c>
       <c r="D162" t="s">
         <v>16</v>
@@ -8950,27 +8941,27 @@
         <v>18</v>
       </c>
       <c r="H162" t="s">
-        <v>902</v>
-      </c>
-      <c r="J162">
-        <v>404</v>
+        <v>888</v>
+      </c>
+      <c r="J162" t="s">
+        <v>180</v>
       </c>
       <c r="L162" t="s">
         <v>20</v>
       </c>
       <c r="M162" t="s">
-        <v>831</v>
+        <v>827</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>828</v>
+        <v>824</v>
       </c>
       <c r="B163" t="s">
         <v>256</v>
       </c>
       <c r="C163" t="s">
-        <v>830</v>
+        <v>826</v>
       </c>
       <c r="D163" t="s">
         <v>16</v>
@@ -8982,7 +8973,7 @@
         <v>18</v>
       </c>
       <c r="H163" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="J163">
         <v>422</v>
@@ -8991,18 +8982,18 @@
         <v>20</v>
       </c>
       <c r="M163" t="s">
-        <v>832</v>
+        <v>828</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>947</v>
+        <v>930</v>
       </c>
       <c r="B164" t="s">
         <v>256</v>
       </c>
       <c r="C164" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="D164" t="s">
         <v>16</v>
@@ -9014,7 +9005,7 @@
         <v>18</v>
       </c>
       <c r="H164" t="s">
-        <v>905</v>
+        <v>891</v>
       </c>
       <c r="J164">
         <v>422</v>
@@ -9023,7 +9014,7 @@
         <v>20</v>
       </c>
       <c r="M164" t="s">
-        <v>833</v>
+        <v>829</v>
       </c>
     </row>
     <row r="165" spans="1:14">
@@ -9034,7 +9025,7 @@
         <v>256</v>
       </c>
       <c r="C165" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="D165" t="s">
         <v>33</v>
@@ -9046,7 +9037,7 @@
         <v>18</v>
       </c>
       <c r="G165" t="s">
-        <v>838</v>
+        <v>988</v>
       </c>
       <c r="J165">
         <v>200</v>
@@ -9058,7 +9049,7 @@
         <v>308</v>
       </c>
       <c r="N165" t="s">
-        <v>299</v>
+        <v>255</v>
       </c>
     </row>
     <row r="166" spans="1:14">
@@ -9069,7 +9060,7 @@
         <v>256</v>
       </c>
       <c r="C166" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="D166" t="s">
         <v>33</v>
@@ -9098,7 +9089,7 @@
         <v>256</v>
       </c>
       <c r="C167" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="D167" t="s">
         <v>33</v>
@@ -9130,7 +9121,7 @@
         <v>256</v>
       </c>
       <c r="C168" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="D168" t="s">
         <v>33</v>
@@ -9171,7 +9162,7 @@
         <v>18</v>
       </c>
       <c r="H169" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="J169">
         <v>200</v>
@@ -9180,7 +9171,7 @@
         <v>20</v>
       </c>
       <c r="M169" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="170" spans="1:14">
@@ -9203,7 +9194,7 @@
         <v>18</v>
       </c>
       <c r="H170" t="s">
-        <v>977</v>
+        <v>960</v>
       </c>
       <c r="J170">
         <v>422</v>
@@ -9220,7 +9211,7 @@
         <v>319</v>
       </c>
       <c r="C171" t="s">
-        <v>355</v>
+        <v>989</v>
       </c>
       <c r="D171" t="s">
         <v>44</v>
@@ -9232,7 +9223,7 @@
         <v>18</v>
       </c>
       <c r="H171" t="s">
-        <v>975</v>
+        <v>958</v>
       </c>
       <c r="J171">
         <v>400</v>
@@ -9249,7 +9240,7 @@
         <v>319</v>
       </c>
       <c r="C172" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D172" t="s">
         <v>44</v>
@@ -9261,7 +9252,7 @@
         <v>18</v>
       </c>
       <c r="H172" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="J172">
         <v>400</v>
@@ -9272,7 +9263,7 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B173" t="s">
         <v>319</v>
@@ -9287,7 +9278,7 @@
         <v>320</v>
       </c>
       <c r="H173" t="s">
-        <v>976</v>
+        <v>959</v>
       </c>
       <c r="J173">
         <v>403</v>
@@ -9296,7 +9287,7 @@
         <v>20</v>
       </c>
       <c r="M173" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="174" spans="1:14">
@@ -9307,13 +9298,13 @@
         <v>319</v>
       </c>
       <c r="C174" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D174" t="s">
         <v>79</v>
       </c>
       <c r="E174" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="F174" t="s">
         <v>18</v>
@@ -9325,7 +9316,7 @@
         <v>20</v>
       </c>
       <c r="M174" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="N174" t="s">
         <v>318</v>
@@ -9339,7 +9330,7 @@
         <v>319</v>
       </c>
       <c r="C175" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D175" t="s">
         <v>79</v>
@@ -9351,7 +9342,7 @@
         <v>18</v>
       </c>
       <c r="G175" t="s">
-        <v>898</v>
+        <v>884</v>
       </c>
       <c r="J175" t="s">
         <v>141</v>
@@ -9368,13 +9359,13 @@
         <v>319</v>
       </c>
       <c r="C176" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D176" t="s">
         <v>79</v>
       </c>
       <c r="E176" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="J176" t="s">
         <v>68</v>
@@ -9394,7 +9385,7 @@
         <v>319</v>
       </c>
       <c r="C177" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D177" t="s">
         <v>79</v>
@@ -9406,7 +9397,7 @@
         <v>18</v>
       </c>
       <c r="G177" t="s">
-        <v>974</v>
+        <v>957</v>
       </c>
       <c r="J177">
         <v>200</v>
@@ -9415,7 +9406,7 @@
         <v>20</v>
       </c>
       <c r="M177" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="N177" t="s">
         <v>318</v>
@@ -9429,7 +9420,7 @@
         <v>319</v>
       </c>
       <c r="C178" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D178" t="s">
         <v>79</v>
@@ -9438,7 +9429,7 @@
         <v>322</v>
       </c>
       <c r="G178" t="s">
-        <v>894</v>
+        <v>880</v>
       </c>
       <c r="J178">
         <v>403</v>
@@ -9455,7 +9446,7 @@
         <v>319</v>
       </c>
       <c r="C179" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D179" t="s">
         <v>79</v>
@@ -9467,7 +9458,7 @@
         <v>18</v>
       </c>
       <c r="G179" t="s">
-        <v>895</v>
+        <v>881</v>
       </c>
       <c r="J179">
         <v>404</v>
@@ -9484,7 +9475,7 @@
         <v>319</v>
       </c>
       <c r="C180" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D180" t="s">
         <v>79</v>
@@ -9510,7 +9501,7 @@
         <v>319</v>
       </c>
       <c r="C181" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D181" t="s">
         <v>79</v>
@@ -9522,7 +9513,7 @@
         <v>68</v>
       </c>
       <c r="L181" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="182" spans="1:15">
@@ -9533,7 +9524,7 @@
         <v>319</v>
       </c>
       <c r="C182" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D182" t="s">
         <v>79</v>
@@ -9559,7 +9550,7 @@
         <v>319</v>
       </c>
       <c r="C183" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D183" t="s">
         <v>16</v>
@@ -9571,7 +9562,7 @@
         <v>18</v>
       </c>
       <c r="H183" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J183">
         <v>200</v>
@@ -9580,7 +9571,7 @@
         <v>20</v>
       </c>
       <c r="M183" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N183" t="s">
         <v>318</v>
@@ -9594,7 +9585,7 @@
         <v>319</v>
       </c>
       <c r="C184" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D184" t="s">
         <v>16</v>
@@ -9606,7 +9597,7 @@
         <v>18</v>
       </c>
       <c r="H184" t="s">
-        <v>985</v>
+        <v>968</v>
       </c>
       <c r="J184">
         <v>400</v>
@@ -9623,7 +9614,7 @@
         <v>319</v>
       </c>
       <c r="C185" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D185" t="s">
         <v>16</v>
@@ -9632,7 +9623,7 @@
         <v>324</v>
       </c>
       <c r="H185" t="s">
-        <v>899</v>
+        <v>885</v>
       </c>
       <c r="J185">
         <v>403</v>
@@ -9643,13 +9634,13 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" t="s">
-        <v>834</v>
+        <v>830</v>
       </c>
       <c r="B186" t="s">
         <v>319</v>
       </c>
       <c r="C186" t="s">
-        <v>835</v>
+        <v>831</v>
       </c>
       <c r="D186" t="s">
         <v>16</v>
@@ -9661,7 +9652,7 @@
         <v>18</v>
       </c>
       <c r="H186" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="J186">
         <v>404</v>
@@ -9670,7 +9661,7 @@
         <v>20</v>
       </c>
       <c r="M186" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="N186" t="s">
         <v>318</v>
@@ -9684,7 +9675,7 @@
         <v>319</v>
       </c>
       <c r="C187" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D187" t="s">
         <v>44</v>
@@ -9696,7 +9687,7 @@
         <v>18</v>
       </c>
       <c r="H187" t="s">
-        <v>969</v>
+        <v>952</v>
       </c>
       <c r="J187">
         <v>200</v>
@@ -9705,7 +9696,7 @@
         <v>20</v>
       </c>
       <c r="M187" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="O187" t="s">
         <v>318</v>
@@ -9719,7 +9710,7 @@
         <v>319</v>
       </c>
       <c r="C188" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D188" t="s">
         <v>44</v>
@@ -9731,10 +9722,10 @@
         <v>18</v>
       </c>
       <c r="H188" t="s">
-        <v>972</v>
+        <v>955</v>
       </c>
       <c r="J188" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="L188" t="s">
         <v>20</v>
@@ -9748,7 +9739,7 @@
         <v>319</v>
       </c>
       <c r="C189" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D189" t="s">
         <v>44</v>
@@ -9760,7 +9751,7 @@
         <v>18</v>
       </c>
       <c r="H189" t="s">
-        <v>971</v>
+        <v>954</v>
       </c>
       <c r="J189">
         <v>422</v>
@@ -9771,13 +9762,13 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B190" t="s">
         <v>319</v>
       </c>
       <c r="C190" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D190" t="s">
         <v>44</v>
@@ -9786,7 +9777,7 @@
         <v>325</v>
       </c>
       <c r="H190" t="s">
-        <v>973</v>
+        <v>956</v>
       </c>
       <c r="J190">
         <v>401</v>
@@ -9795,7 +9786,7 @@
         <v>20</v>
       </c>
       <c r="M190" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="191" spans="1:15">
@@ -9806,7 +9797,7 @@
         <v>319</v>
       </c>
       <c r="C191" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D191" t="s">
         <v>16</v>
@@ -9818,7 +9809,7 @@
         <v>18</v>
       </c>
       <c r="H191" t="s">
-        <v>970</v>
+        <v>953</v>
       </c>
       <c r="J191">
         <v>200</v>
@@ -9827,7 +9818,7 @@
         <v>20</v>
       </c>
       <c r="M191" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="N191" t="s">
         <v>318</v>
@@ -9841,7 +9832,7 @@
         <v>319</v>
       </c>
       <c r="C192" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D192" t="s">
         <v>16</v>
@@ -9853,7 +9844,7 @@
         <v>18</v>
       </c>
       <c r="H192" t="s">
-        <v>968</v>
+        <v>951</v>
       </c>
       <c r="J192" t="s">
         <v>135</v>
@@ -9870,7 +9861,7 @@
         <v>319</v>
       </c>
       <c r="C193" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D193" t="s">
         <v>16</v>
@@ -9882,7 +9873,7 @@
         <v>18</v>
       </c>
       <c r="H193" t="s">
-        <v>897</v>
+        <v>883</v>
       </c>
       <c r="J193">
         <v>422</v>
@@ -9899,7 +9890,7 @@
         <v>319</v>
       </c>
       <c r="C194" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D194" t="s">
         <v>33</v>
@@ -9911,7 +9902,7 @@
         <v>18</v>
       </c>
       <c r="G194" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="J194">
         <v>200</v>
@@ -9920,7 +9911,7 @@
         <v>20</v>
       </c>
       <c r="M194" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="N194" t="s">
         <v>318</v>
@@ -9934,7 +9925,7 @@
         <v>319</v>
       </c>
       <c r="C195" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D195" t="s">
         <v>33</v>
@@ -9946,7 +9937,7 @@
         <v>18</v>
       </c>
       <c r="G195" t="s">
-        <v>896</v>
+        <v>882</v>
       </c>
       <c r="J195" t="s">
         <v>141</v>
@@ -9963,7 +9954,7 @@
         <v>319</v>
       </c>
       <c r="C196" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D196" t="s">
         <v>33</v>
@@ -9972,7 +9963,7 @@
         <v>326</v>
       </c>
       <c r="G196" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="J196">
         <v>403</v>
@@ -9983,25 +9974,25 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B197" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C197" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="D197" t="s">
         <v>44</v>
       </c>
       <c r="E197" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F197" t="s">
         <v>18</v>
       </c>
       <c r="H197" t="s">
-        <v>881</v>
+        <v>872</v>
       </c>
       <c r="J197">
         <v>200</v>
@@ -10010,30 +10001,30 @@
         <v>20</v>
       </c>
       <c r="M197" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B198" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C198" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="D198" t="s">
         <v>44</v>
       </c>
       <c r="E198" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F198" t="s">
         <v>18</v>
       </c>
       <c r="H198" t="s">
-        <v>882</v>
+        <v>873</v>
       </c>
       <c r="J198">
         <v>422</v>
@@ -10042,62 +10033,62 @@
         <v>20</v>
       </c>
       <c r="M198" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B199" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C199" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="D199" t="s">
         <v>44</v>
       </c>
       <c r="E199" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F199" t="s">
         <v>18</v>
       </c>
       <c r="H199" t="s">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="J199">
         <v>400</v>
       </c>
       <c r="L199" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M199" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B200" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C200" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="D200" t="s">
         <v>44</v>
       </c>
       <c r="E200" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F200" t="s">
         <v>18</v>
       </c>
       <c r="H200" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
       <c r="J200">
         <v>200</v>
@@ -10106,30 +10097,30 @@
         <v>20</v>
       </c>
       <c r="M200" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B201" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C201" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="D201" t="s">
         <v>44</v>
       </c>
       <c r="E201" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F201" t="s">
         <v>18</v>
       </c>
       <c r="H201" t="s">
-        <v>883</v>
+        <v>874</v>
       </c>
       <c r="J201">
         <v>422</v>
@@ -10138,56 +10129,56 @@
         <v>20</v>
       </c>
       <c r="M201" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B202" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C202" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="D202" t="s">
         <v>44</v>
       </c>
       <c r="E202" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F202" t="s">
         <v>18</v>
       </c>
       <c r="H202" t="s">
-        <v>966</v>
+        <v>949</v>
       </c>
       <c r="J202">
         <v>400</v>
       </c>
       <c r="L202" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M202" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B203" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C203" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="D203" t="s">
         <v>79</v>
       </c>
       <c r="E203" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F203" t="s">
         <v>18</v>
@@ -10199,24 +10190,24 @@
         <v>20</v>
       </c>
       <c r="M203" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B204" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C204" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D204" t="s">
         <v>79</v>
       </c>
       <c r="E204" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="J204">
         <v>401</v>
@@ -10225,24 +10216,24 @@
         <v>20</v>
       </c>
       <c r="M204" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B205" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C205" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="D205" t="s">
         <v>79</v>
       </c>
       <c r="E205" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="F205" t="s">
         <v>18</v>
@@ -10254,24 +10245,24 @@
         <v>20</v>
       </c>
       <c r="M205" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B206" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C206" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="D206" t="s">
         <v>79</v>
       </c>
       <c r="E206" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="J206">
         <v>401</v>
@@ -10280,24 +10271,24 @@
         <v>20</v>
       </c>
       <c r="M206" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B207" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C207" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="D207" t="s">
         <v>79</v>
       </c>
       <c r="E207" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="F207" t="s">
         <v>18</v>
@@ -10309,24 +10300,24 @@
         <v>20</v>
       </c>
       <c r="M207" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B208" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C208" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="D208" t="s">
         <v>79</v>
       </c>
       <c r="E208" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="J208">
         <v>401</v>
@@ -10335,30 +10326,30 @@
         <v>20</v>
       </c>
       <c r="M208" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B209" t="s">
+        <v>376</v>
+      </c>
+      <c r="C209" t="s">
+        <v>711</v>
+      </c>
+      <c r="D209" t="s">
+        <v>44</v>
+      </c>
+      <c r="E209" t="s">
         <v>377</v>
       </c>
-      <c r="C209" t="s">
-        <v>712</v>
-      </c>
-      <c r="D209" t="s">
-        <v>44</v>
-      </c>
-      <c r="E209" t="s">
-        <v>378</v>
-      </c>
       <c r="F209" t="s">
         <v>18</v>
       </c>
       <c r="H209" t="s">
-        <v>967</v>
+        <v>950</v>
       </c>
       <c r="J209">
         <v>200</v>
@@ -10367,30 +10358,30 @@
         <v>20</v>
       </c>
       <c r="M209" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B210" t="s">
+        <v>376</v>
+      </c>
+      <c r="C210" t="s">
+        <v>712</v>
+      </c>
+      <c r="D210" t="s">
+        <v>44</v>
+      </c>
+      <c r="E210" t="s">
         <v>377</v>
       </c>
-      <c r="C210" t="s">
-        <v>713</v>
-      </c>
-      <c r="D210" t="s">
-        <v>44</v>
-      </c>
-      <c r="E210" t="s">
-        <v>378</v>
-      </c>
       <c r="F210" t="s">
         <v>18</v>
       </c>
       <c r="H210" t="s">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="J210">
         <v>422</v>
@@ -10399,53 +10390,53 @@
         <v>20</v>
       </c>
       <c r="M210" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B211" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C211" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D211" t="s">
         <v>79</v>
       </c>
       <c r="E211" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="J211" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L211" t="s">
         <v>20</v>
       </c>
       <c r="M211" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B212" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C212" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="D212" t="s">
         <v>79</v>
       </c>
       <c r="E212" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G212" t="s">
-        <v>910</v>
+        <v>895</v>
       </c>
       <c r="J212">
         <v>200</v>
@@ -10454,27 +10445,27 @@
         <v>20</v>
       </c>
       <c r="M212" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="N212" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="B213" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C213" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="D213" t="s">
         <v>79</v>
       </c>
       <c r="E213" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="J213">
         <v>500</v>
@@ -10483,56 +10474,56 @@
         <v>51</v>
       </c>
       <c r="L213" t="s">
-        <v>20</v>
+        <v>691</v>
       </c>
       <c r="M213" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B214" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C214" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D214" t="s">
         <v>79</v>
       </c>
       <c r="E214" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F214" t="s">
         <v>18</v>
       </c>
       <c r="J214" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="L214" t="s">
         <v>20</v>
       </c>
       <c r="M214" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B215" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C215" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D215" t="s">
         <v>79</v>
       </c>
       <c r="E215" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F215" t="s">
         <v>18</v>
@@ -10544,27 +10535,27 @@
         <v>20</v>
       </c>
       <c r="M215" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="N215" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" t="s">
+        <v>755</v>
+      </c>
+      <c r="B216" t="s">
+        <v>411</v>
+      </c>
+      <c r="C216" t="s">
         <v>756</v>
-      </c>
-      <c r="B216" t="s">
-        <v>412</v>
-      </c>
-      <c r="C216" t="s">
-        <v>757</v>
       </c>
       <c r="D216" t="s">
         <v>79</v>
       </c>
       <c r="E216" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="F216" t="s">
         <v>18</v>
@@ -10579,30 +10570,30 @@
         <v>20</v>
       </c>
       <c r="M216" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B217" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C217" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="D217" t="s">
         <v>79</v>
       </c>
       <c r="E217" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F217" t="s">
         <v>18</v>
       </c>
       <c r="G217" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="J217">
         <v>200</v>
@@ -10611,94 +10602,94 @@
         <v>20</v>
       </c>
       <c r="M217" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B218" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C218" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="D218" t="s">
         <v>79</v>
       </c>
       <c r="E218" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F218" t="s">
         <v>18</v>
       </c>
       <c r="G218" t="s">
-        <v>965</v>
+        <v>948</v>
       </c>
       <c r="J218">
         <v>400</v>
       </c>
       <c r="K218" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="L218" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M218" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B219" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C219" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D219" t="s">
         <v>79</v>
       </c>
       <c r="E219" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G219" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="J219">
         <v>401</v>
       </c>
       <c r="L219" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M219" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B220" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C220" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="D220" t="s">
         <v>79</v>
       </c>
       <c r="E220" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F220" t="s">
         <v>18</v>
       </c>
       <c r="G220" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="J220">
         <v>422</v>
@@ -10707,30 +10698,30 @@
         <v>20</v>
       </c>
       <c r="M220" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B221" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C221" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="D221" t="s">
         <v>44</v>
       </c>
       <c r="E221" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F221" t="s">
         <v>18</v>
       </c>
       <c r="H221" t="s">
-        <v>984</v>
+        <v>967</v>
       </c>
       <c r="J221">
         <v>200</v>
@@ -10739,30 +10730,30 @@
         <v>20</v>
       </c>
       <c r="M221" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B222" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C222" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D222" t="s">
         <v>44</v>
       </c>
       <c r="E222" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F222" t="s">
         <v>18</v>
       </c>
       <c r="H222" t="s">
-        <v>983</v>
+        <v>966</v>
       </c>
       <c r="J222">
         <v>200</v>
@@ -10771,30 +10762,30 @@
         <v>20</v>
       </c>
       <c r="M222" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B223" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C223" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="D223" t="s">
         <v>44</v>
       </c>
       <c r="E223" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F223" t="s">
         <v>18</v>
       </c>
       <c r="H223" t="s">
-        <v>878</v>
+        <v>869</v>
       </c>
       <c r="J223">
         <v>422</v>
@@ -10803,30 +10794,30 @@
         <v>20</v>
       </c>
       <c r="M223" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B224" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C224" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="D224" t="s">
         <v>44</v>
       </c>
       <c r="E224" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F224" t="s">
         <v>18</v>
       </c>
       <c r="H224" t="s">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="J224">
         <v>422</v>
@@ -10835,30 +10826,30 @@
         <v>20</v>
       </c>
       <c r="M224" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B225" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="C225" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D225" t="s">
         <v>44</v>
       </c>
       <c r="E225" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F225" t="s">
         <v>18</v>
       </c>
       <c r="H225" t="s">
-        <v>949</v>
+        <v>932</v>
       </c>
       <c r="J225">
         <v>422</v>
@@ -10867,27 +10858,27 @@
         <v>20</v>
       </c>
       <c r="M225" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B226" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C226" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D226" t="s">
         <v>79</v>
       </c>
       <c r="E226" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F226" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J226">
         <v>401</v>
@@ -10896,27 +10887,27 @@
         <v>20</v>
       </c>
       <c r="M226" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B227" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C227" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D227" t="s">
         <v>79</v>
       </c>
       <c r="E227" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="F227" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J227">
         <v>200</v>
@@ -10925,27 +10916,27 @@
         <v>20</v>
       </c>
       <c r="M227" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B228" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C228" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="D228" t="s">
         <v>79</v>
       </c>
       <c r="E228" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F228" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="J228">
         <v>401</v>
@@ -10954,27 +10945,27 @@
         <v>20</v>
       </c>
       <c r="M228" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B229" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C229" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="D229" t="s">
         <v>79</v>
       </c>
       <c r="E229" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="F229" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="J229">
         <v>200</v>
@@ -10983,30 +10974,30 @@
         <v>20</v>
       </c>
       <c r="M229" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B230" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C230" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="D230" t="s">
         <v>44</v>
       </c>
       <c r="E230" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F230" t="s">
         <v>18</v>
       </c>
       <c r="H230" t="s">
-        <v>942</v>
+        <v>926</v>
       </c>
       <c r="J230">
         <v>200</v>
@@ -11015,30 +11006,30 @@
         <v>20</v>
       </c>
       <c r="M230" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B231" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C231" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="D231" t="s">
         <v>44</v>
       </c>
       <c r="E231" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F231" t="s">
         <v>18</v>
       </c>
       <c r="H231" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="J231">
         <v>400</v>
@@ -11047,30 +11038,30 @@
         <v>20</v>
       </c>
       <c r="M231" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B232" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C232" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="D232" t="s">
         <v>44</v>
       </c>
       <c r="E232" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="F232" t="s">
         <v>18</v>
       </c>
       <c r="H232" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="J232">
         <v>422</v>
@@ -11079,27 +11070,27 @@
         <v>20</v>
       </c>
       <c r="M232" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B233" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C233" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="D233" t="s">
         <v>44</v>
       </c>
       <c r="E233" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="H233" t="s">
-        <v>876</v>
+        <v>867</v>
       </c>
       <c r="J233" t="s">
         <v>68</v>
@@ -11108,24 +11099,24 @@
         <v>20</v>
       </c>
       <c r="M233" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B234" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C234" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D234" t="s">
         <v>79</v>
       </c>
       <c r="E234" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="F234" t="s">
         <v>18</v>
@@ -11137,56 +11128,56 @@
         <v>20</v>
       </c>
       <c r="M234" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B235" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C235" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D235" t="s">
         <v>79</v>
       </c>
       <c r="E235" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="J235" t="s">
         <v>352</v>
       </c>
       <c r="L235" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M235" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B236" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C236" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D236" t="s">
         <v>79</v>
       </c>
       <c r="E236" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F236" t="s">
         <v>18</v>
       </c>
       <c r="G236" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="J236">
         <v>200</v>
@@ -11195,30 +11186,30 @@
         <v>20</v>
       </c>
       <c r="M236" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B237" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C237" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D237" t="s">
         <v>79</v>
       </c>
       <c r="E237" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="F237" t="s">
         <v>18</v>
       </c>
       <c r="G237" t="s">
-        <v>941</v>
+        <v>925</v>
       </c>
       <c r="J237" t="s">
         <v>290</v>
@@ -11227,59 +11218,59 @@
         <v>20</v>
       </c>
       <c r="M237" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="238" spans="1:13">
       <c r="A238" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B238" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C238" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D238" t="s">
         <v>79</v>
       </c>
       <c r="E238" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G238" t="s">
-        <v>940</v>
+        <v>924</v>
       </c>
       <c r="J238" t="s">
         <v>352</v>
       </c>
       <c r="L238" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M238" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B239" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C239" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="D239" t="s">
         <v>44</v>
       </c>
       <c r="E239" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F239" t="s">
         <v>18</v>
       </c>
       <c r="H239" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="J239">
         <v>200</v>
@@ -11288,30 +11279,30 @@
         <v>20</v>
       </c>
       <c r="M239" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B240" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C240" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D240" t="s">
         <v>44</v>
       </c>
       <c r="E240" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="F240" t="s">
         <v>18</v>
       </c>
       <c r="H240" t="s">
-        <v>952</v>
+        <v>935</v>
       </c>
       <c r="J240">
         <v>422</v>
@@ -11320,53 +11311,53 @@
         <v>20</v>
       </c>
       <c r="M240" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="241" spans="1:13">
       <c r="A241" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B241" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C241" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D241" t="s">
         <v>44</v>
       </c>
       <c r="E241" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="H241" t="s">
-        <v>951</v>
+        <v>934</v>
       </c>
       <c r="J241" t="s">
         <v>68</v>
       </c>
       <c r="L241" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M241" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="242" spans="1:13">
       <c r="A242" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B242" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C242" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="D242" t="s">
         <v>79</v>
       </c>
       <c r="E242" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F242" t="s">
         <v>18</v>
@@ -11378,56 +11369,56 @@
         <v>20</v>
       </c>
       <c r="M242" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B243" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C243" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="D243" t="s">
         <v>79</v>
       </c>
       <c r="E243" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="J243" t="s">
         <v>352</v>
       </c>
       <c r="L243" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M243" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="244" spans="1:13">
       <c r="A244" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B244" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C244" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D244" t="s">
         <v>79</v>
       </c>
       <c r="E244" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F244" t="s">
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="J244">
         <v>200</v>
@@ -11436,24 +11427,24 @@
         <v>20</v>
       </c>
       <c r="M244" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="245" spans="1:13">
       <c r="A245" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B245" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C245" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D245" t="s">
         <v>79</v>
       </c>
       <c r="E245" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F245" t="s">
         <v>18</v>
@@ -11465,94 +11456,94 @@
         <v>20</v>
       </c>
       <c r="M245" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="246" spans="1:13">
       <c r="A246" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B246" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C246" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="D246" t="s">
         <v>79</v>
       </c>
       <c r="E246" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G246" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>68</v>
       </c>
       <c r="L246" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M246" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="247" spans="1:13">
       <c r="A247" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B247" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C247" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="D247" t="s">
         <v>79</v>
       </c>
       <c r="E247" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="F247" t="s">
         <v>18</v>
       </c>
       <c r="G247" t="s">
-        <v>964</v>
+        <v>947</v>
       </c>
       <c r="J247">
         <v>404</v>
       </c>
       <c r="L247" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M247" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="248" spans="1:13">
       <c r="A248" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B248" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C248" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="D248" t="s">
         <v>44</v>
       </c>
       <c r="E248" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F248" t="s">
         <v>18</v>
       </c>
       <c r="G248" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="H248" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="J248">
         <v>200</v>
@@ -11561,30 +11552,30 @@
         <v>20</v>
       </c>
       <c r="M248" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="249" spans="1:13">
       <c r="A249" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B249" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C249" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D249" t="s">
         <v>44</v>
       </c>
       <c r="E249" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="F249" t="s">
         <v>18</v>
       </c>
       <c r="H249" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="J249">
         <v>422</v>
@@ -11593,91 +11584,91 @@
         <v>20</v>
       </c>
       <c r="M249" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="250" spans="1:13">
       <c r="A250" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B250" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C250" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D250" t="s">
         <v>44</v>
       </c>
       <c r="E250" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G250" t="s">
-        <v>950</v>
+        <v>933</v>
       </c>
       <c r="H250" t="s">
-        <v>953</v>
+        <v>936</v>
       </c>
       <c r="J250" t="s">
         <v>68</v>
       </c>
       <c r="L250" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M250" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="251" spans="1:13">
       <c r="A251" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B251" t="s">
+        <v>473</v>
+      </c>
+      <c r="C251" t="s">
+        <v>487</v>
+      </c>
+      <c r="D251" t="s">
+        <v>44</v>
+      </c>
+      <c r="E251" t="s">
+        <v>509</v>
+      </c>
+      <c r="F251" t="s">
+        <v>18</v>
+      </c>
+      <c r="G251" t="s">
+        <v>933</v>
+      </c>
+      <c r="H251" t="s">
+        <v>500</v>
+      </c>
+      <c r="J251" t="s">
         <v>474</v>
       </c>
-      <c r="C251" t="s">
-        <v>488</v>
-      </c>
-      <c r="D251" t="s">
-        <v>44</v>
-      </c>
-      <c r="E251" t="s">
-        <v>510</v>
-      </c>
-      <c r="F251" t="s">
-        <v>18</v>
-      </c>
-      <c r="G251" t="s">
-        <v>950</v>
-      </c>
-      <c r="H251" t="s">
-        <v>501</v>
-      </c>
-      <c r="J251" t="s">
-        <v>475</v>
-      </c>
       <c r="L251" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M251" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="252" spans="1:13">
       <c r="A252" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="B252" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C252" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D252" t="s">
         <v>44</v>
       </c>
       <c r="E252" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="F252" t="s">
         <v>18</v>
@@ -11692,24 +11683,24 @@
         <v>20</v>
       </c>
       <c r="M252" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="253" spans="1:13">
       <c r="A253" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="B253" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="C253" t="s">
+        <v>729</v>
+      </c>
+      <c r="D253" t="s">
+        <v>44</v>
+      </c>
+      <c r="E253" t="s">
         <v>730</v>
-      </c>
-      <c r="D253" t="s">
-        <v>44</v>
-      </c>
-      <c r="E253" t="s">
-        <v>731</v>
       </c>
       <c r="J253">
         <v>401</v>
@@ -11721,24 +11712,24 @@
         <v>20</v>
       </c>
       <c r="M253" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="254" spans="1:13">
       <c r="A254" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B254" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C254" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D254" t="s">
         <v>44</v>
       </c>
       <c r="E254" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F254" t="s">
         <v>18</v>
@@ -11747,123 +11738,123 @@
         <v>200</v>
       </c>
       <c r="K254" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="L254" t="s">
         <v>20</v>
       </c>
       <c r="M254" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="255" spans="1:13">
       <c r="A255" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B255" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C255" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="D255" t="s">
         <v>44</v>
       </c>
       <c r="E255" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="J255">
         <v>401</v>
       </c>
       <c r="K255" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L255" t="s">
         <v>20</v>
       </c>
       <c r="M255" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="256" spans="1:13">
       <c r="A256" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B256" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C256" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D256" t="s">
         <v>44</v>
       </c>
       <c r="E256" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F256" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J256">
         <v>401</v>
       </c>
       <c r="K256" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="L256" t="s">
         <v>20</v>
       </c>
       <c r="M256" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="257" spans="1:14">
       <c r="A257" t="s">
+        <v>429</v>
+      </c>
+      <c r="B257" t="s">
+        <v>421</v>
+      </c>
+      <c r="C257" t="s">
+        <v>420</v>
+      </c>
+      <c r="D257" t="s">
+        <v>44</v>
+      </c>
+      <c r="E257" t="s">
         <v>430</v>
       </c>
-      <c r="B257" t="s">
-        <v>422</v>
-      </c>
-      <c r="C257" t="s">
-        <v>421</v>
-      </c>
-      <c r="D257" t="s">
-        <v>44</v>
-      </c>
-      <c r="E257" t="s">
-        <v>431</v>
-      </c>
       <c r="F257" t="s">
         <v>18</v>
       </c>
       <c r="J257" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="L257" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M257" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="N257" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="258" spans="1:14">
       <c r="A258" t="s">
+        <v>749</v>
+      </c>
+      <c r="B258" t="s">
+        <v>421</v>
+      </c>
+      <c r="C258" t="s">
         <v>750</v>
       </c>
-      <c r="B258" t="s">
-        <v>422</v>
-      </c>
-      <c r="C258" t="s">
-        <v>751</v>
-      </c>
       <c r="D258" t="s">
         <v>44</v>
       </c>
       <c r="E258" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F258" t="s">
         <v>18</v>
@@ -11875,30 +11866,30 @@
         <v>51</v>
       </c>
       <c r="L258" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="M258" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="259" spans="1:14">
       <c r="A259" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="B259" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C259" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D259" t="s">
         <v>44</v>
       </c>
       <c r="E259" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="F259" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="J259">
         <v>404</v>
@@ -11910,12 +11901,12 @@
         <v>20</v>
       </c>
       <c r="M259" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="L1:L1048576 M48">
+  <conditionalFormatting sqref="M48 L1:L1048576">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",L1)))</formula>
     </cfRule>

--- a/testdata/test_cases.xlsx
+++ b/testdata/test_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiagonalStuff\test-aryabhat\Automated_testing\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F8B8E6B-DD29-4273-A560-C14128AFACAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA2A03-C754-40FB-80AB-0252F92887A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="13056" xr2:uid="{E4B8BAA6-053C-490B-8A8F-CDABAC5CBC80}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E4B8BAA6-053C-490B-8A8F-CDABAC5CBC80}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2333" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="990">
   <si>
     <t>Test_ID</t>
   </si>
@@ -3230,9 +3230,6 @@
     <t>{"provider_name": "llm_provider_name", "user_id": "valid_userId", "apikey": "valid_apikey", "api_proxy_address": "valid_proxy", "is_enabled": false, "created_at": "llm_created_at", "temperature": valid_temperature }</t>
   </si>
   <si>
-    <t>{"tag_id": "invalid_tag_id", "tag_name":"invalid_tag_name", "modified_by":"valid_userId"}</t>
-  </si>
-  <si>
     <t>{"tag_id": "invalid_tag_id", "tag_name":"Machine Learning", "modified_by":"valid_userId"}</t>
   </si>
   <si>
@@ -3308,13 +3305,16 @@
     <t>{"user_id": "valid_userId", "chat_id": "valid_chat_id", "message_ids": "valid_message_id", "is_RL": false, "is_liked": 1}</t>
   </si>
   <si>
-    <t>{"model_id": "valid_model_id", "provider_id": "valid_provider_id", "chat_id": "valid_chat_id", "user_input": "valid_user_input", "user_id": "valid_userId", "department_tag": "valid_dept_tag"}</t>
-  </si>
-  <si>
     <t>{"chat_id": "{{TC11A01.Notebook_id}}"}</t>
   </si>
   <si>
     <t>Create LLM with invalid user ID</t>
+  </si>
+  <si>
+    <t>{"tag_id": "68x4x44x8xxx409f3xx8x6x2", "tag_name": "rename_tag", "modified_by": "valid_userId"}</t>
+  </si>
+  <si>
+    <t>{"Model_id": "valid_model_id", "Provider_id": "valid_provider_id", "Chat_id": "valid_chat_id", "User_input": "valid_user_input", "User_id": "valid_userId", "Department_tag": "valid_dept_tag"}</t>
   </si>
 </sst>
 </file>
@@ -3707,14 +3707,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB1F54A-02EF-463F-B588-F0453A90B53E}">
   <dimension ref="A1:O259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="101" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G180" sqref="G180"/>
+    <sheetView tabSelected="1" topLeftCell="C215" zoomScale="160" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E221" sqref="E221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="2" max="2" width="12.109375" customWidth="1"/>
-    <col min="3" max="3" width="30.33203125" customWidth="1"/>
+    <col min="3" max="3" width="33" customWidth="1"/>
     <col min="5" max="5" width="40.6640625" customWidth="1"/>
     <col min="6" max="6" width="12.109375" customWidth="1"/>
     <col min="7" max="7" width="13.6640625" customWidth="1"/>
@@ -3788,7 +3788,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J2">
         <v>200</v>
@@ -3820,7 +3820,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
       <c r="J3">
         <v>401</v>
@@ -3890,7 +3890,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
       <c r="J5">
         <v>415</v>
@@ -5753,9 +5753,6 @@
       <c r="E61" t="s">
         <v>61</v>
       </c>
-      <c r="F61" t="s">
-        <v>774</v>
-      </c>
       <c r="H61" t="s">
         <v>858</v>
       </c>
@@ -5978,7 +5975,7 @@
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="J68">
         <v>422</v>
@@ -6106,7 +6103,7 @@
         <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="J72">
         <v>422</v>
@@ -6135,7 +6132,7 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>961</v>
+        <v>988</v>
       </c>
       <c r="J73">
         <v>404</v>
@@ -6161,7 +6158,7 @@
         <v>94</v>
       </c>
       <c r="H74" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
       <c r="J74">
         <v>403</v>
@@ -6487,7 +6484,7 @@
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J84">
         <v>200</v>
@@ -6519,7 +6516,7 @@
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
       <c r="J85">
         <v>422</v>
@@ -6580,7 +6577,7 @@
         <v>693</v>
       </c>
       <c r="H87" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="J87">
         <v>401</v>
@@ -6612,7 +6609,7 @@
         <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="J88">
         <v>200</v>
@@ -6888,7 +6885,7 @@
         <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="J97">
         <v>200</v>
@@ -6920,7 +6917,7 @@
         <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="J98">
         <v>422</v>
@@ -6952,7 +6949,7 @@
         <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>987</v>
+        <v>989</v>
       </c>
       <c r="J99">
         <v>202</v>
@@ -6987,7 +6984,7 @@
         <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="J100">
         <v>422</v>
@@ -7019,7 +7016,7 @@
         <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="J101">
         <v>422</v>
@@ -7170,7 +7167,7 @@
         <v>79</v>
       </c>
       <c r="E106" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
@@ -7330,10 +7327,10 @@
         <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="J111">
-        <v>422</v>
+        <v>200</v>
       </c>
       <c r="L111" t="s">
         <v>20</v>
@@ -7362,7 +7359,7 @@
         <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="J112">
         <v>404</v>
@@ -7394,7 +7391,7 @@
         <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="J113">
         <v>200</v>
@@ -7426,7 +7423,7 @@
         <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="J114">
         <v>500</v>
@@ -7458,7 +7455,7 @@
         <v>18</v>
       </c>
       <c r="H115" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="J115">
         <v>200</v>
@@ -7490,7 +7487,7 @@
         <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="J116">
         <v>200</v>
@@ -7522,7 +7519,7 @@
         <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="J117">
         <v>200</v>
@@ -7554,7 +7551,7 @@
         <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="J118">
         <v>404</v>
@@ -8714,7 +8711,7 @@
         <v>18</v>
       </c>
       <c r="H155" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J155">
         <v>200</v>
@@ -9037,7 +9034,7 @@
         <v>18</v>
       </c>
       <c r="G165" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="J165">
         <v>200</v>
@@ -9211,7 +9208,7 @@
         <v>319</v>
       </c>
       <c r="C171" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D171" t="s">
         <v>44</v>
@@ -9597,7 +9594,7 @@
         <v>18</v>
       </c>
       <c r="H184" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="J184">
         <v>400</v>
@@ -10721,7 +10718,7 @@
         <v>18</v>
       </c>
       <c r="H221" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="J221">
         <v>200</v>
@@ -10753,7 +10750,7 @@
         <v>18</v>
       </c>
       <c r="H222" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
       <c r="J222">
         <v>200</v>

--- a/testdata/test_cases.xlsx
+++ b/testdata/test_cases.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DiagonalStuff\test-aryabhat\Automated_testing\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90AA2A03-C754-40FB-80AB-0252F92887A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDAA6972-4D64-4F41-A83B-B4C4AA550CC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{E4B8BAA6-053C-490B-8A8F-CDABAC5CBC80}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="990">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2329" uniqueCount="988">
   <si>
     <t>Test_ID</t>
   </si>
@@ -358,12 +358,6 @@
   </si>
   <si>
     <t>Delete a tag without headers</t>
-  </si>
-  <si>
-    <t>{"tag_id": "68e4c5a39510afbb6f8df6ab"}</t>
-  </si>
-  <si>
-    <t>{"tag_id": "66f217aa9999999999999999"}</t>
   </si>
   <si>
     <t>Not found</t>
@@ -2396,9 +2390,6 @@
     <t>/api/Users/Role</t>
   </si>
   <si>
-    <t>{"tag_id": "{{TC03C01._id}}"}</t>
-  </si>
-  <si>
     <t>{"usernames":[],"emails":[],"roles":["user"],"license":"yes"}</t>
   </si>
   <si>
@@ -2408,9 +2399,6 @@
     <t>/api/Tags/DeleteTag?tag_id={{TC03C01._id}}</t>
   </si>
   <si>
-    <t>/api/Tags/DeleteTag?tag_id=4546446</t>
-  </si>
-  <si>
     <t>Activate License – Valid Payload</t>
   </si>
   <si>
@@ -2517,9 +2505,6 @@
   </si>
   <si>
     <t>Delete a tag with validation error</t>
-  </si>
-  <si>
-    <t>{"tag_id": ""}</t>
   </si>
   <si>
     <t>Fetch tags with filters which does not exist</t>
@@ -3092,9 +3077,6 @@
     <t>{"user_id": "valid_userId", "chat_id": "invalid_chat_id", "header": "Invalid_chat_id"}</t>
   </si>
   <si>
-    <t>{"useremail": "valid_mail", "username": "user", "firstname": "A", "lastname": "", "gender": "default_gender", "dob": "default_dob", "city": "", "state": "", "country": "default_country", "phone_no": "9876543210", "profile_picture": "&lt;unsupported_file_type&gt;"}</t>
-  </si>
-  <si>
     <t>{"database_service_provider_id": "db_provider_id", "id": "db_id", "server": "db_server", "port": "db_port", "database": "db_name", "is_encrypt": 0, "username": "db_username", "password": "db_password", "query_timeout": 30, "schema": "db_schema", "intend": "set" }</t>
   </si>
   <si>
@@ -3311,10 +3293,22 @@
     <t>Create LLM with invalid user ID</t>
   </si>
   <si>
-    <t>{"tag_id": "68x4x44x8xxx409f3xx8x6x2", "tag_name": "rename_tag", "modified_by": "valid_userId"}</t>
-  </si>
-  <si>
-    <t>{"Model_id": "valid_model_id", "Provider_id": "valid_provider_id", "Chat_id": "valid_chat_id", "User_input": "valid_user_input", "User_id": "valid_userId", "Department_tag": "valid_dept_tag"}</t>
+    <t>{"useremail": "valid_mail", "username": "user", "firstname": "A", "lastname": "", "gender": "default_gender", "dob": "default_dob", "city": "", "state": "", "country": "default_country", "phone_no": "9876543210"}</t>
+  </si>
+  <si>
+    <t>{"profile_picture": "tests/files/invalid.txt"}</t>
+  </si>
+  <si>
+    <t>{"Model_id": "valid_model_id", "Provider_id": "valid_provider_id", "chat_id": "valid_chat_id", "user_input": "valid_user_input", "user_id": "valid_userId", "Department_tag": "valid_dept_tag"}</t>
+  </si>
+  <si>
+    <t>/api/Tags/DeleteTag?tag_id=</t>
+  </si>
+  <si>
+    <t>/api/Tags/DeleteTag?tag_id=66f217aa9999999999999999</t>
+  </si>
+  <si>
+    <t>{"tag_id": "66f217aa9999999999999999", "tag_name": "rename_tag", "modified_by": "valid_userId"}</t>
   </si>
 </sst>
 </file>
@@ -3707,8 +3701,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB1F54A-02EF-463F-B588-F0453A90B53E}">
   <dimension ref="A1:O259"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C215" zoomScale="160" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E221" sqref="E221"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="125" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3788,7 +3782,7 @@
         <v>18</v>
       </c>
       <c r="I2" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="J2">
         <v>200</v>
@@ -3820,7 +3814,7 @@
         <v>17</v>
       </c>
       <c r="I3" t="s">
-        <v>970</v>
+        <v>964</v>
       </c>
       <c r="J3">
         <v>401</v>
@@ -3829,7 +3823,7 @@
         <v>51</v>
       </c>
       <c r="L3" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M3" t="s">
         <v>25</v>
@@ -3872,13 +3866,13 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>777</v>
+        <v>772</v>
       </c>
       <c r="B5" t="s">
         <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>779</v>
+        <v>774</v>
       </c>
       <c r="D5" t="s">
         <v>16</v>
@@ -3890,7 +3884,7 @@
         <v>18</v>
       </c>
       <c r="I5" t="s">
-        <v>971</v>
+        <v>965</v>
       </c>
       <c r="J5">
         <v>415</v>
@@ -3902,7 +3896,7 @@
         <v>20</v>
       </c>
       <c r="M5" t="s">
-        <v>778</v>
+        <v>773</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -3960,7 +3954,7 @@
         <v>51</v>
       </c>
       <c r="L7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M7" t="s">
         <v>37</v>
@@ -3995,7 +3989,7 @@
         <v>20</v>
       </c>
       <c r="M8" t="s">
-        <v>813</v>
+        <v>808</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -4006,7 +4000,7 @@
         <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>776</v>
+        <v>771</v>
       </c>
       <c r="D9" t="s">
         <v>33</v>
@@ -4015,7 +4009,7 @@
         <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>774</v>
+        <v>769</v>
       </c>
       <c r="J9">
         <v>422</v>
@@ -4024,10 +4018,10 @@
         <v>51</v>
       </c>
       <c r="L9" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M9" t="s">
-        <v>775</v>
+        <v>770</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -4038,28 +4032,28 @@
         <v>42</v>
       </c>
       <c r="C10" t="s">
-        <v>609</v>
+        <v>607</v>
       </c>
       <c r="D10" t="s">
         <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H10" t="s">
-        <v>865</v>
+        <v>860</v>
       </c>
       <c r="J10">
         <v>200</v>
       </c>
       <c r="K10" t="s">
+        <v>534</v>
+      </c>
+      <c r="L10" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
         <v>536</v>
-      </c>
-      <c r="L10" t="s">
-        <v>20</v>
-      </c>
-      <c r="M10" t="s">
-        <v>538</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -4070,19 +4064,19 @@
         <v>42</v>
       </c>
       <c r="C11" t="s">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="D11" t="s">
         <v>44</v>
       </c>
       <c r="E11" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H11" t="s">
-        <v>908</v>
+        <v>903</v>
       </c>
       <c r="J11">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="K11" t="s">
         <v>51</v>
@@ -4091,7 +4085,7 @@
         <v>20</v>
       </c>
       <c r="M11" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -4102,16 +4096,16 @@
         <v>42</v>
       </c>
       <c r="C12" t="s">
-        <v>611</v>
+        <v>609</v>
       </c>
       <c r="D12" t="s">
         <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H12" t="s">
-        <v>901</v>
+        <v>896</v>
       </c>
       <c r="J12">
         <v>409</v>
@@ -4123,7 +4117,7 @@
         <v>20</v>
       </c>
       <c r="M12" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -4134,16 +4128,16 @@
         <v>42</v>
       </c>
       <c r="C13" t="s">
-        <v>612</v>
+        <v>610</v>
       </c>
       <c r="D13" t="s">
         <v>44</v>
       </c>
       <c r="E13" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H13" t="s">
-        <v>899</v>
+        <v>894</v>
       </c>
       <c r="J13">
         <v>422</v>
@@ -4155,7 +4149,7 @@
         <v>20</v>
       </c>
       <c r="M13" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -4166,19 +4160,19 @@
         <v>42</v>
       </c>
       <c r="C14" t="s">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="D14" t="s">
         <v>44</v>
       </c>
       <c r="E14" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H14" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K14" t="s">
         <v>51</v>
@@ -4187,27 +4181,27 @@
         <v>20</v>
       </c>
       <c r="M14" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
     </row>
     <row r="15" spans="1:14">
       <c r="A15" t="s">
-        <v>744</v>
+        <v>739</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
       </c>
       <c r="C15" t="s">
-        <v>745</v>
+        <v>740</v>
       </c>
       <c r="D15" t="s">
         <v>44</v>
       </c>
       <c r="E15" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H15" t="s">
-        <v>900</v>
+        <v>895</v>
       </c>
       <c r="J15">
         <v>500</v>
@@ -4216,30 +4210,30 @@
         <v>51</v>
       </c>
       <c r="L15" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M15" t="s">
-        <v>746</v>
+        <v>741</v>
       </c>
     </row>
     <row r="16" spans="1:14">
       <c r="A16" t="s">
-        <v>797</v>
+        <v>792</v>
       </c>
       <c r="B16" t="s">
         <v>42</v>
       </c>
       <c r="C16" t="s">
-        <v>798</v>
+        <v>793</v>
       </c>
       <c r="D16" t="s">
         <v>44</v>
       </c>
       <c r="E16" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="H16" t="s">
-        <v>898</v>
+        <v>893</v>
       </c>
       <c r="J16">
         <v>404</v>
@@ -4251,30 +4245,30 @@
         <v>20</v>
       </c>
       <c r="M16" t="s">
-        <v>799</v>
+        <v>794</v>
       </c>
     </row>
     <row r="17" spans="1:14">
       <c r="A17" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B17" t="s">
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="D17" t="s">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F17" t="s">
         <v>18</v>
       </c>
       <c r="H17" t="s">
-        <v>866</v>
+        <v>861</v>
       </c>
       <c r="J17">
         <v>200</v>
@@ -4286,7 +4280,7 @@
         <v>20</v>
       </c>
       <c r="M17" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="N17" t="s">
         <v>41</v>
@@ -4294,25 +4288,25 @@
     </row>
     <row r="18" spans="1:14">
       <c r="A18" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B18" t="s">
         <v>42</v>
       </c>
       <c r="C18" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="D18" t="s">
         <v>16</v>
       </c>
       <c r="E18" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F18" t="s">
         <v>18</v>
       </c>
       <c r="H18" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="J18">
         <v>422</v>
@@ -4324,33 +4318,33 @@
         <v>20</v>
       </c>
       <c r="M18" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="19" spans="1:14">
       <c r="A19" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B19" t="s">
         <v>42</v>
       </c>
       <c r="C19" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="D19" t="s">
         <v>16</v>
       </c>
       <c r="E19" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F19" t="s">
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J19">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="K19" t="s">
         <v>51</v>
@@ -4359,24 +4353,24 @@
         <v>20</v>
       </c>
       <c r="M19" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
     </row>
     <row r="20" spans="1:14">
       <c r="A20" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B20" t="s">
         <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="D20" t="s">
         <v>16</v>
       </c>
       <c r="E20" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="F20" t="s">
         <v>18</v>
@@ -4394,27 +4388,27 @@
         <v>20</v>
       </c>
       <c r="M20" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
     </row>
     <row r="21" spans="1:14">
       <c r="A21" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B21" t="s">
         <v>42</v>
       </c>
       <c r="C21" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="D21" t="s">
         <v>44</v>
       </c>
       <c r="E21" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H21" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="J21">
         <v>200</v>
@@ -4426,27 +4420,27 @@
         <v>20</v>
       </c>
       <c r="M21" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
     </row>
     <row r="22" spans="1:14">
       <c r="A22" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B22" t="s">
         <v>42</v>
       </c>
       <c r="C22" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="D22" t="s">
         <v>44</v>
       </c>
       <c r="E22" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H22" t="s">
-        <v>928</v>
+        <v>922</v>
       </c>
       <c r="J22">
         <v>400</v>
@@ -4458,27 +4452,27 @@
         <v>20</v>
       </c>
       <c r="M22" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
     </row>
     <row r="23" spans="1:14">
       <c r="A23" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B23" t="s">
         <v>42</v>
       </c>
       <c r="C23" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="D23" t="s">
         <v>44</v>
       </c>
       <c r="E23" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H23" t="s">
-        <v>896</v>
+        <v>891</v>
       </c>
       <c r="J23">
         <v>400</v>
@@ -4490,27 +4484,27 @@
         <v>20</v>
       </c>
       <c r="M23" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
     </row>
     <row r="24" spans="1:14">
       <c r="A24" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B24" t="s">
         <v>42</v>
       </c>
       <c r="C24" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="D24" t="s">
         <v>44</v>
       </c>
       <c r="E24" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="H24" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="J24">
         <v>422</v>
@@ -4522,27 +4516,27 @@
         <v>20</v>
       </c>
       <c r="M24" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
     </row>
     <row r="25" spans="1:14">
       <c r="A25" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B25" t="s">
         <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="D25" t="s">
         <v>44</v>
       </c>
       <c r="E25" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H25" t="s">
-        <v>938</v>
+        <v>932</v>
       </c>
       <c r="J25">
         <v>200</v>
@@ -4554,33 +4548,33 @@
         <v>20</v>
       </c>
       <c r="M25" t="s">
-        <v>565</v>
+        <v>563</v>
       </c>
       <c r="N25" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
     </row>
     <row r="26" spans="1:14">
       <c r="A26" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B26" t="s">
         <v>42</v>
       </c>
       <c r="C26" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H26" t="s">
-        <v>939</v>
+        <v>933</v>
       </c>
       <c r="J26" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="K26" t="s">
         <v>51</v>
@@ -4589,27 +4583,27 @@
         <v>20</v>
       </c>
       <c r="M26" t="s">
-        <v>566</v>
+        <v>564</v>
       </c>
     </row>
     <row r="27" spans="1:14">
       <c r="A27" t="s">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B27" t="s">
         <v>42</v>
       </c>
       <c r="C27" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="D27" t="s">
         <v>44</v>
       </c>
       <c r="E27" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H27" t="s">
-        <v>937</v>
+        <v>931</v>
       </c>
       <c r="J27">
         <v>409</v>
@@ -4621,27 +4615,27 @@
         <v>20</v>
       </c>
       <c r="M27" t="s">
-        <v>567</v>
+        <v>565</v>
       </c>
     </row>
     <row r="28" spans="1:14">
       <c r="A28" t="s">
-        <v>723</v>
+        <v>719</v>
       </c>
       <c r="B28" t="s">
         <v>42</v>
       </c>
       <c r="C28" t="s">
-        <v>724</v>
+        <v>720</v>
       </c>
       <c r="D28" t="s">
         <v>44</v>
       </c>
       <c r="E28" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H28" t="s">
-        <v>940</v>
+        <v>934</v>
       </c>
       <c r="J28">
         <v>403</v>
@@ -4653,27 +4647,27 @@
         <v>20</v>
       </c>
       <c r="M28" t="s">
-        <v>725</v>
+        <v>721</v>
       </c>
     </row>
     <row r="29" spans="1:14">
       <c r="A29" t="s">
-        <v>793</v>
+        <v>788</v>
       </c>
       <c r="B29" t="s">
         <v>42</v>
       </c>
       <c r="C29" t="s">
-        <v>794</v>
+        <v>789</v>
       </c>
       <c r="D29" t="s">
         <v>44</v>
       </c>
       <c r="E29" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H29" t="s">
-        <v>927</v>
+        <v>921</v>
       </c>
       <c r="J29">
         <v>404</v>
@@ -4685,27 +4679,30 @@
         <v>20</v>
       </c>
       <c r="M29" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="30" spans="1:14">
       <c r="A30" t="s">
-        <v>821</v>
+        <v>816</v>
       </c>
       <c r="B30" t="s">
         <v>42</v>
       </c>
       <c r="C30" t="s">
-        <v>795</v>
+        <v>790</v>
       </c>
       <c r="D30" t="s">
         <v>44</v>
       </c>
       <c r="E30" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="H30" t="s">
-        <v>915</v>
+        <v>982</v>
+      </c>
+      <c r="I30" t="s">
+        <v>983</v>
       </c>
       <c r="J30">
         <v>415</v>
@@ -4717,12 +4714,12 @@
         <v>20</v>
       </c>
       <c r="M30" t="s">
-        <v>796</v>
+        <v>791</v>
       </c>
     </row>
     <row r="31" spans="1:14">
       <c r="A31" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
       <c r="B31" t="s">
         <v>42</v>
@@ -4737,7 +4734,7 @@
         <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>902</v>
+        <v>897</v>
       </c>
       <c r="J31">
         <v>200</v>
@@ -4751,13 +4748,13 @@
     </row>
     <row r="32" spans="1:14">
       <c r="A32" t="s">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B32" t="s">
         <v>42</v>
       </c>
       <c r="C32" t="s">
-        <v>789</v>
+        <v>784</v>
       </c>
       <c r="D32" t="s">
         <v>44</v>
@@ -4766,7 +4763,7 @@
         <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>923</v>
+        <v>917</v>
       </c>
       <c r="J32">
         <v>404</v>
@@ -4778,18 +4775,18 @@
         <v>20</v>
       </c>
       <c r="M32" t="s">
-        <v>790</v>
+        <v>785</v>
       </c>
     </row>
     <row r="33" spans="1:14">
       <c r="A33" t="s">
-        <v>570</v>
+        <v>568</v>
       </c>
       <c r="B33" t="s">
         <v>42</v>
       </c>
       <c r="C33" t="s">
-        <v>791</v>
+        <v>786</v>
       </c>
       <c r="D33" t="s">
         <v>44</v>
@@ -4798,7 +4795,7 @@
         <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>792</v>
+        <v>787</v>
       </c>
       <c r="J33">
         <v>404</v>
@@ -4815,7 +4812,7 @@
     </row>
     <row r="34" spans="1:14">
       <c r="A34" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B34" t="s">
         <v>42</v>
@@ -4830,7 +4827,7 @@
         <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>903</v>
+        <v>898</v>
       </c>
       <c r="J34">
         <v>422</v>
@@ -4847,7 +4844,7 @@
     </row>
     <row r="35" spans="1:14">
       <c r="A35" t="s">
-        <v>572</v>
+        <v>570</v>
       </c>
       <c r="B35" t="s">
         <v>42</v>
@@ -4862,7 +4859,7 @@
         <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>904</v>
+        <v>899</v>
       </c>
       <c r="J35">
         <v>422</v>
@@ -4874,12 +4871,12 @@
         <v>20</v>
       </c>
       <c r="M35" t="s">
-        <v>814</v>
+        <v>809</v>
       </c>
     </row>
     <row r="36" spans="1:14">
       <c r="A36" t="s">
-        <v>573</v>
+        <v>571</v>
       </c>
       <c r="B36" t="s">
         <v>42</v>
@@ -4894,7 +4891,7 @@
         <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>905</v>
+        <v>900</v>
       </c>
       <c r="J36">
         <v>422</v>
@@ -4911,7 +4908,7 @@
     </row>
     <row r="37" spans="1:14">
       <c r="A37" t="s">
-        <v>574</v>
+        <v>572</v>
       </c>
       <c r="B37" t="s">
         <v>42</v>
@@ -4926,7 +4923,7 @@
         <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>941</v>
+        <v>935</v>
       </c>
       <c r="J37">
         <v>403</v>
@@ -4943,13 +4940,13 @@
     </row>
     <row r="38" spans="1:14">
       <c r="A38" t="s">
-        <v>787</v>
+        <v>782</v>
       </c>
       <c r="B38" t="s">
         <v>42</v>
       </c>
       <c r="C38" t="s">
-        <v>788</v>
+        <v>783</v>
       </c>
       <c r="D38" t="s">
         <v>44</v>
@@ -4958,7 +4955,7 @@
         <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>942</v>
+        <v>936</v>
       </c>
       <c r="J38">
         <v>403</v>
@@ -4970,30 +4967,30 @@
         <v>20</v>
       </c>
       <c r="M38" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:14">
       <c r="A39" t="s">
-        <v>576</v>
+        <v>574</v>
       </c>
       <c r="B39" t="s">
         <v>42</v>
       </c>
       <c r="C39" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="D39" t="s">
         <v>16</v>
       </c>
       <c r="E39" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F39" t="s">
         <v>18</v>
       </c>
       <c r="H39" t="s">
-        <v>906</v>
+        <v>901</v>
       </c>
       <c r="J39">
         <v>200</v>
@@ -5005,33 +5002,33 @@
         <v>20</v>
       </c>
       <c r="M39" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="N39" t="s">
-        <v>582</v>
+        <v>580</v>
       </c>
     </row>
     <row r="40" spans="1:14">
       <c r="A40" t="s">
-        <v>577</v>
+        <v>575</v>
       </c>
       <c r="B40" t="s">
         <v>42</v>
       </c>
       <c r="C40" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="D40" t="s">
         <v>16</v>
       </c>
       <c r="E40" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F40" t="s">
         <v>18</v>
       </c>
       <c r="H40" t="s">
-        <v>897</v>
+        <v>892</v>
       </c>
       <c r="J40">
         <v>422</v>
@@ -5043,30 +5040,30 @@
         <v>20</v>
       </c>
       <c r="M40" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
     </row>
     <row r="41" spans="1:14">
       <c r="A41" t="s">
-        <v>578</v>
+        <v>576</v>
       </c>
       <c r="B41" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="D41" t="s">
         <v>16</v>
       </c>
       <c r="E41" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F41" t="s">
         <v>18</v>
       </c>
       <c r="H41" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="J41">
         <v>404</v>
@@ -5078,24 +5075,24 @@
         <v>20</v>
       </c>
       <c r="M41" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
     </row>
     <row r="42" spans="1:14">
       <c r="A42" t="s">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
       </c>
       <c r="C42" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="D42" t="s">
         <v>16</v>
       </c>
       <c r="E42" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F42" t="s">
         <v>18</v>
@@ -5113,33 +5110,33 @@
         <v>20</v>
       </c>
       <c r="M42" t="s">
-        <v>584</v>
+        <v>582</v>
       </c>
     </row>
     <row r="43" spans="1:14">
       <c r="A43" t="s">
-        <v>580</v>
+        <v>578</v>
       </c>
       <c r="B43" t="s">
         <v>42</v>
       </c>
       <c r="C43" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="D43" t="s">
         <v>16</v>
       </c>
       <c r="E43" t="s">
-        <v>575</v>
+        <v>573</v>
       </c>
       <c r="F43" t="s">
         <v>18</v>
       </c>
       <c r="H43" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="J43">
-        <v>400</v>
+        <v>422</v>
       </c>
       <c r="K43" t="s">
         <v>51</v>
@@ -5148,30 +5145,30 @@
         <v>20</v>
       </c>
       <c r="M43" t="s">
-        <v>585</v>
+        <v>583</v>
       </c>
     </row>
     <row r="44" spans="1:14">
       <c r="A44" t="s">
-        <v>587</v>
+        <v>585</v>
       </c>
       <c r="B44" t="s">
         <v>42</v>
       </c>
       <c r="C44" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="D44" t="s">
         <v>44</v>
       </c>
       <c r="E44" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F44" t="s">
         <v>18</v>
       </c>
       <c r="H44" t="s">
-        <v>907</v>
+        <v>902</v>
       </c>
       <c r="J44">
         <v>200</v>
@@ -5183,30 +5180,30 @@
         <v>20</v>
       </c>
       <c r="M44" t="s">
-        <v>594</v>
+        <v>592</v>
       </c>
     </row>
     <row r="45" spans="1:14">
       <c r="A45" t="s">
-        <v>588</v>
+        <v>586</v>
       </c>
       <c r="B45" t="s">
         <v>42</v>
       </c>
       <c r="C45" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="D45" t="s">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F45" t="s">
         <v>18</v>
       </c>
       <c r="H45" t="s">
-        <v>943</v>
+        <v>937</v>
       </c>
       <c r="J45">
         <v>400</v>
@@ -5218,30 +5215,30 @@
         <v>20</v>
       </c>
       <c r="M45" t="s">
-        <v>593</v>
+        <v>591</v>
       </c>
     </row>
     <row r="46" spans="1:14">
       <c r="A46" t="s">
-        <v>589</v>
+        <v>587</v>
       </c>
       <c r="B46" t="s">
         <v>42</v>
       </c>
       <c r="C46" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="D46" t="s">
         <v>44</v>
       </c>
       <c r="E46" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F46" t="s">
         <v>18</v>
       </c>
       <c r="H46" t="s">
-        <v>944</v>
+        <v>938</v>
       </c>
       <c r="J46">
         <v>422</v>
@@ -5253,30 +5250,30 @@
         <v>20</v>
       </c>
       <c r="M46" t="s">
-        <v>592</v>
+        <v>590</v>
       </c>
     </row>
     <row r="47" spans="1:14">
       <c r="A47" t="s">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B47" t="s">
         <v>42</v>
       </c>
       <c r="C47" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="D47" t="s">
         <v>44</v>
       </c>
       <c r="E47" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F47" t="s">
         <v>18</v>
       </c>
       <c r="H47" t="s">
-        <v>945</v>
+        <v>939</v>
       </c>
       <c r="J47">
         <v>400</v>
@@ -5288,30 +5285,30 @@
         <v>20</v>
       </c>
       <c r="M47" t="s">
-        <v>591</v>
+        <v>589</v>
       </c>
     </row>
     <row r="48" spans="1:14">
       <c r="A48" t="s">
-        <v>784</v>
+        <v>779</v>
       </c>
       <c r="B48" t="s">
         <v>42</v>
       </c>
       <c r="C48" t="s">
-        <v>785</v>
+        <v>780</v>
       </c>
       <c r="D48" t="s">
         <v>44</v>
       </c>
       <c r="E48" t="s">
-        <v>586</v>
+        <v>584</v>
       </c>
       <c r="F48" t="s">
         <v>18</v>
       </c>
       <c r="H48" t="s">
-        <v>946</v>
+        <v>940</v>
       </c>
       <c r="J48">
         <v>404</v>
@@ -5323,24 +5320,24 @@
         <v>20</v>
       </c>
       <c r="M48" t="s">
-        <v>786</v>
+        <v>781</v>
       </c>
     </row>
     <row r="49" spans="1:14">
       <c r="A49" t="s">
-        <v>595</v>
+        <v>593</v>
       </c>
       <c r="B49" t="s">
         <v>42</v>
       </c>
       <c r="C49" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="D49" t="s">
         <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F49" t="s">
         <v>18</v>
@@ -5355,33 +5352,33 @@
         <v>20</v>
       </c>
       <c r="M49" t="s">
-        <v>608</v>
+        <v>606</v>
       </c>
       <c r="N49" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="50" spans="1:14">
       <c r="A50" t="s">
-        <v>596</v>
+        <v>594</v>
       </c>
       <c r="B50" t="s">
         <v>42</v>
       </c>
       <c r="C50" t="s">
-        <v>715</v>
+        <v>711</v>
       </c>
       <c r="D50" t="s">
         <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F50" t="s">
         <v>18</v>
       </c>
       <c r="H50" t="s">
-        <v>719</v>
+        <v>715</v>
       </c>
       <c r="J50">
         <v>400</v>
@@ -5393,27 +5390,27 @@
         <v>20</v>
       </c>
       <c r="M50" t="s">
-        <v>721</v>
+        <v>717</v>
       </c>
       <c r="N50" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="51" spans="1:14">
       <c r="A51" t="s">
-        <v>597</v>
+        <v>595</v>
       </c>
       <c r="B51" t="s">
         <v>42</v>
       </c>
       <c r="C51" t="s">
-        <v>716</v>
+        <v>712</v>
       </c>
       <c r="D51" t="s">
         <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F51" t="s">
         <v>18</v>
@@ -5428,30 +5425,30 @@
         <v>51</v>
       </c>
       <c r="L51" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M51" t="s">
-        <v>720</v>
+        <v>716</v>
       </c>
       <c r="N51" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="52" spans="1:14">
       <c r="A52" t="s">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B52" t="s">
         <v>42</v>
       </c>
       <c r="C52" t="s">
-        <v>718</v>
+        <v>714</v>
       </c>
       <c r="D52" t="s">
         <v>16</v>
       </c>
       <c r="E52" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="H52" t="s">
         <v>29</v>
@@ -5463,33 +5460,33 @@
         <v>51</v>
       </c>
       <c r="L52" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M52" t="s">
-        <v>607</v>
+        <v>605</v>
       </c>
       <c r="N52" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="53" spans="1:14">
       <c r="A53" t="s">
-        <v>780</v>
+        <v>775</v>
       </c>
       <c r="B53" t="s">
         <v>42</v>
       </c>
       <c r="C53" t="s">
-        <v>781</v>
+        <v>776</v>
       </c>
       <c r="D53" t="s">
         <v>16</v>
       </c>
       <c r="E53" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
       <c r="F53" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="H53" t="s">
         <v>29</v>
@@ -5504,91 +5501,91 @@
         <v>20</v>
       </c>
       <c r="M53" t="s">
-        <v>783</v>
+        <v>778</v>
       </c>
       <c r="N53" t="s">
-        <v>568</v>
+        <v>566</v>
       </c>
     </row>
     <row r="54" spans="1:14">
       <c r="A54" t="s">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B54" t="s">
         <v>42</v>
       </c>
       <c r="C54" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="D54" t="s">
         <v>79</v>
       </c>
       <c r="E54" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G54" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="J54">
         <v>200</v>
       </c>
       <c r="K54" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L54" t="s">
         <v>20</v>
       </c>
       <c r="M54" t="s">
-        <v>606</v>
+        <v>604</v>
       </c>
     </row>
     <row r="55" spans="1:14">
       <c r="A55" t="s">
-        <v>599</v>
+        <v>597</v>
       </c>
       <c r="B55" t="s">
         <v>42</v>
       </c>
       <c r="C55" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="D55" t="s">
         <v>79</v>
       </c>
       <c r="E55" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G55" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J55">
         <v>400</v>
       </c>
       <c r="K55" t="s">
+        <v>600</v>
+      </c>
+      <c r="L55" t="s">
+        <v>20</v>
+      </c>
+      <c r="M55" t="s">
         <v>602</v>
-      </c>
-      <c r="L55" t="s">
-        <v>20</v>
-      </c>
-      <c r="M55" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="56" spans="1:14">
       <c r="A56" t="s">
-        <v>600</v>
+        <v>598</v>
       </c>
       <c r="B56" t="s">
         <v>42</v>
       </c>
       <c r="C56" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="D56" t="s">
         <v>79</v>
       </c>
       <c r="E56" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G56" t="s">
         <v>29</v>
@@ -5603,88 +5600,88 @@
         <v>20</v>
       </c>
       <c r="M56" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="57" spans="1:14">
       <c r="A57" t="s">
-        <v>759</v>
+        <v>754</v>
       </c>
       <c r="B57" t="s">
         <v>42</v>
       </c>
       <c r="C57" t="s">
-        <v>766</v>
+        <v>761</v>
       </c>
       <c r="D57" t="s">
         <v>79</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G57" t="s">
-        <v>894</v>
+        <v>889</v>
       </c>
       <c r="J57">
         <v>200</v>
       </c>
       <c r="K57" t="s">
-        <v>601</v>
+        <v>599</v>
       </c>
       <c r="L57" t="s">
         <v>20</v>
       </c>
       <c r="M57" t="s">
-        <v>762</v>
+        <v>757</v>
       </c>
     </row>
     <row r="58" spans="1:14">
       <c r="A58" t="s">
-        <v>760</v>
+        <v>755</v>
       </c>
       <c r="B58" t="s">
         <v>42</v>
       </c>
       <c r="C58" t="s">
-        <v>765</v>
+        <v>760</v>
       </c>
       <c r="D58" t="s">
         <v>79</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G58" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="J58">
         <v>400</v>
       </c>
       <c r="K58" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="L58" t="s">
         <v>20</v>
       </c>
       <c r="M58" t="s">
-        <v>763</v>
+        <v>758</v>
       </c>
     </row>
     <row r="59" spans="1:14">
       <c r="A59" t="s">
-        <v>761</v>
+        <v>756</v>
       </c>
       <c r="B59" t="s">
         <v>42</v>
       </c>
       <c r="C59" t="s">
-        <v>764</v>
+        <v>759</v>
       </c>
       <c r="D59" t="s">
         <v>79</v>
       </c>
       <c r="E59" s="3" t="s">
-        <v>758</v>
+        <v>753</v>
       </c>
       <c r="G59" t="s">
         <v>29</v>
@@ -5699,7 +5696,7 @@
         <v>20</v>
       </c>
       <c r="M59" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -5722,7 +5719,7 @@
         <v>18</v>
       </c>
       <c r="H60" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="J60">
         <v>200</v>
@@ -5754,7 +5751,7 @@
         <v>61</v>
       </c>
       <c r="H61" t="s">
-        <v>858</v>
+        <v>853</v>
       </c>
       <c r="J61">
         <v>403</v>
@@ -5786,7 +5783,7 @@
         <v>18</v>
       </c>
       <c r="H62" t="s">
-        <v>893</v>
+        <v>888</v>
       </c>
       <c r="J62">
         <v>401</v>
@@ -5818,7 +5815,7 @@
         <v>18</v>
       </c>
       <c r="H63" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="J63">
         <v>422</v>
@@ -5850,7 +5847,7 @@
         <v>18</v>
       </c>
       <c r="H64" t="s">
-        <v>892</v>
+        <v>887</v>
       </c>
       <c r="J64">
         <v>400</v>
@@ -5882,7 +5879,7 @@
         <v>18</v>
       </c>
       <c r="H65" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="J65">
         <v>200</v>
@@ -5911,7 +5908,7 @@
         <v>80</v>
       </c>
       <c r="H66" t="s">
-        <v>920</v>
+        <v>914</v>
       </c>
       <c r="J66">
         <v>403</v>
@@ -5943,13 +5940,13 @@
         <v>18</v>
       </c>
       <c r="H67" t="s">
-        <v>868</v>
+        <v>863</v>
       </c>
       <c r="J67">
         <v>422</v>
       </c>
       <c r="L67" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M67" t="s">
         <v>90</v>
@@ -5975,7 +5972,7 @@
         <v>18</v>
       </c>
       <c r="H68" t="s">
-        <v>969</v>
+        <v>963</v>
       </c>
       <c r="J68">
         <v>422</v>
@@ -6007,7 +6004,7 @@
         <v>18</v>
       </c>
       <c r="H69" t="s">
-        <v>921</v>
+        <v>915</v>
       </c>
       <c r="J69">
         <v>200</v>
@@ -6021,13 +6018,13 @@
     </row>
     <row r="70" spans="1:14">
       <c r="A70" t="s">
-        <v>743</v>
+        <v>738</v>
       </c>
       <c r="B70" t="s">
         <v>60</v>
       </c>
       <c r="C70" t="s">
-        <v>736</v>
+        <v>731</v>
       </c>
       <c r="D70" t="s">
         <v>79</v>
@@ -6039,7 +6036,7 @@
         <v>18</v>
       </c>
       <c r="H70" t="s">
-        <v>922</v>
+        <v>916</v>
       </c>
       <c r="J70">
         <v>200</v>
@@ -6048,7 +6045,7 @@
         <v>20</v>
       </c>
       <c r="M70" t="s">
-        <v>737</v>
+        <v>732</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -6071,7 +6068,7 @@
         <v>18</v>
       </c>
       <c r="H71" t="s">
-        <v>929</v>
+        <v>923</v>
       </c>
       <c r="J71">
         <v>200</v>
@@ -6103,7 +6100,7 @@
         <v>18</v>
       </c>
       <c r="H72" t="s">
-        <v>961</v>
+        <v>955</v>
       </c>
       <c r="J72">
         <v>422</v>
@@ -6132,7 +6129,7 @@
         <v>18</v>
       </c>
       <c r="H73" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="J73">
         <v>404</v>
@@ -6158,7 +6155,7 @@
         <v>94</v>
       </c>
       <c r="H74" t="s">
-        <v>968</v>
+        <v>962</v>
       </c>
       <c r="J74">
         <v>403</v>
@@ -6181,13 +6178,10 @@
         <v>33</v>
       </c>
       <c r="E75" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="F75" t="s">
         <v>18</v>
-      </c>
-      <c r="H75" t="s">
-        <v>694</v>
       </c>
       <c r="J75">
         <v>200</v>
@@ -6216,13 +6210,10 @@
         <v>33</v>
       </c>
       <c r="E76" t="s">
-        <v>698</v>
+        <v>986</v>
       </c>
       <c r="F76" t="s">
         <v>18</v>
-      </c>
-      <c r="H76" t="s">
-        <v>109</v>
       </c>
       <c r="J76">
         <v>404</v>
@@ -6231,7 +6222,7 @@
         <v>20</v>
       </c>
       <c r="M76" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -6248,10 +6239,7 @@
         <v>33</v>
       </c>
       <c r="E77" t="s">
-        <v>697</v>
-      </c>
-      <c r="H77" t="s">
-        <v>108</v>
+        <v>694</v>
       </c>
       <c r="J77">
         <v>403</v>
@@ -6260,30 +6248,27 @@
         <v>20</v>
       </c>
       <c r="M77" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:14">
       <c r="A78" t="s">
-        <v>733</v>
+        <v>729</v>
       </c>
       <c r="B78" t="s">
         <v>60</v>
       </c>
       <c r="C78" t="s">
-        <v>734</v>
+        <v>730</v>
       </c>
       <c r="D78" t="s">
         <v>33</v>
       </c>
       <c r="E78" t="s">
-        <v>698</v>
+        <v>985</v>
       </c>
       <c r="F78" t="s">
         <v>18</v>
-      </c>
-      <c r="H78" t="s">
-        <v>735</v>
       </c>
       <c r="J78">
         <v>422</v>
@@ -6294,28 +6279,28 @@
     </row>
     <row r="79" spans="1:14">
       <c r="A79" t="s">
+        <v>110</v>
+      </c>
+      <c r="B79" t="s">
+        <v>150</v>
+      </c>
+      <c r="C79" t="s">
+        <v>118</v>
+      </c>
+      <c r="D79" t="s">
+        <v>44</v>
+      </c>
+      <c r="E79" t="s">
         <v>112</v>
       </c>
-      <c r="B79" t="s">
-        <v>152</v>
-      </c>
-      <c r="C79" t="s">
+      <c r="F79" t="s">
+        <v>18</v>
+      </c>
+      <c r="G79" t="s">
+        <v>907</v>
+      </c>
+      <c r="H79" t="s">
         <v>120</v>
-      </c>
-      <c r="D79" t="s">
-        <v>44</v>
-      </c>
-      <c r="E79" t="s">
-        <v>114</v>
-      </c>
-      <c r="F79" t="s">
-        <v>18</v>
-      </c>
-      <c r="G79" t="s">
-        <v>912</v>
-      </c>
-      <c r="H79" t="s">
-        <v>122</v>
       </c>
       <c r="J79">
         <v>200</v>
@@ -6324,33 +6309,33 @@
         <v>20</v>
       </c>
       <c r="M79" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="80" spans="1:14">
       <c r="A80" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B80" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C80" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="D80" t="s">
         <v>44</v>
       </c>
       <c r="E80" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F80" t="s">
         <v>18</v>
       </c>
       <c r="G80" t="s">
-        <v>913</v>
+        <v>908</v>
       </c>
       <c r="H80" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="J80">
         <v>422</v>
@@ -6359,33 +6344,33 @@
         <v>20</v>
       </c>
       <c r="M80" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="81" spans="1:13">
       <c r="A81" t="s">
+        <v>114</v>
+      </c>
+      <c r="B81" t="s">
+        <v>150</v>
+      </c>
+      <c r="C81" t="s">
         <v>116</v>
       </c>
-      <c r="B81" t="s">
-        <v>152</v>
-      </c>
-      <c r="C81" t="s">
-        <v>118</v>
-      </c>
       <c r="D81" t="s">
         <v>44</v>
       </c>
       <c r="E81" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F81" t="s">
         <v>18</v>
       </c>
       <c r="G81" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="H81" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="J81">
         <v>404</v>
@@ -6394,65 +6379,65 @@
         <v>20</v>
       </c>
       <c r="M81" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="82" spans="1:13">
       <c r="A82" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B82" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C82" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="D82" t="s">
         <v>44</v>
       </c>
       <c r="E82" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F82" t="s">
         <v>18</v>
       </c>
       <c r="G82" t="s">
-        <v>912</v>
+        <v>907</v>
       </c>
       <c r="H82" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
       <c r="J82">
         <v>200</v>
       </c>
       <c r="L82" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M82" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="83" spans="1:13">
       <c r="A83" t="s">
-        <v>802</v>
+        <v>797</v>
       </c>
       <c r="B83" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C83" t="s">
+        <v>118</v>
+      </c>
+      <c r="D83" t="s">
+        <v>44</v>
+      </c>
+      <c r="E83" t="s">
+        <v>112</v>
+      </c>
+      <c r="G83" t="s">
+        <v>907</v>
+      </c>
+      <c r="H83" t="s">
         <v>120</v>
-      </c>
-      <c r="D83" t="s">
-        <v>44</v>
-      </c>
-      <c r="E83" t="s">
-        <v>114</v>
-      </c>
-      <c r="G83" t="s">
-        <v>912</v>
-      </c>
-      <c r="H83" t="s">
-        <v>122</v>
       </c>
       <c r="J83">
         <v>403</v>
@@ -6461,30 +6446,30 @@
         <v>20</v>
       </c>
       <c r="M83" s="3" t="s">
-        <v>803</v>
+        <v>798</v>
       </c>
     </row>
     <row r="84" spans="1:13">
       <c r="A84" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B84" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C84" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D84" t="s">
         <v>16</v>
       </c>
       <c r="E84" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F84" t="s">
         <v>18</v>
       </c>
       <c r="H84" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="J84">
         <v>200</v>
@@ -6493,30 +6478,30 @@
         <v>20</v>
       </c>
       <c r="M84" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="85" spans="1:13">
       <c r="A85" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B85" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C85" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D85" t="s">
         <v>16</v>
       </c>
       <c r="E85" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F85" t="s">
         <v>18</v>
       </c>
       <c r="H85" t="s">
-        <v>964</v>
+        <v>958</v>
       </c>
       <c r="J85">
         <v>422</v>
@@ -6525,30 +6510,30 @@
         <v>20</v>
       </c>
       <c r="M85" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="86" spans="1:13">
       <c r="A86" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B86" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C86" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D86" t="s">
         <v>16</v>
       </c>
       <c r="E86" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="F86" t="s">
         <v>18</v>
       </c>
       <c r="H86" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="J86">
         <v>400</v>
@@ -6557,27 +6542,27 @@
         <v>20</v>
       </c>
       <c r="M86" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="87" spans="1:13">
       <c r="A87" t="s">
-        <v>800</v>
+        <v>795</v>
       </c>
       <c r="B87" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C87" t="s">
-        <v>815</v>
+        <v>810</v>
       </c>
       <c r="D87" t="s">
         <v>16</v>
       </c>
       <c r="E87" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="H87" t="s">
-        <v>963</v>
+        <v>957</v>
       </c>
       <c r="J87">
         <v>401</v>
@@ -6586,30 +6571,30 @@
         <v>20</v>
       </c>
       <c r="M87" t="s">
-        <v>801</v>
+        <v>796</v>
       </c>
     </row>
     <row r="88" spans="1:13">
       <c r="A88" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B88" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C88" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="D88" t="s">
         <v>33</v>
       </c>
       <c r="E88" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F88" t="s">
         <v>18</v>
       </c>
       <c r="H88" t="s">
-        <v>962</v>
+        <v>956</v>
       </c>
       <c r="J88">
         <v>200</v>
@@ -6618,56 +6603,56 @@
         <v>20</v>
       </c>
       <c r="M88" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="89" spans="1:13">
       <c r="A89" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B89" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C89" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D89" t="s">
         <v>33</v>
       </c>
       <c r="E89" t="s">
+        <v>137</v>
+      </c>
+      <c r="F89" t="s">
+        <v>18</v>
+      </c>
+      <c r="H89" t="s">
+        <v>138</v>
+      </c>
+      <c r="J89" t="s">
         <v>139</v>
       </c>
-      <c r="F89" t="s">
-        <v>18</v>
-      </c>
-      <c r="H89" t="s">
-        <v>140</v>
-      </c>
-      <c r="J89" t="s">
-        <v>141</v>
-      </c>
       <c r="L89" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M89" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="90" spans="1:13">
       <c r="A90" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B90" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="C90" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="D90" t="s">
         <v>33</v>
       </c>
       <c r="E90" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F90" t="s">
         <v>18</v>
@@ -6682,24 +6667,24 @@
         <v>20</v>
       </c>
       <c r="M90" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="91" spans="1:13">
       <c r="A91" t="s">
+        <v>151</v>
+      </c>
+      <c r="B91" t="s">
+        <v>152</v>
+      </c>
+      <c r="C91" t="s">
+        <v>154</v>
+      </c>
+      <c r="D91" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91" t="s">
         <v>153</v>
-      </c>
-      <c r="B91" t="s">
-        <v>154</v>
-      </c>
-      <c r="C91" t="s">
-        <v>156</v>
-      </c>
-      <c r="D91" t="s">
-        <v>44</v>
-      </c>
-      <c r="E91" t="s">
-        <v>155</v>
       </c>
       <c r="F91" t="s">
         <v>18</v>
@@ -6711,27 +6696,27 @@
         <v>20</v>
       </c>
       <c r="M91" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="92" spans="1:13">
       <c r="A92" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B92" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C92" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D92" t="s">
         <v>44</v>
       </c>
       <c r="E92" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F92" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="J92">
         <v>401</v>
@@ -6740,27 +6725,27 @@
         <v>20</v>
       </c>
       <c r="M92" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="93" spans="1:13">
       <c r="A93" t="s">
-        <v>770</v>
+        <v>765</v>
       </c>
       <c r="B93" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="C93" t="s">
-        <v>771</v>
+        <v>766</v>
       </c>
       <c r="D93" t="s">
         <v>44</v>
       </c>
       <c r="E93" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F93" t="s">
-        <v>772</v>
+        <v>767</v>
       </c>
       <c r="J93">
         <v>403</v>
@@ -6769,24 +6754,24 @@
         <v>20</v>
       </c>
       <c r="M93" t="s">
-        <v>773</v>
+        <v>768</v>
       </c>
     </row>
     <row r="94" spans="1:13">
       <c r="A94" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B94" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C94" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D94" t="s">
         <v>79</v>
       </c>
       <c r="E94" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F94" t="s">
         <v>18</v>
@@ -6795,30 +6780,30 @@
         <v>200</v>
       </c>
       <c r="K94" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="L94" t="s">
         <v>20</v>
       </c>
       <c r="M94" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="95" spans="1:13">
       <c r="A95" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B95" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C95" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D95" t="s">
         <v>79</v>
       </c>
       <c r="E95" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="J95">
         <v>401</v>
@@ -6830,24 +6815,24 @@
         <v>20</v>
       </c>
       <c r="M95" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="96" spans="1:13">
       <c r="A96" t="s">
-        <v>747</v>
+        <v>742</v>
       </c>
       <c r="B96" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C96" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D96" t="s">
         <v>79</v>
       </c>
       <c r="E96" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F96" t="s">
         <v>18</v>
@@ -6859,33 +6844,33 @@
         <v>51</v>
       </c>
       <c r="L96" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M96" t="s">
-        <v>748</v>
+        <v>743</v>
       </c>
     </row>
     <row r="97" spans="1:13">
       <c r="A97" t="s">
+        <v>167</v>
+      </c>
+      <c r="B97" t="s">
+        <v>168</v>
+      </c>
+      <c r="C97" t="s">
         <v>169</v>
       </c>
-      <c r="B97" t="s">
+      <c r="D97" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" t="s">
         <v>170</v>
       </c>
-      <c r="C97" t="s">
-        <v>171</v>
-      </c>
-      <c r="D97" t="s">
-        <v>44</v>
-      </c>
-      <c r="E97" t="s">
-        <v>172</v>
-      </c>
       <c r="F97" t="s">
         <v>18</v>
       </c>
       <c r="H97" t="s">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="J97">
         <v>200</v>
@@ -6894,30 +6879,30 @@
         <v>20</v>
       </c>
       <c r="M97" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="98" spans="1:13">
       <c r="A98" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B98" t="s">
+        <v>168</v>
+      </c>
+      <c r="C98" t="s">
+        <v>172</v>
+      </c>
+      <c r="D98" t="s">
+        <v>44</v>
+      </c>
+      <c r="E98" t="s">
         <v>170</v>
       </c>
-      <c r="C98" t="s">
-        <v>174</v>
-      </c>
-      <c r="D98" t="s">
-        <v>44</v>
-      </c>
-      <c r="E98" t="s">
-        <v>172</v>
-      </c>
       <c r="F98" t="s">
         <v>18</v>
       </c>
       <c r="H98" t="s">
-        <v>973</v>
+        <v>967</v>
       </c>
       <c r="J98">
         <v>422</v>
@@ -6926,30 +6911,30 @@
         <v>20</v>
       </c>
       <c r="M98" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="99" spans="1:13">
       <c r="A99" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B99" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C99" t="s">
-        <v>822</v>
+        <v>817</v>
       </c>
       <c r="D99" t="s">
         <v>44</v>
       </c>
       <c r="E99" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F99" t="s">
         <v>18</v>
       </c>
       <c r="H99" t="s">
-        <v>989</v>
+        <v>984</v>
       </c>
       <c r="J99">
         <v>202</v>
@@ -6961,62 +6946,62 @@
         <v>20</v>
       </c>
       <c r="M99" t="s">
-        <v>823</v>
+        <v>818</v>
       </c>
     </row>
     <row r="100" spans="1:13">
       <c r="A100" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="B100" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C100" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="D100" t="s">
         <v>44</v>
       </c>
       <c r="E100" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F100" t="s">
         <v>18</v>
       </c>
       <c r="H100" t="s">
-        <v>974</v>
+        <v>968</v>
       </c>
       <c r="J100">
         <v>422</v>
       </c>
       <c r="L100" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="101" spans="1:13">
       <c r="A101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B101" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C101" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="D101" t="s">
         <v>44</v>
       </c>
       <c r="E101" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F101" t="s">
         <v>18</v>
       </c>
       <c r="H101" t="s">
-        <v>975</v>
+        <v>969</v>
       </c>
       <c r="J101">
         <v>422</v>
@@ -7025,30 +7010,30 @@
         <v>20</v>
       </c>
       <c r="M101" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="102" spans="1:13">
       <c r="A102" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="B102" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C102" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D102" t="s">
         <v>44</v>
       </c>
       <c r="E102" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F102" t="s">
         <v>18</v>
       </c>
       <c r="H102" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="J102">
         <v>200</v>
@@ -7057,30 +7042,30 @@
         <v>20</v>
       </c>
       <c r="M102" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="103" spans="1:13">
       <c r="A103" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B103" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C103" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D103" t="s">
         <v>44</v>
       </c>
       <c r="E103" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F103" t="s">
         <v>18</v>
       </c>
       <c r="H103" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="J103">
         <v>422</v>
@@ -7089,56 +7074,56 @@
         <v>20</v>
       </c>
       <c r="M103" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="104" spans="1:13">
       <c r="A104" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="B104" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C104" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D104" t="s">
         <v>44</v>
       </c>
       <c r="E104" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F104" t="s">
         <v>18</v>
       </c>
       <c r="H104" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="J104" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L104" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M104" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="105" spans="1:13">
       <c r="A105" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="B105" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C105" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D105" t="s">
         <v>79</v>
       </c>
       <c r="E105" t="s">
-        <v>860</v>
+        <v>855</v>
       </c>
       <c r="F105" t="s">
         <v>18</v>
@@ -7150,24 +7135,24 @@
         <v>20</v>
       </c>
       <c r="M105" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="106" spans="1:13">
       <c r="A106" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="B106" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C106" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D106" t="s">
         <v>79</v>
       </c>
       <c r="E106" t="s">
-        <v>976</v>
+        <v>970</v>
       </c>
       <c r="F106" t="s">
         <v>18</v>
@@ -7179,30 +7164,30 @@
         <v>20</v>
       </c>
       <c r="M106" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="107" spans="1:13">
       <c r="A107" t="s">
+        <v>194</v>
+      </c>
+      <c r="B107" t="s">
+        <v>195</v>
+      </c>
+      <c r="C107" t="s">
+        <v>643</v>
+      </c>
+      <c r="D107" t="s">
+        <v>44</v>
+      </c>
+      <c r="E107" t="s">
         <v>196</v>
       </c>
-      <c r="B107" t="s">
-        <v>197</v>
-      </c>
-      <c r="C107" t="s">
-        <v>645</v>
-      </c>
-      <c r="D107" t="s">
-        <v>44</v>
-      </c>
-      <c r="E107" t="s">
-        <v>198</v>
-      </c>
       <c r="F107" t="s">
         <v>18</v>
       </c>
       <c r="H107" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="J107">
         <v>200</v>
@@ -7211,30 +7196,30 @@
         <v>20</v>
       </c>
       <c r="M107" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="108" spans="1:13">
       <c r="A108" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B108" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C108" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="D108" t="s">
         <v>44</v>
       </c>
       <c r="E108" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F108" t="s">
         <v>18</v>
       </c>
       <c r="H108" t="s">
-        <v>917</v>
+        <v>911</v>
       </c>
       <c r="J108">
         <v>422</v>
@@ -7243,30 +7228,30 @@
         <v>20</v>
       </c>
       <c r="M108" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="109" spans="1:13">
       <c r="A109" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B109" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C109" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="D109" t="s">
         <v>44</v>
       </c>
       <c r="E109" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F109" t="s">
         <v>18</v>
       </c>
       <c r="H109" t="s">
-        <v>878</v>
+        <v>873</v>
       </c>
       <c r="J109">
         <v>422</v>
@@ -7275,59 +7260,59 @@
         <v>20</v>
       </c>
       <c r="M109" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="110" spans="1:13">
       <c r="A110" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B110" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C110" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D110" t="s">
         <v>44</v>
       </c>
       <c r="E110" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H110" t="s">
-        <v>916</v>
+        <v>910</v>
       </c>
       <c r="J110">
         <v>401</v>
       </c>
       <c r="L110" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M110" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="111" spans="1:13">
       <c r="A111" t="s">
-        <v>834</v>
+        <v>829</v>
       </c>
       <c r="B111" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C111" t="s">
-        <v>850</v>
+        <v>845</v>
       </c>
       <c r="D111" t="s">
         <v>44</v>
       </c>
       <c r="E111" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F111" t="s">
         <v>18</v>
       </c>
       <c r="H111" t="s">
-        <v>980</v>
+        <v>974</v>
       </c>
       <c r="J111">
         <v>200</v>
@@ -7336,30 +7321,30 @@
         <v>20</v>
       </c>
       <c r="M111" t="s">
-        <v>849</v>
+        <v>844</v>
       </c>
     </row>
     <row r="112" spans="1:13">
       <c r="A112" t="s">
-        <v>835</v>
+        <v>830</v>
       </c>
       <c r="B112" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C112" t="s">
-        <v>851</v>
+        <v>846</v>
       </c>
       <c r="D112" t="s">
         <v>44</v>
       </c>
       <c r="E112" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F112" t="s">
         <v>18</v>
       </c>
       <c r="H112" t="s">
-        <v>981</v>
+        <v>975</v>
       </c>
       <c r="J112">
         <v>404</v>
@@ -7368,30 +7353,30 @@
         <v>20</v>
       </c>
       <c r="M112" t="s">
-        <v>848</v>
+        <v>843</v>
       </c>
     </row>
     <row r="113" spans="1:13">
       <c r="A113" t="s">
-        <v>836</v>
+        <v>831</v>
       </c>
       <c r="B113" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C113" t="s">
-        <v>852</v>
+        <v>847</v>
       </c>
       <c r="D113" t="s">
         <v>44</v>
       </c>
       <c r="E113" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F113" t="s">
         <v>18</v>
       </c>
       <c r="H113" t="s">
-        <v>982</v>
+        <v>976</v>
       </c>
       <c r="J113">
         <v>200</v>
@@ -7400,62 +7385,62 @@
         <v>20</v>
       </c>
       <c r="M113" t="s">
-        <v>847</v>
+        <v>842</v>
       </c>
     </row>
     <row r="114" spans="1:13">
       <c r="A114" t="s">
-        <v>837</v>
+        <v>832</v>
       </c>
       <c r="B114" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C114" t="s">
-        <v>853</v>
+        <v>848</v>
       </c>
       <c r="D114" t="s">
         <v>44</v>
       </c>
       <c r="E114" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F114" t="s">
         <v>18</v>
       </c>
       <c r="H114" t="s">
-        <v>983</v>
+        <v>977</v>
       </c>
       <c r="J114">
         <v>500</v>
       </c>
       <c r="L114" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M114" t="s">
-        <v>846</v>
+        <v>841</v>
       </c>
     </row>
     <row r="115" spans="1:13">
       <c r="A115" t="s">
-        <v>838</v>
+        <v>833</v>
       </c>
       <c r="B115" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C115" t="s">
-        <v>854</v>
+        <v>849</v>
       </c>
       <c r="D115" t="s">
         <v>44</v>
       </c>
       <c r="E115" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F115" t="s">
         <v>18</v>
       </c>
       <c r="H115" t="s">
-        <v>984</v>
+        <v>978</v>
       </c>
       <c r="J115">
         <v>200</v>
@@ -7464,30 +7449,30 @@
         <v>20</v>
       </c>
       <c r="M115" t="s">
-        <v>845</v>
+        <v>840</v>
       </c>
     </row>
     <row r="116" spans="1:13">
       <c r="A116" t="s">
-        <v>839</v>
+        <v>834</v>
       </c>
       <c r="B116" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C116" t="s">
-        <v>857</v>
+        <v>852</v>
       </c>
       <c r="D116" t="s">
         <v>44</v>
       </c>
       <c r="E116" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F116" t="s">
         <v>18</v>
       </c>
       <c r="H116" t="s">
-        <v>977</v>
+        <v>971</v>
       </c>
       <c r="J116">
         <v>200</v>
@@ -7496,30 +7481,30 @@
         <v>20</v>
       </c>
       <c r="M116" t="s">
-        <v>844</v>
+        <v>839</v>
       </c>
     </row>
     <row r="117" spans="1:13">
       <c r="A117" t="s">
-        <v>840</v>
+        <v>835</v>
       </c>
       <c r="B117" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C117" t="s">
-        <v>856</v>
+        <v>851</v>
       </c>
       <c r="D117" t="s">
         <v>44</v>
       </c>
       <c r="E117" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F117" t="s">
         <v>18</v>
       </c>
       <c r="H117" t="s">
-        <v>979</v>
+        <v>973</v>
       </c>
       <c r="J117">
         <v>200</v>
@@ -7528,30 +7513,30 @@
         <v>20</v>
       </c>
       <c r="M117" t="s">
-        <v>843</v>
+        <v>838</v>
       </c>
     </row>
     <row r="118" spans="1:13">
       <c r="A118" t="s">
-        <v>841</v>
+        <v>836</v>
       </c>
       <c r="B118" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C118" t="s">
-        <v>855</v>
+        <v>850</v>
       </c>
       <c r="D118" t="s">
         <v>44</v>
       </c>
       <c r="E118" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F118" t="s">
         <v>18</v>
       </c>
       <c r="H118" t="s">
-        <v>978</v>
+        <v>972</v>
       </c>
       <c r="J118">
         <v>404</v>
@@ -7560,120 +7545,120 @@
         <v>20</v>
       </c>
       <c r="M118" t="s">
-        <v>842</v>
+        <v>837</v>
       </c>
     </row>
     <row r="119" spans="1:13">
       <c r="A119" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B119" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C119" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="D119" t="s">
         <v>44</v>
       </c>
       <c r="E119" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F119" t="s">
         <v>18</v>
       </c>
       <c r="H119" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="J119">
         <v>200</v>
       </c>
       <c r="L119" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M119" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="120" spans="1:13">
       <c r="A120" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B120" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C120" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="D120" t="s">
         <v>44</v>
       </c>
       <c r="E120" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F120" t="s">
         <v>18</v>
       </c>
       <c r="H120" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="J120">
         <v>422</v>
       </c>
       <c r="L120" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M120" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="121" spans="1:13">
       <c r="A121" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B121" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C121" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="D121" t="s">
         <v>44</v>
       </c>
       <c r="E121" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F121" t="s">
         <v>18</v>
       </c>
       <c r="H121" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="J121" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L121" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M121" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="122" spans="1:13">
       <c r="A122" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B122" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C122" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="D122" t="s">
         <v>79</v>
       </c>
       <c r="E122" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F122" t="s">
         <v>18</v>
@@ -7685,24 +7670,24 @@
         <v>20</v>
       </c>
       <c r="M122" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="123" spans="1:13">
       <c r="A123" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B123" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C123" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="D123" t="s">
         <v>79</v>
       </c>
       <c r="E123" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F123" t="s">
         <v>18</v>
@@ -7714,30 +7699,30 @@
         <v>20</v>
       </c>
       <c r="M123" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="124" spans="1:13">
       <c r="A124" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B124" t="s">
+        <v>210</v>
+      </c>
+      <c r="C124" t="s">
+        <v>647</v>
+      </c>
+      <c r="D124" t="s">
+        <v>44</v>
+      </c>
+      <c r="E124" t="s">
         <v>212</v>
       </c>
-      <c r="C124" t="s">
-        <v>649</v>
-      </c>
-      <c r="D124" t="s">
-        <v>44</v>
-      </c>
-      <c r="E124" t="s">
-        <v>214</v>
-      </c>
       <c r="F124" t="s">
         <v>18</v>
       </c>
       <c r="H124" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="J124">
         <v>200</v>
@@ -7746,27 +7731,27 @@
         <v>20</v>
       </c>
       <c r="M124" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="125" spans="1:13">
       <c r="A125" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B125" t="s">
+        <v>210</v>
+      </c>
+      <c r="C125" t="s">
+        <v>648</v>
+      </c>
+      <c r="D125" t="s">
+        <v>44</v>
+      </c>
+      <c r="E125" t="s">
         <v>212</v>
       </c>
-      <c r="C125" t="s">
-        <v>650</v>
-      </c>
-      <c r="D125" t="s">
-        <v>44</v>
-      </c>
-      <c r="E125" t="s">
-        <v>214</v>
-      </c>
       <c r="H125" t="s">
-        <v>876</v>
+        <v>871</v>
       </c>
       <c r="J125">
         <v>401</v>
@@ -7775,30 +7760,30 @@
         <v>20</v>
       </c>
       <c r="M125" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="126" spans="1:13">
       <c r="A126" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B126" t="s">
+        <v>210</v>
+      </c>
+      <c r="C126" t="s">
+        <v>649</v>
+      </c>
+      <c r="D126" t="s">
+        <v>44</v>
+      </c>
+      <c r="E126" t="s">
         <v>212</v>
       </c>
-      <c r="C126" t="s">
-        <v>651</v>
-      </c>
-      <c r="D126" t="s">
-        <v>44</v>
-      </c>
-      <c r="E126" t="s">
-        <v>214</v>
-      </c>
       <c r="F126" t="s">
         <v>18</v>
       </c>
       <c r="H126" t="s">
-        <v>877</v>
+        <v>872</v>
       </c>
       <c r="J126">
         <v>422</v>
@@ -7807,30 +7792,30 @@
         <v>20</v>
       </c>
       <c r="M126" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="127" spans="1:13">
       <c r="A127" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B127" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C127" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="D127" t="s">
         <v>44</v>
       </c>
       <c r="E127" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F127" t="s">
         <v>18</v>
       </c>
       <c r="H127" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J127">
         <v>200</v>
@@ -7839,24 +7824,24 @@
         <v>20</v>
       </c>
       <c r="M127" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="128" spans="1:13">
       <c r="A128" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B128" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C128" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="D128" t="s">
         <v>44</v>
       </c>
       <c r="E128" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F128" t="s">
         <v>18</v>
@@ -7871,30 +7856,30 @@
         <v>20</v>
       </c>
       <c r="M128" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="129" spans="1:13">
       <c r="A129" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B129" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C129" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="D129" t="s">
         <v>44</v>
       </c>
       <c r="E129" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F129" t="s">
         <v>18</v>
       </c>
       <c r="H129" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="J129">
         <v>422</v>
@@ -7903,27 +7888,27 @@
         <v>20</v>
       </c>
       <c r="M129" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="130" spans="1:13">
       <c r="A130" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B130" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C130" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="D130" t="s">
         <v>44</v>
       </c>
       <c r="E130" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H130" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="J130">
         <v>401</v>
@@ -7932,24 +7917,24 @@
         <v>20</v>
       </c>
       <c r="M130" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="131" spans="1:13">
       <c r="A131" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B131" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C131" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="D131" t="s">
         <v>44</v>
       </c>
       <c r="E131" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F131" t="s">
         <v>18</v>
@@ -7964,27 +7949,27 @@
         <v>20</v>
       </c>
       <c r="M131" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="132" spans="1:13">
       <c r="A132" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B132" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C132" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="D132" t="s">
         <v>44</v>
       </c>
       <c r="E132" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H132" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="J132">
         <v>401</v>
@@ -7993,62 +7978,62 @@
         <v>20</v>
       </c>
       <c r="M132" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="133" spans="1:13">
       <c r="A133" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B133" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C133" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="D133" t="s">
         <v>44</v>
       </c>
       <c r="E133" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F133" t="s">
         <v>18</v>
       </c>
       <c r="H133" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="J133" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L133" t="s">
         <v>20</v>
       </c>
       <c r="M133" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
     </row>
     <row r="134" spans="1:13">
       <c r="A134" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B134" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C134" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="D134" t="s">
         <v>44</v>
       </c>
       <c r="E134" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F134" t="s">
         <v>18</v>
       </c>
       <c r="H134" t="s">
-        <v>909</v>
+        <v>904</v>
       </c>
       <c r="J134">
         <v>200</v>
@@ -8057,91 +8042,91 @@
         <v>20</v>
       </c>
       <c r="M134" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="135" spans="1:13">
       <c r="A135" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B135" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C135" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="D135" t="s">
         <v>44</v>
       </c>
       <c r="E135" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F135" t="s">
         <v>18</v>
       </c>
       <c r="H135" t="s">
-        <v>875</v>
+        <v>870</v>
       </c>
       <c r="J135" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L135" t="s">
         <v>20</v>
       </c>
       <c r="M135" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="136" spans="1:13">
       <c r="A136" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B136" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C136" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="D136" t="s">
         <v>44</v>
       </c>
       <c r="E136" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F136" t="s">
         <v>18</v>
       </c>
       <c r="H136" t="s">
-        <v>910</v>
+        <v>905</v>
       </c>
       <c r="J136" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L136" t="s">
         <v>20</v>
       </c>
       <c r="M136" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="137" spans="1:13">
       <c r="A137" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B137" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C137" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="D137" t="s">
         <v>44</v>
       </c>
       <c r="E137" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="H137" t="s">
-        <v>911</v>
+        <v>906</v>
       </c>
       <c r="J137">
         <v>401</v>
@@ -8150,30 +8135,30 @@
         <v>20</v>
       </c>
       <c r="M137" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="138" spans="1:13">
       <c r="A138" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B138" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C138" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="D138" t="s">
         <v>44</v>
       </c>
       <c r="E138" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F138" t="s">
         <v>18</v>
       </c>
       <c r="H138" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="J138">
         <v>200</v>
@@ -8182,30 +8167,30 @@
         <v>20</v>
       </c>
       <c r="M138" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="139" spans="1:13">
       <c r="A139" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B139" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C139" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="D139" t="s">
         <v>44</v>
       </c>
       <c r="E139" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F139" t="s">
         <v>18</v>
       </c>
       <c r="H139" t="s">
-        <v>919</v>
+        <v>913</v>
       </c>
       <c r="J139">
         <v>422</v>
@@ -8214,30 +8199,30 @@
         <v>20</v>
       </c>
       <c r="M139" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:13">
       <c r="A140" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B140" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C140" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="D140" t="s">
         <v>44</v>
       </c>
       <c r="E140" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F140" t="s">
         <v>18</v>
       </c>
       <c r="H140" t="s">
-        <v>879</v>
+        <v>874</v>
       </c>
       <c r="J140">
         <v>422</v>
@@ -8246,27 +8231,27 @@
         <v>20</v>
       </c>
       <c r="M140" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="141" spans="1:13">
       <c r="A141" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B141" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="C141" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="D141" t="s">
         <v>44</v>
       </c>
       <c r="E141" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="H141" t="s">
-        <v>918</v>
+        <v>912</v>
       </c>
       <c r="J141">
         <v>401</v>
@@ -8275,30 +8260,30 @@
         <v>20</v>
       </c>
       <c r="M141" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="142" spans="1:13">
       <c r="A142" t="s">
+        <v>253</v>
+      </c>
+      <c r="B142" t="s">
+        <v>254</v>
+      </c>
+      <c r="C142" t="s">
+        <v>664</v>
+      </c>
+      <c r="D142" t="s">
+        <v>44</v>
+      </c>
+      <c r="E142" t="s">
         <v>255</v>
       </c>
-      <c r="B142" t="s">
-        <v>256</v>
-      </c>
-      <c r="C142" t="s">
-        <v>666</v>
-      </c>
-      <c r="D142" t="s">
-        <v>44</v>
-      </c>
-      <c r="E142" t="s">
-        <v>257</v>
-      </c>
       <c r="F142" t="s">
         <v>18</v>
       </c>
       <c r="H142" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="J142">
         <v>200</v>
@@ -8307,24 +8292,24 @@
         <v>20</v>
       </c>
       <c r="M142" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="143" spans="1:13">
       <c r="A143" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B143" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C143" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="D143" t="s">
         <v>44</v>
       </c>
       <c r="E143" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F143" t="s">
         <v>18</v>
@@ -8333,68 +8318,68 @@
         <v>29</v>
       </c>
       <c r="J143" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L143" t="s">
         <v>20</v>
       </c>
       <c r="M143" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="144" spans="1:13">
       <c r="A144" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B144" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C144" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="D144" t="s">
         <v>44</v>
       </c>
       <c r="E144" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="F144" t="s">
         <v>18</v>
       </c>
       <c r="H144" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="J144" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L144" t="s">
         <v>20</v>
       </c>
       <c r="M144" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="145" spans="1:14">
       <c r="A145" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B145" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C145" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="D145" t="s">
         <v>44</v>
       </c>
       <c r="E145" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F145" t="s">
         <v>18</v>
       </c>
       <c r="H145" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="J145">
         <v>200</v>
@@ -8403,30 +8388,30 @@
         <v>20</v>
       </c>
       <c r="M145" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="146" spans="1:14">
       <c r="A146" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B146" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C146" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="D146" t="s">
         <v>44</v>
       </c>
       <c r="E146" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="F146" t="s">
         <v>18</v>
       </c>
       <c r="H146" t="s">
-        <v>890</v>
+        <v>885</v>
       </c>
       <c r="J146">
         <v>422</v>
@@ -8435,30 +8420,30 @@
         <v>20</v>
       </c>
       <c r="M146" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="147" spans="1:14">
       <c r="A147" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B147" t="s">
+        <v>254</v>
+      </c>
+      <c r="C147" t="s">
+        <v>667</v>
+      </c>
+      <c r="D147" t="s">
+        <v>44</v>
+      </c>
+      <c r="E147" t="s">
         <v>256</v>
       </c>
-      <c r="C147" t="s">
-        <v>669</v>
-      </c>
-      <c r="D147" t="s">
-        <v>44</v>
-      </c>
-      <c r="E147" t="s">
-        <v>258</v>
-      </c>
       <c r="F147" t="s">
         <v>18</v>
       </c>
       <c r="H147" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="J147">
         <v>200</v>
@@ -8467,30 +8452,30 @@
         <v>20</v>
       </c>
       <c r="M147" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="148" spans="1:14">
       <c r="A148" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B148" t="s">
+        <v>254</v>
+      </c>
+      <c r="C148" t="s">
+        <v>668</v>
+      </c>
+      <c r="D148" t="s">
+        <v>44</v>
+      </c>
+      <c r="E148" t="s">
         <v>256</v>
       </c>
-      <c r="C148" t="s">
-        <v>670</v>
-      </c>
-      <c r="D148" t="s">
-        <v>44</v>
-      </c>
-      <c r="E148" t="s">
-        <v>258</v>
-      </c>
       <c r="F148" t="s">
         <v>18</v>
       </c>
       <c r="H148" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="J148">
         <v>422</v>
@@ -8499,30 +8484,30 @@
         <v>20</v>
       </c>
       <c r="M148" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
     </row>
     <row r="149" spans="1:14">
       <c r="A149" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B149" t="s">
+        <v>254</v>
+      </c>
+      <c r="C149" t="s">
+        <v>669</v>
+      </c>
+      <c r="D149" t="s">
+        <v>44</v>
+      </c>
+      <c r="E149" t="s">
         <v>256</v>
       </c>
-      <c r="C149" t="s">
-        <v>671</v>
-      </c>
-      <c r="D149" t="s">
-        <v>44</v>
-      </c>
-      <c r="E149" t="s">
-        <v>258</v>
-      </c>
       <c r="F149" t="s">
         <v>18</v>
       </c>
       <c r="H149" t="s">
-        <v>859</v>
+        <v>854</v>
       </c>
       <c r="J149">
         <v>422</v>
@@ -8531,30 +8516,30 @@
         <v>20</v>
       </c>
       <c r="M149" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="150" spans="1:14">
       <c r="A150" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B150" t="s">
+        <v>254</v>
+      </c>
+      <c r="C150" t="s">
+        <v>670</v>
+      </c>
+      <c r="D150" t="s">
+        <v>44</v>
+      </c>
+      <c r="E150" t="s">
         <v>256</v>
       </c>
-      <c r="C150" t="s">
-        <v>672</v>
-      </c>
-      <c r="D150" t="s">
-        <v>44</v>
-      </c>
-      <c r="E150" t="s">
-        <v>258</v>
-      </c>
       <c r="F150" t="s">
         <v>18</v>
       </c>
       <c r="H150" t="s">
-        <v>862</v>
+        <v>857</v>
       </c>
       <c r="J150">
         <v>422</v>
@@ -8563,27 +8548,27 @@
         <v>20</v>
       </c>
       <c r="M150" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:14">
       <c r="A151" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B151" t="s">
+        <v>254</v>
+      </c>
+      <c r="C151" t="s">
+        <v>671</v>
+      </c>
+      <c r="D151" t="s">
+        <v>44</v>
+      </c>
+      <c r="E151" t="s">
         <v>256</v>
       </c>
-      <c r="C151" t="s">
-        <v>673</v>
-      </c>
-      <c r="D151" t="s">
-        <v>44</v>
-      </c>
-      <c r="E151" t="s">
-        <v>258</v>
-      </c>
       <c r="H151" t="s">
-        <v>861</v>
+        <v>856</v>
       </c>
       <c r="J151" t="s">
         <v>68</v>
@@ -8592,30 +8577,30 @@
         <v>20</v>
       </c>
       <c r="M151" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="152" spans="1:14">
       <c r="A152" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B152" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C152" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="D152" t="s">
         <v>16</v>
       </c>
       <c r="E152" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F152" t="s">
         <v>18</v>
       </c>
       <c r="H152" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="J152">
         <v>200</v>
@@ -8624,56 +8609,56 @@
         <v>20</v>
       </c>
       <c r="M152" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:14">
       <c r="A153" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B153" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C153" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="D153" t="s">
         <v>16</v>
       </c>
       <c r="E153" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F153" t="s">
         <v>18</v>
       </c>
       <c r="H153" t="s">
-        <v>886</v>
+        <v>881</v>
       </c>
       <c r="J153" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L153" t="s">
         <v>20</v>
       </c>
       <c r="M153" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:14">
       <c r="A154" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B154" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C154" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="D154" t="s">
         <v>16</v>
       </c>
       <c r="E154" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F154" t="s">
         <v>18</v>
@@ -8688,30 +8673,30 @@
         <v>20</v>
       </c>
       <c r="M154" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:14">
       <c r="A155" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B155" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C155" t="s">
-        <v>832</v>
+        <v>827</v>
       </c>
       <c r="D155" t="s">
         <v>16</v>
       </c>
       <c r="E155" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F155" t="s">
         <v>18</v>
       </c>
       <c r="H155" t="s">
-        <v>985</v>
+        <v>979</v>
       </c>
       <c r="J155">
         <v>200</v>
@@ -8720,62 +8705,62 @@
         <v>20</v>
       </c>
       <c r="M155" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
     </row>
     <row r="156" spans="1:14">
       <c r="A156" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B156" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C156" t="s">
-        <v>833</v>
+        <v>828</v>
       </c>
       <c r="D156" t="s">
         <v>16</v>
       </c>
       <c r="E156" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F156" t="s">
         <v>18</v>
       </c>
       <c r="H156" t="s">
-        <v>887</v>
+        <v>882</v>
       </c>
       <c r="J156" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L156" t="s">
         <v>20</v>
       </c>
       <c r="M156" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="157" spans="1:14">
       <c r="A157" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B157" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C157" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="D157" t="s">
         <v>16</v>
       </c>
       <c r="E157" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F157" t="s">
         <v>18</v>
       </c>
       <c r="H157" t="s">
-        <v>864</v>
+        <v>859</v>
       </c>
       <c r="J157">
         <v>200</v>
@@ -8784,33 +8769,33 @@
         <v>20</v>
       </c>
       <c r="M157" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="N157" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="158" spans="1:14">
       <c r="A158" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B158" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C158" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="D158" t="s">
         <v>16</v>
       </c>
       <c r="E158" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F158" t="s">
         <v>18</v>
       </c>
       <c r="H158" t="s">
-        <v>863</v>
+        <v>858</v>
       </c>
       <c r="J158">
         <v>422</v>
@@ -8819,62 +8804,62 @@
         <v>20</v>
       </c>
       <c r="M158" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="159" spans="1:14">
       <c r="A159" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B159" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C159" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="D159" t="s">
         <v>16</v>
       </c>
       <c r="E159" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="F159" t="s">
         <v>18</v>
       </c>
       <c r="H159" t="s">
-        <v>914</v>
+        <v>909</v>
       </c>
       <c r="J159" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L159" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M159" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
     </row>
     <row r="160" spans="1:14">
       <c r="A160" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B160" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C160" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="D160" t="s">
         <v>16</v>
       </c>
       <c r="E160" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F160" t="s">
         <v>18</v>
       </c>
       <c r="H160" t="s">
-        <v>889</v>
+        <v>884</v>
       </c>
       <c r="J160">
         <v>200</v>
@@ -8883,94 +8868,94 @@
         <v>20</v>
       </c>
       <c r="M160" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="161" spans="1:14">
       <c r="A161" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B161" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C161" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="D161" t="s">
         <v>16</v>
       </c>
       <c r="E161" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="F161" t="s">
         <v>18</v>
       </c>
       <c r="H161" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="J161" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L161" t="s">
         <v>20</v>
       </c>
       <c r="M161" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="162" spans="1:14">
       <c r="A162" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B162" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C162" t="s">
-        <v>825</v>
+        <v>820</v>
       </c>
       <c r="D162" t="s">
         <v>16</v>
       </c>
       <c r="E162" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F162" t="s">
         <v>18</v>
       </c>
       <c r="H162" t="s">
-        <v>888</v>
+        <v>883</v>
       </c>
       <c r="J162" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L162" t="s">
         <v>20</v>
       </c>
       <c r="M162" t="s">
-        <v>827</v>
+        <v>822</v>
       </c>
     </row>
     <row r="163" spans="1:14">
       <c r="A163" t="s">
-        <v>824</v>
+        <v>819</v>
       </c>
       <c r="B163" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C163" t="s">
-        <v>826</v>
+        <v>821</v>
       </c>
       <c r="D163" t="s">
         <v>16</v>
       </c>
       <c r="E163" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="F163" t="s">
         <v>18</v>
       </c>
       <c r="H163" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="J163">
         <v>422</v>
@@ -8979,30 +8964,30 @@
         <v>20</v>
       </c>
       <c r="M163" t="s">
-        <v>828</v>
+        <v>823</v>
       </c>
     </row>
     <row r="164" spans="1:14">
       <c r="A164" t="s">
-        <v>930</v>
+        <v>924</v>
       </c>
       <c r="B164" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C164" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="D164" t="s">
         <v>16</v>
       </c>
       <c r="E164" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="F164" t="s">
         <v>18</v>
       </c>
       <c r="H164" t="s">
-        <v>891</v>
+        <v>886</v>
       </c>
       <c r="J164">
         <v>422</v>
@@ -9011,30 +8996,30 @@
         <v>20</v>
       </c>
       <c r="M164" t="s">
-        <v>829</v>
+        <v>824</v>
       </c>
     </row>
     <row r="165" spans="1:14">
       <c r="A165" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B165" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C165" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="D165" t="s">
         <v>33</v>
       </c>
       <c r="E165" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F165" t="s">
         <v>18</v>
       </c>
       <c r="G165" t="s">
-        <v>986</v>
+        <v>980</v>
       </c>
       <c r="J165">
         <v>200</v>
@@ -9043,91 +9028,91 @@
         <v>20</v>
       </c>
       <c r="M165" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="N165" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="166" spans="1:14">
       <c r="A166" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B166" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C166" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="D166" t="s">
         <v>33</v>
       </c>
       <c r="E166" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="F166" t="s">
         <v>18</v>
       </c>
       <c r="J166" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="L166" t="s">
         <v>20</v>
       </c>
       <c r="M166" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
     </row>
     <row r="167" spans="1:14">
       <c r="A167" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B167" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C167" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="D167" t="s">
         <v>33</v>
       </c>
       <c r="E167" t="s">
+        <v>285</v>
+      </c>
+      <c r="F167" t="s">
+        <v>18</v>
+      </c>
+      <c r="G167" t="s">
         <v>287</v>
       </c>
-      <c r="F167" t="s">
-        <v>18</v>
-      </c>
-      <c r="G167" t="s">
-        <v>289</v>
-      </c>
       <c r="J167" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="L167" t="s">
         <v>20</v>
       </c>
       <c r="M167" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="168" spans="1:14">
       <c r="A168" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B168" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="C168" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="D168" t="s">
         <v>33</v>
       </c>
       <c r="E168" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G168" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="J168" t="s">
         <v>68</v>
@@ -9136,30 +9121,30 @@
         <v>20</v>
       </c>
       <c r="M168" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
     </row>
     <row r="169" spans="1:14">
       <c r="A169" t="s">
+        <v>316</v>
+      </c>
+      <c r="B169" t="s">
+        <v>317</v>
+      </c>
+      <c r="C169" t="s">
+        <v>351</v>
+      </c>
+      <c r="D169" t="s">
+        <v>44</v>
+      </c>
+      <c r="E169" t="s">
         <v>318</v>
       </c>
-      <c r="B169" t="s">
-        <v>319</v>
-      </c>
-      <c r="C169" t="s">
-        <v>353</v>
-      </c>
-      <c r="D169" t="s">
-        <v>44</v>
-      </c>
-      <c r="E169" t="s">
-        <v>320</v>
-      </c>
       <c r="F169" t="s">
         <v>18</v>
       </c>
       <c r="H169" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="J169">
         <v>200</v>
@@ -9168,30 +9153,30 @@
         <v>20</v>
       </c>
       <c r="M169" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
     </row>
     <row r="170" spans="1:14">
       <c r="A170" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B170" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C170" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="D170" t="s">
         <v>44</v>
       </c>
       <c r="E170" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F170" t="s">
         <v>18</v>
       </c>
       <c r="H170" t="s">
-        <v>960</v>
+        <v>954</v>
       </c>
       <c r="J170">
         <v>422</v>
@@ -9202,25 +9187,25 @@
     </row>
     <row r="171" spans="1:14">
       <c r="A171" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B171" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C171" t="s">
-        <v>987</v>
+        <v>981</v>
       </c>
       <c r="D171" t="s">
         <v>44</v>
       </c>
       <c r="E171" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F171" t="s">
         <v>18</v>
       </c>
       <c r="H171" t="s">
-        <v>958</v>
+        <v>952</v>
       </c>
       <c r="J171">
         <v>400</v>
@@ -9231,25 +9216,25 @@
     </row>
     <row r="172" spans="1:14">
       <c r="A172" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B172" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C172" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D172" t="s">
         <v>44</v>
       </c>
       <c r="E172" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="F172" t="s">
         <v>18</v>
       </c>
       <c r="H172" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="J172">
         <v>400</v>
@@ -9260,22 +9245,22 @@
     </row>
     <row r="173" spans="1:14">
       <c r="A173" t="s">
-        <v>742</v>
+        <v>737</v>
       </c>
       <c r="B173" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C173" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D173" t="s">
         <v>44</v>
       </c>
       <c r="E173" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="H173" t="s">
-        <v>959</v>
+        <v>953</v>
       </c>
       <c r="J173">
         <v>403</v>
@@ -9284,24 +9269,24 @@
         <v>20</v>
       </c>
       <c r="M173" t="s">
-        <v>820</v>
+        <v>815</v>
       </c>
     </row>
     <row r="174" spans="1:14">
       <c r="A174" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B174" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C174" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="D174" t="s">
         <v>79</v>
       </c>
       <c r="E174" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="F174" t="s">
         <v>18</v>
@@ -9313,36 +9298,36 @@
         <v>20</v>
       </c>
       <c r="M174" t="s">
-        <v>812</v>
+        <v>807</v>
       </c>
       <c r="N174" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="175" spans="1:14">
       <c r="A175" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B175" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C175" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D175" t="s">
         <v>79</v>
       </c>
       <c r="E175" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="F175" t="s">
         <v>18</v>
       </c>
       <c r="G175" t="s">
-        <v>884</v>
+        <v>879</v>
       </c>
       <c r="J175" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L175" t="s">
         <v>20</v>
@@ -9350,19 +9335,19 @@
     </row>
     <row r="176" spans="1:14">
       <c r="A176" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B176" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C176" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D176" t="s">
         <v>79</v>
       </c>
       <c r="E176" t="s">
-        <v>811</v>
+        <v>806</v>
       </c>
       <c r="J176" t="s">
         <v>68</v>
@@ -9371,30 +9356,30 @@
         <v>20</v>
       </c>
       <c r="N176" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="177" spans="1:15">
       <c r="A177" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B177" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C177" t="s">
-        <v>819</v>
+        <v>814</v>
       </c>
       <c r="D177" t="s">
         <v>79</v>
       </c>
       <c r="E177" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F177" t="s">
         <v>18</v>
       </c>
       <c r="G177" t="s">
-        <v>957</v>
+        <v>951</v>
       </c>
       <c r="J177">
         <v>200</v>
@@ -9403,30 +9388,30 @@
         <v>20</v>
       </c>
       <c r="M177" t="s">
-        <v>810</v>
+        <v>805</v>
       </c>
       <c r="N177" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="178" spans="1:15">
       <c r="A178" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B178" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C178" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D178" t="s">
         <v>79</v>
       </c>
       <c r="E178" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="G178" t="s">
-        <v>880</v>
+        <v>875</v>
       </c>
       <c r="J178">
         <v>403</v>
@@ -9437,25 +9422,25 @@
     </row>
     <row r="179" spans="1:15">
       <c r="A179" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B179" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C179" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D179" t="s">
         <v>79</v>
       </c>
       <c r="E179" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="F179" t="s">
         <v>18</v>
       </c>
       <c r="G179" t="s">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="J179">
         <v>404</v>
@@ -9466,19 +9451,19 @@
     </row>
     <row r="180" spans="1:15">
       <c r="A180" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B180" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C180" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D180" t="s">
         <v>79</v>
       </c>
       <c r="E180" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F180" t="s">
         <v>18</v>
@@ -9492,42 +9477,42 @@
     </row>
     <row r="181" spans="1:15">
       <c r="A181" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B181" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C181" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="D181" t="s">
         <v>79</v>
       </c>
       <c r="E181" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="J181" t="s">
         <v>68</v>
       </c>
       <c r="L181" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
     </row>
     <row r="182" spans="1:15">
       <c r="A182" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B182" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C182" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D182" t="s">
         <v>79</v>
       </c>
       <c r="E182" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="F182" t="s">
         <v>18</v>
@@ -9541,25 +9526,25 @@
     </row>
     <row r="183" spans="1:15">
       <c r="A183" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B183" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C183" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="D183" t="s">
         <v>16</v>
       </c>
       <c r="E183" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F183" t="s">
         <v>18</v>
       </c>
       <c r="H183" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="J183">
         <v>200</v>
@@ -9568,33 +9553,33 @@
         <v>20</v>
       </c>
       <c r="M183" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="N183" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="184" spans="1:15">
       <c r="A184" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B184" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C184" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D184" t="s">
         <v>16</v>
       </c>
       <c r="E184" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F184" t="s">
         <v>18</v>
       </c>
       <c r="H184" t="s">
-        <v>967</v>
+        <v>961</v>
       </c>
       <c r="J184">
         <v>400</v>
@@ -9605,22 +9590,22 @@
     </row>
     <row r="185" spans="1:15">
       <c r="A185" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B185" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C185" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="D185" t="s">
         <v>16</v>
       </c>
       <c r="E185" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H185" t="s">
-        <v>885</v>
+        <v>880</v>
       </c>
       <c r="J185">
         <v>403</v>
@@ -9631,25 +9616,25 @@
     </row>
     <row r="186" spans="1:15">
       <c r="A186" t="s">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="B186" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C186" t="s">
-        <v>831</v>
+        <v>826</v>
       </c>
       <c r="D186" t="s">
         <v>16</v>
       </c>
       <c r="E186" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="F186" t="s">
         <v>18</v>
       </c>
       <c r="H186" t="s">
-        <v>808</v>
+        <v>803</v>
       </c>
       <c r="J186">
         <v>404</v>
@@ -9658,33 +9643,33 @@
         <v>20</v>
       </c>
       <c r="M186" t="s">
-        <v>809</v>
+        <v>804</v>
       </c>
       <c r="N186" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="187" spans="1:15">
       <c r="A187" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B187" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C187" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="D187" t="s">
         <v>44</v>
       </c>
       <c r="E187" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F187" t="s">
         <v>18</v>
       </c>
       <c r="H187" t="s">
-        <v>952</v>
+        <v>946</v>
       </c>
       <c r="J187">
         <v>200</v>
@@ -9693,36 +9678,36 @@
         <v>20</v>
       </c>
       <c r="M187" t="s">
-        <v>807</v>
+        <v>802</v>
       </c>
       <c r="O187" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="188" spans="1:15">
       <c r="A188" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B188" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C188" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D188" t="s">
         <v>44</v>
       </c>
       <c r="E188" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F188" t="s">
         <v>18</v>
       </c>
       <c r="H188" t="s">
-        <v>955</v>
+        <v>949</v>
       </c>
       <c r="J188" t="s">
-        <v>741</v>
+        <v>736</v>
       </c>
       <c r="L188" t="s">
         <v>20</v>
@@ -9730,25 +9715,25 @@
     </row>
     <row r="189" spans="1:15">
       <c r="A189" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B189" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C189" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D189" t="s">
         <v>44</v>
       </c>
       <c r="E189" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="F189" t="s">
         <v>18</v>
       </c>
       <c r="H189" t="s">
-        <v>954</v>
+        <v>948</v>
       </c>
       <c r="J189">
         <v>422</v>
@@ -9759,22 +9744,22 @@
     </row>
     <row r="190" spans="1:15">
       <c r="A190" t="s">
-        <v>740</v>
+        <v>735</v>
       </c>
       <c r="B190" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C190" t="s">
-        <v>738</v>
+        <v>733</v>
       </c>
       <c r="D190" t="s">
         <v>44</v>
       </c>
       <c r="E190" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="H190" t="s">
-        <v>956</v>
+        <v>950</v>
       </c>
       <c r="J190">
         <v>401</v>
@@ -9783,30 +9768,30 @@
         <v>20</v>
       </c>
       <c r="M190" t="s">
-        <v>739</v>
+        <v>734</v>
       </c>
     </row>
     <row r="191" spans="1:15">
       <c r="A191" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B191" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C191" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D191" t="s">
         <v>16</v>
       </c>
       <c r="E191" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F191" t="s">
         <v>18</v>
       </c>
       <c r="H191" t="s">
-        <v>953</v>
+        <v>947</v>
       </c>
       <c r="J191">
         <v>200</v>
@@ -9815,36 +9800,36 @@
         <v>20</v>
       </c>
       <c r="M191" t="s">
-        <v>805</v>
+        <v>800</v>
       </c>
       <c r="N191" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="192" spans="1:15">
       <c r="A192" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B192" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C192" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D192" t="s">
         <v>16</v>
       </c>
       <c r="E192" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F192" t="s">
         <v>18</v>
       </c>
       <c r="H192" t="s">
-        <v>951</v>
+        <v>945</v>
       </c>
       <c r="J192" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="L192" t="s">
         <v>20</v>
@@ -9852,25 +9837,25 @@
     </row>
     <row r="193" spans="1:14">
       <c r="A193" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B193" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C193" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="D193" t="s">
         <v>16</v>
       </c>
       <c r="E193" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="F193" t="s">
         <v>18</v>
       </c>
       <c r="H193" t="s">
-        <v>883</v>
+        <v>878</v>
       </c>
       <c r="J193">
         <v>422</v>
@@ -9881,25 +9866,25 @@
     </row>
     <row r="194" spans="1:14">
       <c r="A194" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B194" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C194" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D194" t="s">
         <v>33</v>
       </c>
       <c r="E194" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F194" t="s">
         <v>18</v>
       </c>
       <c r="G194" t="s">
-        <v>804</v>
+        <v>799</v>
       </c>
       <c r="J194">
         <v>200</v>
@@ -9908,36 +9893,36 @@
         <v>20</v>
       </c>
       <c r="M194" t="s">
-        <v>806</v>
+        <v>801</v>
       </c>
       <c r="N194" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
     </row>
     <row r="195" spans="1:14">
       <c r="A195" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B195" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C195" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D195" t="s">
         <v>33</v>
       </c>
       <c r="E195" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="F195" t="s">
         <v>18</v>
       </c>
       <c r="G195" t="s">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="J195" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="L195" t="s">
         <v>20</v>
@@ -9945,22 +9930,22 @@
     </row>
     <row r="196" spans="1:14">
       <c r="A196" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B196" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="C196" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="D196" t="s">
         <v>33</v>
       </c>
       <c r="E196" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="G196" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="J196">
         <v>403</v>
@@ -9971,25 +9956,25 @@
     </row>
     <row r="197" spans="1:14">
       <c r="A197" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B197" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C197" t="s">
-        <v>699</v>
+        <v>695</v>
       </c>
       <c r="D197" t="s">
         <v>44</v>
       </c>
       <c r="E197" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F197" t="s">
         <v>18</v>
       </c>
       <c r="H197" t="s">
-        <v>872</v>
+        <v>867</v>
       </c>
       <c r="J197">
         <v>200</v>
@@ -9998,30 +9983,30 @@
         <v>20</v>
       </c>
       <c r="M197" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="198" spans="1:14">
       <c r="A198" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B198" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C198" t="s">
-        <v>700</v>
+        <v>696</v>
       </c>
       <c r="D198" t="s">
         <v>44</v>
       </c>
       <c r="E198" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F198" t="s">
         <v>18</v>
       </c>
       <c r="H198" t="s">
-        <v>873</v>
+        <v>868</v>
       </c>
       <c r="J198">
         <v>422</v>
@@ -10030,62 +10015,62 @@
         <v>20</v>
       </c>
       <c r="M198" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="199" spans="1:14">
       <c r="A199" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B199" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C199" t="s">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="D199" t="s">
         <v>44</v>
       </c>
       <c r="E199" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="F199" t="s">
         <v>18</v>
       </c>
       <c r="H199" t="s">
-        <v>870</v>
+        <v>865</v>
       </c>
       <c r="J199">
         <v>400</v>
       </c>
       <c r="L199" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M199" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="200" spans="1:14">
       <c r="A200" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B200" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C200" t="s">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="D200" t="s">
         <v>44</v>
       </c>
       <c r="E200" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F200" t="s">
         <v>18</v>
       </c>
       <c r="H200" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="J200">
         <v>200</v>
@@ -10094,30 +10079,30 @@
         <v>20</v>
       </c>
       <c r="M200" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="201" spans="1:14">
       <c r="A201" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B201" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C201" t="s">
-        <v>703</v>
+        <v>699</v>
       </c>
       <c r="D201" t="s">
         <v>44</v>
       </c>
       <c r="E201" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F201" t="s">
         <v>18</v>
       </c>
       <c r="H201" t="s">
-        <v>874</v>
+        <v>869</v>
       </c>
       <c r="J201">
         <v>422</v>
@@ -10126,56 +10111,56 @@
         <v>20</v>
       </c>
       <c r="M201" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="202" spans="1:14">
       <c r="A202" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B202" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C202" t="s">
-        <v>704</v>
+        <v>700</v>
       </c>
       <c r="D202" t="s">
         <v>44</v>
       </c>
       <c r="E202" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="F202" t="s">
         <v>18</v>
       </c>
       <c r="H202" t="s">
-        <v>949</v>
+        <v>943</v>
       </c>
       <c r="J202">
         <v>400</v>
       </c>
       <c r="L202" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M202" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="203" spans="1:14">
       <c r="A203" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B203" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C203" t="s">
-        <v>705</v>
+        <v>701</v>
       </c>
       <c r="D203" t="s">
         <v>79</v>
       </c>
       <c r="E203" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="F203" t="s">
         <v>18</v>
@@ -10187,24 +10172,24 @@
         <v>20</v>
       </c>
       <c r="M203" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="204" spans="1:14">
       <c r="A204" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B204" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C204" t="s">
-        <v>706</v>
+        <v>702</v>
       </c>
       <c r="D204" t="s">
         <v>79</v>
       </c>
       <c r="E204" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="J204">
         <v>401</v>
@@ -10213,24 +10198,24 @@
         <v>20</v>
       </c>
       <c r="M204" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="205" spans="1:14">
       <c r="A205" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B205" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C205" t="s">
-        <v>707</v>
+        <v>703</v>
       </c>
       <c r="D205" t="s">
         <v>79</v>
       </c>
       <c r="E205" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="F205" t="s">
         <v>18</v>
@@ -10242,24 +10227,24 @@
         <v>20</v>
       </c>
       <c r="M205" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:14">
       <c r="A206" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B206" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C206" t="s">
-        <v>708</v>
+        <v>704</v>
       </c>
       <c r="D206" t="s">
         <v>79</v>
       </c>
       <c r="E206" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="J206">
         <v>401</v>
@@ -10268,24 +10253,24 @@
         <v>20</v>
       </c>
       <c r="M206" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="207" spans="1:14">
       <c r="A207" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B207" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C207" t="s">
-        <v>709</v>
+        <v>705</v>
       </c>
       <c r="D207" t="s">
         <v>79</v>
       </c>
       <c r="E207" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="F207" t="s">
         <v>18</v>
@@ -10297,24 +10282,24 @@
         <v>20</v>
       </c>
       <c r="M207" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="208" spans="1:14">
       <c r="A208" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B208" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C208" t="s">
-        <v>710</v>
+        <v>706</v>
       </c>
       <c r="D208" t="s">
         <v>79</v>
       </c>
       <c r="E208" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="J208">
         <v>401</v>
@@ -10323,30 +10308,30 @@
         <v>20</v>
       </c>
       <c r="M208" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="209" spans="1:14">
       <c r="A209" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B209" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C209" t="s">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="D209" t="s">
         <v>44</v>
       </c>
       <c r="E209" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F209" t="s">
         <v>18</v>
       </c>
       <c r="H209" t="s">
-        <v>950</v>
+        <v>944</v>
       </c>
       <c r="J209">
         <v>200</v>
@@ -10355,30 +10340,30 @@
         <v>20</v>
       </c>
       <c r="M209" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="210" spans="1:14">
       <c r="A210" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B210" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C210" t="s">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="D210" t="s">
         <v>44</v>
       </c>
       <c r="E210" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="F210" t="s">
         <v>18</v>
       </c>
       <c r="H210" t="s">
-        <v>871</v>
+        <v>866</v>
       </c>
       <c r="J210">
         <v>422</v>
@@ -10387,53 +10372,53 @@
         <v>20</v>
       </c>
       <c r="M210" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="211" spans="1:14">
       <c r="A211" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B211" t="s">
+        <v>409</v>
+      </c>
+      <c r="C211" t="s">
         <v>411</v>
-      </c>
-      <c r="C211" t="s">
-        <v>413</v>
       </c>
       <c r="D211" t="s">
         <v>79</v>
       </c>
       <c r="E211" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="J211" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L211" t="s">
         <v>20</v>
       </c>
       <c r="M211" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="212" spans="1:14">
       <c r="A212" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B212" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C212" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="D212" t="s">
         <v>79</v>
       </c>
       <c r="E212" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="G212" t="s">
-        <v>895</v>
+        <v>890</v>
       </c>
       <c r="J212">
         <v>200</v>
@@ -10442,27 +10427,27 @@
         <v>20</v>
       </c>
       <c r="M212" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="N212" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="213" spans="1:14">
       <c r="A213" t="s">
-        <v>753</v>
+        <v>748</v>
       </c>
       <c r="B213" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C213" t="s">
-        <v>752</v>
+        <v>747</v>
       </c>
       <c r="D213" t="s">
         <v>79</v>
       </c>
       <c r="E213" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="J213">
         <v>500</v>
@@ -10471,56 +10456,56 @@
         <v>51</v>
       </c>
       <c r="L213" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M213" t="s">
-        <v>754</v>
+        <v>749</v>
       </c>
     </row>
     <row r="214" spans="1:14">
       <c r="A214" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B214" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C214" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D214" t="s">
         <v>79</v>
       </c>
       <c r="E214" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F214" t="s">
         <v>18</v>
       </c>
       <c r="J214" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="L214" t="s">
         <v>20</v>
       </c>
       <c r="M214" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="215" spans="1:14">
       <c r="A215" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B215" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C215" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D215" t="s">
         <v>79</v>
       </c>
       <c r="E215" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F215" t="s">
         <v>18</v>
@@ -10532,27 +10517,27 @@
         <v>20</v>
       </c>
       <c r="M215" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="N215" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="216" spans="1:14">
       <c r="A216" t="s">
-        <v>755</v>
+        <v>750</v>
       </c>
       <c r="B216" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="C216" t="s">
-        <v>756</v>
+        <v>751</v>
       </c>
       <c r="D216" t="s">
         <v>79</v>
       </c>
       <c r="E216" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="F216" t="s">
         <v>18</v>
@@ -10567,30 +10552,30 @@
         <v>20</v>
       </c>
       <c r="M216" t="s">
-        <v>757</v>
+        <v>752</v>
       </c>
     </row>
     <row r="217" spans="1:14">
       <c r="A217" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B217" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C217" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="D217" t="s">
         <v>79</v>
       </c>
       <c r="E217" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F217" t="s">
         <v>18</v>
       </c>
       <c r="G217" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="J217">
         <v>200</v>
@@ -10599,94 +10584,94 @@
         <v>20</v>
       </c>
       <c r="M217" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="218" spans="1:14">
       <c r="A218" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B218" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C218" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="D218" t="s">
         <v>79</v>
       </c>
       <c r="E218" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F218" t="s">
         <v>18</v>
       </c>
       <c r="G218" t="s">
-        <v>948</v>
+        <v>942</v>
       </c>
       <c r="J218">
         <v>400</v>
       </c>
       <c r="K218" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="L218" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M218" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
     </row>
     <row r="219" spans="1:14">
       <c r="A219" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B219" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C219" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="D219" t="s">
         <v>79</v>
       </c>
       <c r="E219" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G219" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="J219">
         <v>401</v>
       </c>
       <c r="L219" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M219" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
     </row>
     <row r="220" spans="1:14">
       <c r="A220" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B220" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C220" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="D220" t="s">
         <v>79</v>
       </c>
       <c r="E220" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="F220" t="s">
         <v>18</v>
       </c>
       <c r="G220" t="s">
-        <v>817</v>
+        <v>812</v>
       </c>
       <c r="J220">
         <v>422</v>
@@ -10695,30 +10680,30 @@
         <v>20</v>
       </c>
       <c r="M220" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
     </row>
     <row r="221" spans="1:14">
       <c r="A221" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B221" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C221" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="D221" t="s">
         <v>44</v>
       </c>
       <c r="E221" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F221" t="s">
         <v>18</v>
       </c>
       <c r="H221" t="s">
-        <v>966</v>
+        <v>960</v>
       </c>
       <c r="J221">
         <v>200</v>
@@ -10727,30 +10712,30 @@
         <v>20</v>
       </c>
       <c r="M221" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
     </row>
     <row r="222" spans="1:14">
       <c r="A222" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B222" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C222" t="s">
+        <v>459</v>
+      </c>
+      <c r="D222" t="s">
+        <v>44</v>
+      </c>
+      <c r="E222" t="s">
         <v>461</v>
       </c>
-      <c r="D222" t="s">
-        <v>44</v>
-      </c>
-      <c r="E222" t="s">
-        <v>463</v>
-      </c>
       <c r="F222" t="s">
         <v>18</v>
       </c>
       <c r="H222" t="s">
-        <v>965</v>
+        <v>959</v>
       </c>
       <c r="J222">
         <v>200</v>
@@ -10759,30 +10744,30 @@
         <v>20</v>
       </c>
       <c r="M222" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
     </row>
     <row r="223" spans="1:14">
       <c r="A223" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B223" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C223" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="D223" t="s">
         <v>44</v>
       </c>
       <c r="E223" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F223" t="s">
         <v>18</v>
       </c>
       <c r="H223" t="s">
-        <v>869</v>
+        <v>864</v>
       </c>
       <c r="J223">
         <v>422</v>
@@ -10791,30 +10776,30 @@
         <v>20</v>
       </c>
       <c r="M223" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
     </row>
     <row r="224" spans="1:14">
       <c r="A224" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B224" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C224" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="D224" t="s">
         <v>44</v>
       </c>
       <c r="E224" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F224" t="s">
         <v>18</v>
       </c>
       <c r="H224" t="s">
-        <v>931</v>
+        <v>925</v>
       </c>
       <c r="J224">
         <v>422</v>
@@ -10823,30 +10808,30 @@
         <v>20</v>
       </c>
       <c r="M224" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
     </row>
     <row r="225" spans="1:13">
       <c r="A225" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B225" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="C225" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="D225" t="s">
         <v>44</v>
       </c>
       <c r="E225" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="F225" t="s">
         <v>18</v>
       </c>
       <c r="H225" t="s">
-        <v>932</v>
+        <v>926</v>
       </c>
       <c r="J225">
         <v>422</v>
@@ -10855,27 +10840,27 @@
         <v>20</v>
       </c>
       <c r="M225" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
     </row>
     <row r="226" spans="1:13">
       <c r="A226" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B226" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C226" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="D226" t="s">
         <v>79</v>
       </c>
       <c r="E226" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F226" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="J226">
         <v>401</v>
@@ -10884,27 +10869,27 @@
         <v>20</v>
       </c>
       <c r="M226" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
     </row>
     <row r="227" spans="1:13">
       <c r="A227" t="s">
-        <v>713</v>
+        <v>709</v>
       </c>
       <c r="B227" t="s">
+        <v>471</v>
+      </c>
+      <c r="C227" t="s">
         <v>473</v>
-      </c>
-      <c r="C227" t="s">
-        <v>475</v>
       </c>
       <c r="D227" t="s">
         <v>79</v>
       </c>
       <c r="E227" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="F227" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J227">
         <v>200</v>
@@ -10913,27 +10898,27 @@
         <v>20</v>
       </c>
       <c r="M227" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
     </row>
     <row r="228" spans="1:13">
       <c r="A228" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B228" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C228" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="D228" t="s">
         <v>79</v>
       </c>
       <c r="E228" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F228" t="s">
-        <v>768</v>
+        <v>763</v>
       </c>
       <c r="J228">
         <v>401</v>
@@ -10942,27 +10927,27 @@
         <v>20</v>
       </c>
       <c r="M228" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
     </row>
     <row r="229" spans="1:13">
       <c r="A229" t="s">
-        <v>714</v>
+        <v>710</v>
       </c>
       <c r="B229" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C229" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="D229" t="s">
         <v>79</v>
       </c>
       <c r="E229" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="F229" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="J229">
         <v>200</v>
@@ -10971,30 +10956,30 @@
         <v>20</v>
       </c>
       <c r="M229" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
     </row>
     <row r="230" spans="1:13">
       <c r="A230" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B230" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C230" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="D230" t="s">
         <v>44</v>
       </c>
       <c r="E230" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F230" t="s">
         <v>18</v>
       </c>
       <c r="H230" t="s">
-        <v>926</v>
+        <v>920</v>
       </c>
       <c r="J230">
         <v>200</v>
@@ -11003,30 +10988,30 @@
         <v>20</v>
       </c>
       <c r="M230" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
     </row>
     <row r="231" spans="1:13">
       <c r="A231" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B231" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C231" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="D231" t="s">
         <v>44</v>
       </c>
       <c r="E231" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F231" t="s">
         <v>18</v>
       </c>
       <c r="H231" t="s">
-        <v>818</v>
+        <v>813</v>
       </c>
       <c r="J231">
         <v>400</v>
@@ -11035,30 +11020,30 @@
         <v>20</v>
       </c>
       <c r="M231" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
     </row>
     <row r="232" spans="1:13">
       <c r="A232" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B232" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C232" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="D232" t="s">
         <v>44</v>
       </c>
       <c r="E232" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="F232" t="s">
         <v>18</v>
       </c>
       <c r="H232" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="J232">
         <v>422</v>
@@ -11067,27 +11052,27 @@
         <v>20</v>
       </c>
       <c r="M232" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
     </row>
     <row r="233" spans="1:13">
       <c r="A233" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B233" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C233" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="D233" t="s">
         <v>44</v>
       </c>
       <c r="E233" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="H233" t="s">
-        <v>867</v>
+        <v>862</v>
       </c>
       <c r="J233" t="s">
         <v>68</v>
@@ -11096,24 +11081,24 @@
         <v>20</v>
       </c>
       <c r="M233" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
     </row>
     <row r="234" spans="1:13">
       <c r="A234" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B234" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C234" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="D234" t="s">
         <v>79</v>
       </c>
       <c r="E234" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="F234" t="s">
         <v>18</v>
@@ -11125,56 +11110,56 @@
         <v>20</v>
       </c>
       <c r="M234" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
     </row>
     <row r="235" spans="1:13">
       <c r="A235" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B235" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C235" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="D235" t="s">
         <v>79</v>
       </c>
       <c r="E235" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="J235" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L235" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M235" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
     </row>
     <row r="236" spans="1:13">
       <c r="A236" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B236" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C236" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="D236" t="s">
         <v>79</v>
       </c>
       <c r="E236" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F236" t="s">
         <v>18</v>
       </c>
       <c r="G236" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="J236">
         <v>200</v>
@@ -11183,91 +11168,91 @@
         <v>20</v>
       </c>
       <c r="M236" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
     </row>
     <row r="237" spans="1:13">
       <c r="A237" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B237" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C237" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="D237" t="s">
         <v>79</v>
       </c>
       <c r="E237" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="F237" t="s">
         <v>18</v>
       </c>
       <c r="G237" t="s">
-        <v>925</v>
+        <v>919</v>
       </c>
       <c r="J237" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="L237" t="s">
         <v>20</v>
       </c>
       <c r="M237" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
     </row>
     <row r="238" spans="1:13">
       <c r="A238" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B238" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C238" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D238" t="s">
         <v>79</v>
       </c>
       <c r="E238" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="G238" t="s">
-        <v>924</v>
+        <v>918</v>
       </c>
       <c r="J238" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L238" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M238" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="239" spans="1:13">
       <c r="A239" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B239" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C239" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="D239" t="s">
         <v>44</v>
       </c>
       <c r="E239" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F239" t="s">
         <v>18</v>
       </c>
       <c r="H239" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="J239">
         <v>200</v>
@@ -11276,30 +11261,30 @@
         <v>20</v>
       </c>
       <c r="M239" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
     </row>
     <row r="240" spans="1:13">
       <c r="A240" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B240" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C240" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="D240" t="s">
         <v>44</v>
       </c>
       <c r="E240" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="F240" t="s">
         <v>18</v>
       </c>
       <c r="H240" t="s">
-        <v>935</v>
+        <v>929</v>
       </c>
       <c r="J240">
         <v>422</v>
@@ -11308,53 +11293,53 @@
         <v>20</v>
       </c>
       <c r="M240" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
     </row>
     <row r="241" spans="1:13">
       <c r="A241" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B241" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C241" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D241" t="s">
         <v>44</v>
       </c>
       <c r="E241" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="H241" t="s">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="J241" t="s">
         <v>68</v>
       </c>
       <c r="L241" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M241" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="242" spans="1:13">
       <c r="A242" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B242" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C242" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="D242" t="s">
         <v>79</v>
       </c>
       <c r="E242" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="F242" t="s">
         <v>18</v>
@@ -11366,56 +11351,56 @@
         <v>20</v>
       </c>
       <c r="M242" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
     </row>
     <row r="243" spans="1:13">
       <c r="A243" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B243" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C243" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="D243" t="s">
         <v>79</v>
       </c>
       <c r="E243" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="J243" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="L243" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M243" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
     </row>
     <row r="244" spans="1:13">
       <c r="A244" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B244" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C244" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="D244" t="s">
         <v>79</v>
       </c>
       <c r="E244" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F244" t="s">
         <v>18</v>
       </c>
       <c r="G244" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="J244">
         <v>200</v>
@@ -11424,24 +11409,24 @@
         <v>20</v>
       </c>
       <c r="M244" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
     </row>
     <row r="245" spans="1:13">
       <c r="A245" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B245" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C245" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D245" t="s">
         <v>79</v>
       </c>
       <c r="E245" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F245" t="s">
         <v>18</v>
@@ -11453,94 +11438,94 @@
         <v>20</v>
       </c>
       <c r="M245" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
     </row>
     <row r="246" spans="1:13">
       <c r="A246" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B246" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C246" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="D246" t="s">
         <v>79</v>
       </c>
       <c r="E246" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="G246" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="J246" s="2" t="s">
         <v>68</v>
       </c>
       <c r="L246" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M246" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
     </row>
     <row r="247" spans="1:13">
       <c r="A247" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B247" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C247" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="D247" t="s">
         <v>79</v>
       </c>
       <c r="E247" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="F247" t="s">
         <v>18</v>
       </c>
       <c r="G247" t="s">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="J247">
         <v>404</v>
       </c>
       <c r="L247" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M247" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
     </row>
     <row r="248" spans="1:13">
       <c r="A248" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B248" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C248" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="D248" t="s">
         <v>44</v>
       </c>
       <c r="E248" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F248" t="s">
         <v>18</v>
       </c>
       <c r="G248" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="H248" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="J248">
         <v>200</v>
@@ -11549,30 +11534,30 @@
         <v>20</v>
       </c>
       <c r="M248" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
     </row>
     <row r="249" spans="1:13">
       <c r="A249" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B249" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C249" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="D249" t="s">
         <v>44</v>
       </c>
       <c r="E249" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F249" t="s">
         <v>18</v>
       </c>
       <c r="H249" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="J249">
         <v>422</v>
@@ -11581,91 +11566,91 @@
         <v>20</v>
       </c>
       <c r="M249" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
     </row>
     <row r="250" spans="1:13">
       <c r="A250" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B250" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C250" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="D250" t="s">
         <v>44</v>
       </c>
       <c r="E250" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="G250" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="H250" t="s">
-        <v>936</v>
+        <v>930</v>
       </c>
       <c r="J250" t="s">
         <v>68</v>
       </c>
       <c r="L250" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M250" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
     </row>
     <row r="251" spans="1:13">
       <c r="A251" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B251" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C251" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="D251" t="s">
         <v>44</v>
       </c>
       <c r="E251" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="F251" t="s">
         <v>18</v>
       </c>
       <c r="G251" t="s">
-        <v>933</v>
+        <v>927</v>
       </c>
       <c r="H251" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="J251" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="L251" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M251" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
     </row>
     <row r="252" spans="1:13">
       <c r="A252" t="s">
+        <v>722</v>
+      </c>
+      <c r="B252" t="s">
+        <v>471</v>
+      </c>
+      <c r="C252" t="s">
+        <v>724</v>
+      </c>
+      <c r="D252" t="s">
+        <v>44</v>
+      </c>
+      <c r="E252" t="s">
         <v>726</v>
-      </c>
-      <c r="B252" t="s">
-        <v>473</v>
-      </c>
-      <c r="C252" t="s">
-        <v>728</v>
-      </c>
-      <c r="D252" t="s">
-        <v>44</v>
-      </c>
-      <c r="E252" t="s">
-        <v>730</v>
       </c>
       <c r="F252" t="s">
         <v>18</v>
@@ -11680,24 +11665,24 @@
         <v>20</v>
       </c>
       <c r="M252" t="s">
-        <v>731</v>
+        <v>727</v>
       </c>
     </row>
     <row r="253" spans="1:13">
       <c r="A253" t="s">
-        <v>727</v>
+        <v>723</v>
       </c>
       <c r="B253" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="C253" t="s">
-        <v>729</v>
+        <v>725</v>
       </c>
       <c r="D253" t="s">
         <v>44</v>
       </c>
       <c r="E253" t="s">
-        <v>730</v>
+        <v>726</v>
       </c>
       <c r="J253">
         <v>401</v>
@@ -11709,24 +11694,24 @@
         <v>20</v>
       </c>
       <c r="M253" t="s">
-        <v>732</v>
+        <v>728</v>
       </c>
     </row>
     <row r="254" spans="1:13">
       <c r="A254" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B254" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C254" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="D254" t="s">
         <v>44</v>
       </c>
       <c r="E254" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F254" t="s">
         <v>18</v>
@@ -11735,123 +11720,123 @@
         <v>200</v>
       </c>
       <c r="K254" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="L254" t="s">
         <v>20</v>
       </c>
       <c r="M254" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="255" spans="1:13">
       <c r="A255" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B255" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C255" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D255" t="s">
         <v>44</v>
       </c>
       <c r="E255" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="J255">
         <v>401</v>
       </c>
       <c r="K255" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="L255" t="s">
         <v>20</v>
       </c>
       <c r="M255" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
     <row r="256" spans="1:13">
       <c r="A256" t="s">
+        <v>426</v>
+      </c>
+      <c r="B256" t="s">
+        <v>419</v>
+      </c>
+      <c r="C256" t="s">
+        <v>417</v>
+      </c>
+      <c r="D256" t="s">
+        <v>44</v>
+      </c>
+      <c r="E256" t="s">
         <v>428</v>
       </c>
-      <c r="B256" t="s">
-        <v>421</v>
-      </c>
-      <c r="C256" t="s">
-        <v>419</v>
-      </c>
-      <c r="D256" t="s">
-        <v>44</v>
-      </c>
-      <c r="E256" t="s">
-        <v>430</v>
-      </c>
       <c r="F256" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="J256">
         <v>401</v>
       </c>
       <c r="K256" t="s">
-        <v>722</v>
+        <v>718</v>
       </c>
       <c r="L256" t="s">
         <v>20</v>
       </c>
       <c r="M256" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
     </row>
     <row r="257" spans="1:14">
       <c r="A257" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B257" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C257" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="D257" t="s">
         <v>44</v>
       </c>
       <c r="E257" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F257" t="s">
         <v>18</v>
       </c>
       <c r="J257" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="L257" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M257" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="N257" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="258" spans="1:14">
       <c r="A258" t="s">
-        <v>749</v>
+        <v>744</v>
       </c>
       <c r="B258" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C258" t="s">
-        <v>750</v>
+        <v>745</v>
       </c>
       <c r="D258" t="s">
         <v>44</v>
       </c>
       <c r="E258" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F258" t="s">
         <v>18</v>
@@ -11863,30 +11848,30 @@
         <v>51</v>
       </c>
       <c r="L258" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="M258" t="s">
-        <v>751</v>
+        <v>746</v>
       </c>
     </row>
     <row r="259" spans="1:14">
       <c r="A259" t="s">
-        <v>816</v>
+        <v>811</v>
       </c>
       <c r="B259" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="C259" t="s">
-        <v>767</v>
+        <v>762</v>
       </c>
       <c r="D259" t="s">
         <v>44</v>
       </c>
       <c r="E259" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="F259" t="s">
-        <v>782</v>
+        <v>777</v>
       </c>
       <c r="J259">
         <v>404</v>
@@ -11898,12 +11883,12 @@
         <v>20</v>
       </c>
       <c r="M259" t="s">
-        <v>769</v>
+        <v>764</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="M48 L1:L1048576">
+  <conditionalFormatting sqref="L1:L1048576 M48">
     <cfRule type="containsText" dxfId="0" priority="2" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",L1)))</formula>
     </cfRule>
